--- a/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2">
-        <v>0.0005409037619421531</v>
+        <v>0.0005376466737016518</v>
       </c>
       <c r="F2">
         <v>0.508849324635016</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.01836955514081723</v>
+        <v>0.01635448674696752</v>
       </c>
       <c r="F3">
         <v>0.5056836768785419</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.03351563241366085</v>
+        <v>0.03147651671560622</v>
       </c>
       <c r="F4">
         <v>0.5389808934329978</v>
       </c>
       <c r="G4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>131</v>
       </c>
       <c r="E5">
-        <v>0.03121955593941985</v>
+        <v>0.02995609021605257</v>
       </c>
       <c r="F5">
         <v>0.5007858198908856</v>
       </c>
       <c r="G5">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01516021504766685</v>
+        <v>0.01514829473258368</v>
       </c>
       <c r="F6">
         <v>0.5501418700748852</v>
       </c>
       <c r="G6">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.0005409037619421531</v>
+        <v>0.0005376466737016518</v>
       </c>
       <c r="F2">
         <v>0.7279594774102509</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01836955514081723</v>
+        <v>0.01635448674696752</v>
       </c>
       <c r="F3">
         <v>0.7091253286724011</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>115</v>
       </c>
       <c r="E4">
-        <v>0.03351563241366085</v>
+        <v>0.03147651671560622</v>
       </c>
       <c r="F4">
         <v>0.7005481722622575</v>
       </c>
       <c r="G4">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.03121955593941985</v>
+        <v>0.02995609021605257</v>
       </c>
       <c r="F5">
         <v>0.7451740502694014</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>114</v>
       </c>
       <c r="E6">
-        <v>0.01516021504766685</v>
+        <v>0.01514829473258368</v>
       </c>
       <c r="F6">
         <v>0.7094361164938053</v>
       </c>
       <c r="G6">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.0005409037619421531</v>
+        <v>0.0005376466737016518</v>
       </c>
       <c r="F2">
         <v>0.8335019576368642</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>155</v>
       </c>
       <c r="E3">
-        <v>0.01836955514081723</v>
+        <v>0.01635448674696752</v>
       </c>
       <c r="F3">
         <v>0.8219175610941183</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>142</v>
       </c>
       <c r="E4">
-        <v>0.03351563241366085</v>
+        <v>0.03147651671560622</v>
       </c>
       <c r="F4">
         <v>0.8056243183563374</v>
       </c>
       <c r="G4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.03121955593941985</v>
+        <v>0.02995609021605257</v>
       </c>
       <c r="F5">
         <v>0.8044713371904679</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.01516021504766685</v>
+        <v>0.01514829473258368</v>
       </c>
       <c r="F6">
         <v>0.8005917652957615</v>
       </c>
       <c r="G6">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2">
         <v>177</v>
       </c>
       <c r="E2">
-        <v>0.0005409037619421531</v>
+        <v>0.0005376466737016518</v>
       </c>
       <c r="F2">
         <v>0.9042367621824999</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3">
         <v>177</v>
       </c>
       <c r="E3">
-        <v>0.01836955514081723</v>
+        <v>0.01635448674696752</v>
       </c>
       <c r="F3">
         <v>0.9014812615502528</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.03351563241366085</v>
+        <v>0.03147651671560622</v>
       </c>
       <c r="F4">
         <v>0.9117064564873023</v>
       </c>
       <c r="G4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>178</v>
       </c>
       <c r="E5">
-        <v>0.03121955593941985</v>
+        <v>0.02995609021605257</v>
       </c>
       <c r="F5">
         <v>0.9145334936154568</v>
       </c>
       <c r="G5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>164</v>
       </c>
       <c r="E6">
-        <v>0.01516021504766685</v>
+        <v>0.01514829473258368</v>
       </c>
       <c r="F6">
         <v>0.9089504654945815</v>
       </c>
       <c r="G6">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6">
         <v>49</v>

--- a/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.706382116438928E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.087839946728771E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.967455258805596E-08</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>8.44122908663529E-06</v>
+        <v>5.443006462291311E-06</v>
       </c>
       <c r="F2">
-        <v>2.943143655875049E-05</v>
+        <v>2.644368504899201E-05</v>
       </c>
       <c r="G2">
-        <v>1.780842512792623E-05</v>
+        <v>1.481487539608335E-05</v>
       </c>
       <c r="H2">
-        <v>2.308110986972428E-05</v>
+        <v>2.009019045424097E-05</v>
       </c>
       <c r="I2">
-        <v>5.219327744410928E-06</v>
+        <v>2.219497851621298E-06</v>
       </c>
       <c r="J2">
-        <v>5.908843310645536E-09</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.204547598225517E-06</v>
+        <v>5.20620690363432E-06</v>
       </c>
       <c r="L2">
-        <v>3.903666808838489E-06</v>
+        <v>9.031805892150092E-07</v>
       </c>
       <c r="M2">
-        <v>5.945418008854483E-06</v>
+        <v>2.9459503313678E-06</v>
       </c>
       <c r="N2">
-        <v>4.972616556492308E-05</v>
+        <v>4.674853822536099E-05</v>
       </c>
       <c r="O2">
-        <v>4.438437982650889E-05</v>
+        <v>4.140408769906262E-05</v>
       </c>
       <c r="P2">
-        <v>2.33897388546108E-05</v>
+        <v>2.039897340089606E-05</v>
       </c>
       <c r="Q2">
-        <v>3.437484831667295E-06</v>
+        <v>4.36766053842228E-07</v>
       </c>
       <c r="R2">
-        <v>3.000936553044946E-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.529128876149241E-07</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>6.128864699871149E-07</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>4.871053261465836E-06</v>
+        <v>1.871049629468389E-06</v>
       </c>
       <c r="V2">
-        <v>1.529739225089083E-05</v>
+        <v>1.230258987240222E-05</v>
       </c>
       <c r="W2">
-        <v>9.136110552607132E-06</v>
+        <v>6.13823457483457E-06</v>
       </c>
       <c r="X2">
-        <v>7.964180909996209E-07</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1.078465447187838E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>5.527706029309727E-08</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.068176947691663E-09</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.00395305083669E-06</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.124833100068575E-06</v>
+        <v>3.125454925078757E-06</v>
       </c>
       <c r="AD2">
-        <v>1.078465447187838E-06</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>6.967455258805596E-08</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.936252005182261E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.235491339498322E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>8.62929357742582E-07</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.612311621045535E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.124833100068575E-06</v>
+        <v>3.125454925078757E-06</v>
       </c>
       <c r="AK2">
-        <v>1.432171429866951E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.126759651004502E-06</v>
+        <v>4.12788129421491E-06</v>
       </c>
       <c r="AM2">
-        <v>1.706382116438928E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.00395305083669E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.713638118144143E-06</v>
+        <v>7.130571013540586E-07</v>
       </c>
       <c r="AP2">
-        <v>1.082669046981989E-05</v>
+        <v>7.82965784988705E-06</v>
       </c>
       <c r="AQ2">
-        <v>2.33897388546108E-05</v>
+        <v>2.039897340089606E-05</v>
       </c>
       <c r="AR2">
-        <v>1.292190236721793E-05</v>
+        <v>9.925914958671767E-06</v>
       </c>
       <c r="AS2">
-        <v>6.742147069838877E-06</v>
+        <v>3.743076846322204E-06</v>
       </c>
       <c r="AT2">
-        <v>3.903666808838489E-06</v>
+        <v>9.031805892150092E-07</v>
       </c>
       <c r="AU2">
-        <v>3.042562051006557E-07</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>4.067446100818262E-06</v>
+        <v>1.06704158366177E-06</v>
       </c>
       <c r="AW2">
-        <v>8.48740698437397E-07</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>2.052095799509422E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>1.061704148008634E-05</v>
+        <v>7.6199042752609E-06</v>
       </c>
       <c r="AZ2">
-        <v>1.08563494683675E-05</v>
+        <v>7.85933164403745E-06</v>
       </c>
       <c r="BA2">
-        <v>7.195053147660188E-07</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>6.967455258805596E-08</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>2.158052294320761E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>9.163356551272902E-06</v>
+        <v>6.165494165360945E-06</v>
       </c>
       <c r="BE2">
-        <v>5.219327744410928E-06</v>
+        <v>2.219497851621298E-06</v>
       </c>
       <c r="BF2">
-        <v>1.47022312800357E-11</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.47022312800357E-11</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.235491339498322E-06</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.131265144602251E-05</v>
+        <v>8.315861251185885E-06</v>
       </c>
       <c r="BJ2">
-        <v>1.266069738000906E-05</v>
+        <v>9.66457966749354E-06</v>
       </c>
       <c r="BK2">
-        <v>1.912961006322815E-05</v>
+        <v>1.613671941390577E-05</v>
       </c>
       <c r="BL2">
-        <v>7.522040631647699E-06</v>
+        <v>4.523359463592295E-06</v>
       </c>
       <c r="BM2">
-        <v>7.323066341391416E-06</v>
+        <v>4.324285913593316E-06</v>
       </c>
       <c r="BN2">
-        <v>1.948806304567481E-06</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>4.270328790883151E-07</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>2.633379671044108E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>4.367371486130996E-06</v>
+        <v>1.367116588890404E-06</v>
       </c>
       <c r="BR2">
-        <v>3.943934406866595E-08</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.087839946728771E-06</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>4.367371486130996E-06</v>
+        <v>1.367116588890404E-06</v>
       </c>
       <c r="BU2">
-        <v>3.171999744668028E-06</v>
+        <v>1.711485277153154E-07</v>
       </c>
       <c r="BV2">
-        <v>1.529739225089083E-05</v>
+        <v>1.230258987240222E-05</v>
       </c>
       <c r="BW2">
-        <v>8.41507858791587E-06</v>
+        <v>5.416842918209242E-06</v>
       </c>
       <c r="BX2">
-        <v>1.718168715861741E-06</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>2.529128876149241E-07</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>1.53203682497657E-06</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>7.723681621773393E-06</v>
+        <v>4.725101043762921E-06</v>
       </c>
       <c r="CB2">
-        <v>1.346101934081751E-06</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>5.172988546680146E-08</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>4.658503071874361E-06</v>
+        <v>1.658393407700084E-06</v>
       </c>
       <c r="CE2">
-        <v>4.867344261647464E-07</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>9.028625557870641E-08</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.50130742648138E-05</v>
+        <v>1.201813005227163E-05</v>
       </c>
       <c r="CH2">
-        <v>1.84788070950978E-07</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>7.378180638692485E-08</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>8.62929357742582E-07</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>2.875750459175276E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>2.253135189664577E-06</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.00395305083669E-06</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.002949533155562157</v>
+        <v>0.002948002117605211</v>
       </c>
       <c r="CO2">
-        <v>0.1111064445591474</v>
+        <v>0.1111588683672311</v>
       </c>
       <c r="CP2">
-        <v>0.04463447781426166</v>
+        <v>0.04465374160801808</v>
       </c>
       <c r="CQ2">
-        <v>0.04404495484313044</v>
+        <v>0.04406392454915144</v>
       </c>
       <c r="CR2">
-        <v>0.01516052725759307</v>
+        <v>0.01516508776106634</v>
       </c>
       <c r="CS2">
-        <v>0.008480266584723633</v>
+        <v>0.008481494592552943</v>
       </c>
       <c r="CT2">
-        <v>0.003137035146380235</v>
+        <v>0.003135597645127654</v>
       </c>
       <c r="CU2">
-        <v>0.01916042106171935</v>
+        <v>0.0191669769407223</v>
       </c>
       <c r="CV2">
-        <v>0.006001485206108888</v>
+        <v>0.006001476656182286</v>
       </c>
       <c r="CW2">
-        <v>0.001794053112145703</v>
+        <v>0.001791945654734498</v>
       </c>
       <c r="CX2">
-        <v>0.003436145631732875</v>
+        <v>0.003434857343877542</v>
       </c>
       <c r="CY2">
-        <v>0.01480108727519475</v>
+        <v>0.01480546846947123</v>
       </c>
       <c r="CZ2">
-        <v>0.07427649636270001</v>
+        <v>0.07431054728865502</v>
       </c>
       <c r="DA2">
-        <v>0.0006433089684973333</v>
+        <v>0.0006406274541692192</v>
       </c>
       <c r="DB2">
-        <v>0.05525023729441078</v>
+        <v>0.05527479683543775</v>
       </c>
       <c r="DC2">
-        <v>0.0003310204637900171</v>
+        <v>0.0003281831621157861</v>
       </c>
       <c r="DD2">
-        <v>0.01164871342956564</v>
+        <v>0.01165152203968364</v>
       </c>
       <c r="DE2">
-        <v>0.007720174321945146</v>
+        <v>0.007721023152332324</v>
       </c>
       <c r="DF2">
-        <v>0.006930756660602715</v>
+        <v>0.006931211684363699</v>
       </c>
       <c r="DG2">
-        <v>2.655111369979913E-05</v>
+        <v>2.356192532045565E-05</v>
       </c>
       <c r="DH2">
-        <v>0.0007691002323373691</v>
+        <v>0.0007664814698776809</v>
       </c>
       <c r="DI2">
-        <v>0.001151964443588612</v>
+        <v>0.001149536675669212</v>
       </c>
       <c r="DJ2">
-        <v>0.003522303027513771</v>
+        <v>0.003521057719889329</v>
       </c>
       <c r="DK2">
-        <v>0.00657344767810004</v>
+        <v>0.006573724455728717</v>
       </c>
       <c r="DL2">
-        <v>2.633379671044108E-06</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.001781320312769225</v>
+        <v>0.00177920650351031</v>
       </c>
       <c r="DN2">
-        <v>0.007782330618901369</v>
+        <v>0.007783210456400245</v>
       </c>
       <c r="DO2">
-        <v>0.004945469357821699</v>
+        <v>0.004944934006863416</v>
       </c>
       <c r="DP2">
-        <v>0.001817464010999278</v>
+        <v>0.001815368232281805</v>
       </c>
       <c r="DQ2">
-        <v>0.002202293292154291</v>
+        <v>0.002200389488266233</v>
       </c>
       <c r="DR2">
-        <v>0.003363228235303621</v>
+        <v>0.003361903572085428</v>
       </c>
       <c r="DS2">
-        <v>0.0002741791065735231</v>
+        <v>0.0002713134491831611</v>
       </c>
       <c r="DT2">
-        <v>0.006379493687597915</v>
+        <v>0.006379673709896205</v>
       </c>
       <c r="DU2">
-        <v>0.0362095032268304</v>
+        <v>0.03622456416197277</v>
       </c>
       <c r="DV2">
-        <v>0.003630032822238272</v>
+        <v>0.003628841256389671</v>
       </c>
       <c r="DW2">
-        <v>0.003247066240992042</v>
+        <v>0.003245683629535152</v>
       </c>
       <c r="DX2">
-        <v>0.005341734738416691</v>
+        <v>0.005341397067267527</v>
       </c>
       <c r="DY2">
-        <v>0.0001473737427831476</v>
+        <v>0.0001444448276333724</v>
       </c>
       <c r="DZ2">
-        <v>1.616635120833814E-05</v>
+        <v>1.317198231621814E-05</v>
       </c>
       <c r="EA2">
-        <v>0.004313095288788887</v>
+        <v>0.004312244473519613</v>
       </c>
       <c r="EB2">
-        <v>0.00201822410116811</v>
+        <v>0.002016228473052348</v>
       </c>
       <c r="EC2">
-        <v>0.005581675726666845</v>
+        <v>0.005581457751789625</v>
       </c>
       <c r="ED2">
-        <v>0.005045905452903371</v>
+        <v>0.005045420205206883</v>
       </c>
       <c r="EE2">
-        <v>0.0005818683115060657</v>
+        <v>0.0005791561470683507</v>
       </c>
       <c r="EF2">
-        <v>0.003756719016034483</v>
+        <v>0.003755590648496495</v>
       </c>
       <c r="EG2">
-        <v>3.694066119102579E-05</v>
+        <v>3.395665571149007E-05</v>
       </c>
       <c r="EH2">
-        <v>0.006159749998358704</v>
+        <v>0.006159820399951599</v>
       </c>
       <c r="EI2">
-        <v>0.0326246784023783</v>
+        <v>0.03263795102210951</v>
       </c>
       <c r="EJ2">
-        <v>0.02629503271233934</v>
+        <v>0.02630514774320946</v>
       </c>
       <c r="EK2">
-        <v>0.00364324592159123</v>
+        <v>0.003642060947191406</v>
       </c>
       <c r="EL2">
-        <v>0.001337353934510139</v>
+        <v>0.001335018649459475</v>
       </c>
       <c r="EM2">
-        <v>0.00607336670258887</v>
+        <v>0.006073394011259055</v>
       </c>
       <c r="EN2">
-        <v>0.02952137655434615</v>
+        <v>0.0295331010698346</v>
       </c>
       <c r="EO2">
-        <v>0.0797385460952249</v>
+        <v>0.07977532180361463</v>
       </c>
       <c r="EP2">
-        <v>0.02320806886350713</v>
+        <v>0.02321664394046181</v>
       </c>
       <c r="EQ2">
-        <v>0.003150685045711803</v>
+        <v>0.00314925435380878</v>
       </c>
       <c r="ER2">
-        <v>0.001357909033503561</v>
+        <v>0.001355584002510518</v>
       </c>
       <c r="ES2">
-        <v>0.0009225845148212852</v>
+        <v>0.0009200423190897294</v>
       </c>
       <c r="ET2">
-        <v>0.00010471815987198</v>
+        <v>0.0001017679656806818</v>
       </c>
       <c r="EU2">
-        <v>0.0001104317645921863</v>
+        <v>0.0001074844206733212</v>
       </c>
       <c r="EV2">
-        <v>0.005906378710766227</v>
+        <v>0.005906322716286641</v>
       </c>
       <c r="EW2">
-        <v>0.004207222793973435</v>
+        <v>0.004206319163455615</v>
       </c>
       <c r="EX2">
-        <v>0.005833635314328452</v>
+        <v>0.005833543031287143</v>
       </c>
       <c r="EY2">
-        <v>0.02501612777496697</v>
+        <v>0.02502560481499489</v>
       </c>
       <c r="EZ2">
-        <v>0.03572471825057019</v>
+        <v>0.0357395373472723</v>
       </c>
       <c r="FA2">
-        <v>0.002578567073728266</v>
+        <v>0.002576850976697684</v>
       </c>
       <c r="FB2">
-        <v>6.677411673008952E-05</v>
+        <v>6.380499388245946E-05</v>
       </c>
       <c r="FC2">
-        <v>0.0004765062266656186</v>
+        <v>0.0004737415016010115</v>
       </c>
       <c r="FD2">
-        <v>0.01222217740148327</v>
+        <v>0.01222527208819048</v>
       </c>
       <c r="FE2">
-        <v>0.007767304819637178</v>
+        <v>0.007768177161409008</v>
       </c>
       <c r="FF2">
-        <v>0.00296625525474328</v>
+        <v>0.002964732558724682</v>
       </c>
       <c r="FG2">
-        <v>0.003137035146380235</v>
+        <v>0.003135597645127654</v>
       </c>
       <c r="FH2">
-        <v>1.356572933568989E-06</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.002795581063101149</v>
+        <v>0.00279397322504573</v>
       </c>
       <c r="FJ2">
-        <v>1.881150907880547E-05</v>
+        <v>1.581845974254004E-05</v>
       </c>
       <c r="FK2">
-        <v>0.0003252873840707645</v>
+        <v>0.0003224472224088584</v>
       </c>
       <c r="FL2">
-        <v>4.552696777055666E-05</v>
+        <v>4.2547245631249E-05</v>
       </c>
       <c r="FM2">
-        <v>0.0002323713486208378</v>
+        <v>0.0002294848351324755</v>
       </c>
       <c r="FN2">
-        <v>0.001690416517220759</v>
+        <v>0.001688257359955603</v>
       </c>
       <c r="FO2">
-        <v>0.00125152863871298</v>
+        <v>0.001249150539101869</v>
       </c>
       <c r="FP2">
-        <v>0.01278840437375529</v>
+        <v>0.01279178152682287</v>
       </c>
       <c r="FQ2">
-        <v>0.004556253376881501</v>
+        <v>0.004555523862757354</v>
       </c>
       <c r="FR2">
-        <v>6.128864699871149E-07</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.004821280763903182</v>
+        <v>0.004820683460579784</v>
       </c>
       <c r="FT2">
-        <v>0.0003155393245481244</v>
+        <v>0.0003126942999972552</v>
       </c>
       <c r="FU2">
-        <v>0.00172967831529812</v>
+        <v>0.001727538744060736</v>
       </c>
       <c r="FV2">
-        <v>0.01094753546390214</v>
+        <v>0.01094999428639498</v>
       </c>
       <c r="FW2">
-        <v>0.01695011316995753</v>
+        <v>0.01695556642111678</v>
       </c>
       <c r="FX2">
-        <v>0.008944627561984001</v>
+        <v>0.008946087219596116</v>
       </c>
       <c r="FY2">
-        <v>0.00112352814498113</v>
+        <v>0.001121086191411516</v>
       </c>
       <c r="FZ2">
-        <v>1.354175033686414E-05</v>
+        <v>1.054607214389502E-05</v>
       </c>
       <c r="GA2">
-        <v>0.0003480657329553149</v>
+        <v>0.0003452369344350812</v>
       </c>
       <c r="GB2">
-        <v>0.0003169983844766746</v>
+        <v>0.0003141540877882489</v>
       </c>
       <c r="GC2">
-        <v>3.117342447344581E-05</v>
+        <v>2.818654196677296E-05</v>
       </c>
       <c r="GD2">
-        <v>0.01116674245316763</v>
+        <v>0.01116931062862926</v>
       </c>
       <c r="GE2">
-        <v>0.01311254035788244</v>
+        <v>0.01311607920849568</v>
       </c>
       <c r="GF2">
-        <v>0.008769654570552381</v>
+        <v>0.008771026941640765</v>
       </c>
       <c r="GG2">
-        <v>0.00927838354564006</v>
+        <v>0.009280009699803155</v>
       </c>
       <c r="GH2">
-        <v>0.001571115923062877</v>
+        <v>0.001568897251846122</v>
       </c>
       <c r="GI2">
-        <v>0.0004567185576346155</v>
+        <v>0.0004539439613502942</v>
       </c>
       <c r="GJ2">
-        <v>0.001154750743452168</v>
+        <v>0.001152324365498312</v>
       </c>
       <c r="GK2">
-        <v>0.004672624771182825</v>
+        <v>0.004671953309758053</v>
       </c>
       <c r="GL2">
-        <v>0.003341197536382458</v>
+        <v>0.003339861882993105</v>
       </c>
       <c r="GM2">
-        <v>0.0003394896133752852</v>
+        <v>0.0003366565365966807</v>
       </c>
       <c r="GN2">
-        <v>0.000159853892171998</v>
+        <v>0.0001569312028336861</v>
       </c>
       <c r="GO2">
-        <v>0.0001307308035981478</v>
+        <v>0.0001277935859995532</v>
       </c>
       <c r="GP2">
-        <v>0.0002013343501407112</v>
+        <v>0.00019843235362447</v>
       </c>
       <c r="GQ2">
-        <v>0.00281233956228049</v>
+        <v>0.002810740084321817</v>
       </c>
       <c r="GR2">
-        <v>0.00631742239063753</v>
+        <v>0.006317571448226976</v>
       </c>
       <c r="GS2">
-        <v>0.004550290577173498</v>
+        <v>0.004549558088464222</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.815819597695862E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>6.252117705024926E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0001114830418727252</v>
+        <v>4.83351708215219E-05</v>
       </c>
       <c r="E3">
-        <v>3.88500526526147E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.144734503221072E-07</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.222724320539686E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002280934338315811</v>
+        <v>0.0001662293819778376</v>
       </c>
       <c r="I3">
-        <v>0.0004582056476970744</v>
+        <v>0.0003988750105139093</v>
       </c>
       <c r="J3">
-        <v>0.0009680185162610621</v>
+        <v>0.0009143006511197353</v>
       </c>
       <c r="K3">
-        <v>0.0003888961865327935</v>
+        <v>0.0003288024885682215</v>
       </c>
       <c r="L3">
-        <v>6.367422106961845E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>5.645718694838457E-05</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.195733137674355E-05</v>
+        <v>1.848439775335753E-05</v>
       </c>
       <c r="O3">
-        <v>9.008295151324013E-05</v>
+        <v>2.669947670177699E-05</v>
       </c>
       <c r="P3">
-        <v>5.544869493144362E-05</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>4.571163076787753E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001783862129965845</v>
+        <v>0.0001159749107366948</v>
       </c>
       <c r="S3">
-        <v>0.000151566912546066</v>
+        <v>8.886034386778569E-05</v>
       </c>
       <c r="T3">
-        <v>1.526686425645731E-05</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1.902584031960171E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003792084563700561</v>
+        <v>0.0003190081015822474</v>
       </c>
       <c r="W3">
-        <v>0.0008158218137044168</v>
+        <v>0.0007604283427680144</v>
       </c>
       <c r="X3">
-        <v>0.0004717725779249757</v>
+        <v>0.0004125913055212663</v>
       </c>
       <c r="Y3">
-        <v>0.0001099367718467505</v>
+        <v>4.67718771743205E-05</v>
       </c>
       <c r="Z3">
-        <v>4.19138277040809E-05</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0001463563224585369</v>
+        <v>8.359238791884331E-05</v>
       </c>
       <c r="AB3">
-        <v>0.0005433823791278983</v>
+        <v>0.0004849894930417911</v>
       </c>
       <c r="AC3">
-        <v>0.0005586787693848516</v>
+        <v>0.0005004542885251897</v>
       </c>
       <c r="AD3">
-        <v>0.000313040015258539</v>
+        <v>0.0002521111806711346</v>
       </c>
       <c r="AE3">
-        <v>6.198929104131449E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>6.096807402415978E-06</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.633862527446108E-05</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>1.734774929141264E-06</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.784908147571492E-05</v>
+        <v>2.444101292787349E-05</v>
       </c>
       <c r="AJ3">
-        <v>0.0007266234122060356</v>
+        <v>0.000670247913696424</v>
       </c>
       <c r="AK3">
-        <v>0.00107499051805801</v>
+        <v>0.001022450358498412</v>
       </c>
       <c r="AL3">
-        <v>0.0003025774550827858</v>
+        <v>0.0002415334332004708</v>
       </c>
       <c r="AM3">
-        <v>0.000141092702370117</v>
+        <v>7.827081813653998E-05</v>
       </c>
       <c r="AN3">
-        <v>0.0003679168661803766</v>
+        <v>0.0003075921969124273</v>
       </c>
       <c r="AO3">
-        <v>1.683831028285493E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>8.670291745646132E-05</v>
+        <v>2.328223024447995E-05</v>
       </c>
       <c r="AQ3">
-        <v>0.0004493694675486415</v>
+        <v>0.0003899415486608513</v>
       </c>
       <c r="AR3">
-        <v>0.000522118768770706</v>
+        <v>0.0004634917814975151</v>
       </c>
       <c r="AS3">
-        <v>0.0001145886919248948</v>
+        <v>5.147501245036485E-05</v>
       </c>
       <c r="AT3">
-        <v>1.389440123340227E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>6.26439410523115E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>6.684523112288602E-07</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>8.658995145456369E-05</v>
+        <v>2.31680205462062E-05</v>
       </c>
       <c r="AX3">
-        <v>7.547150126779266E-05</v>
+        <v>1.192716205983172E-05</v>
       </c>
       <c r="AY3">
-        <v>6.768004113690941E-05</v>
+        <v>4.049922043260406E-06</v>
       </c>
       <c r="AZ3">
-        <v>4.243040071275845E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>5.329481889526217E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.593945077170452E-06</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>8.193363137634543E-06</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>2.726727745804381E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.0001412368723725389</v>
+        <v>7.841657537500224E-05</v>
       </c>
       <c r="BF3">
-        <v>0.0003833944064403729</v>
+        <v>0.0003232401367653024</v>
       </c>
       <c r="BG3">
-        <v>0.0002252314337835044</v>
+        <v>0.0001633358728117214</v>
       </c>
       <c r="BH3">
-        <v>6.539629109854629E-05</v>
+        <v>1.741029115895731E-06</v>
       </c>
       <c r="BI3">
-        <v>3.88500526526147E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.0001578439326515092</v>
+        <v>9.520647066928611E-05</v>
       </c>
       <c r="BK3">
-        <v>0.0004401100073930984</v>
+        <v>0.0003805801467100178</v>
       </c>
       <c r="BL3">
-        <v>0.0004737268379578039</v>
+        <v>0.0004145670809311105</v>
       </c>
       <c r="BM3">
-        <v>0.0005151898086543113</v>
+        <v>0.0004564865371677974</v>
       </c>
       <c r="BN3">
-        <v>9.959017167294523E-05</v>
+        <v>3.631136636434948E-05</v>
       </c>
       <c r="BO3">
-        <v>3.595474060397839E-06</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.307390121961927E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>8.670291745646132E-05</v>
+        <v>2.328223024447995E-05</v>
       </c>
       <c r="BR3">
-        <v>0.0003242709554471996</v>
+        <v>0.0002634657676152646</v>
       </c>
       <c r="BS3">
-        <v>0.0002689889845185567</v>
+        <v>0.0002075751712085714</v>
       </c>
       <c r="BT3">
-        <v>0.0002009676033759134</v>
+        <v>0.0001388049103693443</v>
       </c>
       <c r="BU3">
-        <v>8.849182148651186E-06</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>5.535837092992633E-05</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001752369729436826</v>
+        <v>0.0001127909992040954</v>
       </c>
       <c r="BX3">
-        <v>0.0001752369729436826</v>
+        <v>0.0001127909992040954</v>
       </c>
       <c r="BY3">
-        <v>8.784908147571492E-05</v>
+        <v>2.444101292787349E-05</v>
       </c>
       <c r="BZ3">
-        <v>6.768004113690941E-05</v>
+        <v>4.049922043260406E-06</v>
       </c>
       <c r="CA3">
-        <v>4.669832278445228E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.0001055058477723185</v>
+        <v>4.229217095197112E-05</v>
       </c>
       <c r="CC3">
-        <v>4.770797880141277E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0003398294857085565</v>
+        <v>0.0002791955891268973</v>
       </c>
       <c r="CE3">
-        <v>0.0002869695648205999</v>
+        <v>0.0002257537082603129</v>
       </c>
       <c r="CF3">
-        <v>0.0002494561241904379</v>
+        <v>0.0001878272643425815</v>
       </c>
       <c r="CG3">
-        <v>8.338750140076797E-05</v>
+        <v>1.993031319853723E-05</v>
       </c>
       <c r="CH3">
-        <v>2.609168943829594E-06</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>4.112329469080129E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>1.385605323275809E-06</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0003252671054639333</v>
+        <v>0.0002644728847207247</v>
       </c>
       <c r="CL3">
-        <v>0.0008826002748261811</v>
+        <v>0.0008279419996894395</v>
       </c>
       <c r="CM3">
-        <v>0.001132468119023535</v>
+        <v>0.001080560757676035</v>
       </c>
       <c r="CN3">
-        <v>0.002129431335770819</v>
+        <v>0.002088500016054951</v>
       </c>
       <c r="CO3">
-        <v>0.1351654522705494</v>
+        <v>0.1365891777002078</v>
       </c>
       <c r="CP3">
-        <v>0.01641138527568332</v>
+        <v>0.01652769077111995</v>
       </c>
       <c r="CQ3">
-        <v>0.0437282907345608</v>
+        <v>0.04414534101829789</v>
       </c>
       <c r="CR3">
-        <v>0.009893937166201291</v>
+        <v>0.009938488979475935</v>
       </c>
       <c r="CS3">
-        <v>0.004251138071411878</v>
+        <v>0.004233565629003931</v>
       </c>
       <c r="CT3">
-        <v>0.0002571304543193536</v>
+        <v>0.0001955860848173544</v>
       </c>
       <c r="CU3">
-        <v>0.002473657341553229</v>
+        <v>0.002436515769449601</v>
       </c>
       <c r="CV3">
-        <v>0.001243611120890548</v>
+        <v>0.001192927385645861</v>
       </c>
       <c r="CW3">
-        <v>0.0008158218137044168</v>
+        <v>0.0007604283427680144</v>
       </c>
       <c r="CX3">
-        <v>0.00328296915514829</v>
+        <v>0.003254737681240634</v>
       </c>
       <c r="CY3">
-        <v>0.01246646920941545</v>
+        <v>0.01253934324996057</v>
       </c>
       <c r="CZ3">
-        <v>0.04884367482049053</v>
+        <v>0.04931704279754447</v>
       </c>
       <c r="DA3">
-        <v>0.005468283391857846</v>
+        <v>0.005464111080452273</v>
       </c>
       <c r="DB3">
-        <v>0.04004997467277135</v>
+        <v>0.04042652862770684</v>
       </c>
       <c r="DC3">
-        <v>0.007872545132245348</v>
+        <v>0.007894842480414511</v>
       </c>
       <c r="DD3">
-        <v>0.01818564030548778</v>
+        <v>0.01832147941735592</v>
       </c>
       <c r="DE3">
-        <v>0.003480869058472671</v>
+        <v>0.003454816358607323</v>
       </c>
       <c r="DF3">
-        <v>0.004287844072028476</v>
+        <v>0.004270675743417439</v>
       </c>
       <c r="DG3">
-        <v>0.001305376021928093</v>
+        <v>0.001255372285818554</v>
       </c>
       <c r="DH3">
-        <v>5.060855085013745E-06</v>
+        <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.004874614581885221</v>
+        <v>0.00486390628854551</v>
       </c>
       <c r="DJ3">
-        <v>0.002371907539844006</v>
+        <v>0.002333645755840068</v>
       </c>
       <c r="DK3">
-        <v>0.009016976151469838</v>
+        <v>0.009051873084358408</v>
       </c>
       <c r="DL3">
-        <v>6.677587112172089E-12</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.00298425975013048</v>
+        <v>0.002952739642489744</v>
       </c>
       <c r="DN3">
-        <v>0.008759506147144783</v>
+        <v>0.00879156847045208</v>
       </c>
       <c r="DO3">
-        <v>0.01235247820750059</v>
+        <v>0.01242409726695752</v>
       </c>
       <c r="DP3">
-        <v>0.00257008854317311</v>
+        <v>0.00253400862797496</v>
       </c>
       <c r="DQ3">
-        <v>0.0008574150144031117</v>
+        <v>0.0008024794627708449</v>
       </c>
       <c r="DR3">
-        <v>0.001213258820380682</v>
+        <v>0.001162240922241702</v>
       </c>
       <c r="DS3">
-        <v>0.001944893532670898</v>
+        <v>0.001901930548621372</v>
       </c>
       <c r="DT3">
-        <v>0.003784914063580109</v>
+        <v>0.00376220873960375</v>
       </c>
       <c r="DU3">
-        <v>0.04090230568708906</v>
+        <v>0.0412882433590363</v>
       </c>
       <c r="DV3">
-        <v>0.01631520527406766</v>
+        <v>0.01643045187817898</v>
       </c>
       <c r="DW3">
-        <v>0.001192994220040271</v>
+        <v>0.001141753219290032</v>
       </c>
       <c r="DX3">
-        <v>0.007014088117824732</v>
+        <v>0.007026934304937033</v>
       </c>
       <c r="DY3">
-        <v>0.001283918021567636</v>
+        <v>0.001233678044139127</v>
       </c>
       <c r="DZ3">
-        <v>0.0003462636458166394</v>
+        <v>0.0002857005859599713</v>
       </c>
       <c r="EA3">
-        <v>0.007910472132882457</v>
+        <v>0.007933187037417756</v>
       </c>
       <c r="EB3">
-        <v>2.726727745804381E-05</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.00288148324840401</v>
+        <v>0.00284883162543477</v>
       </c>
       <c r="ED3">
-        <v>0.004540934076279957</v>
+        <v>0.004526552135748792</v>
       </c>
       <c r="EE3">
-        <v>0.002068222534742615</v>
+        <v>0.002026617338260762</v>
       </c>
       <c r="EF3">
-        <v>0.001248735520976629</v>
+        <v>0.001198108202686688</v>
       </c>
       <c r="EG3">
-        <v>4.89938608230134E-09</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.004154325569785593</v>
+        <v>0.004135687272559273</v>
       </c>
       <c r="EI3">
-        <v>0.03353322056330098</v>
+        <v>0.03383802847665027</v>
       </c>
       <c r="EJ3">
-        <v>0.03256915054710625</v>
+        <v>0.03286334455569375</v>
       </c>
       <c r="EK3">
-        <v>0.005057565084958478</v>
+        <v>0.00504887098061243</v>
       </c>
       <c r="EL3">
-        <v>0.0005378755090353923</v>
+        <v>0.0004794219952005579</v>
       </c>
       <c r="EM3">
-        <v>0.006489807109017705</v>
+        <v>0.00649688123745956</v>
       </c>
       <c r="EN3">
-        <v>0.02466436841431937</v>
+        <v>0.02487153492146953</v>
       </c>
       <c r="EO3">
-        <v>0.08566869143908809</v>
+        <v>0.08654748351675229</v>
       </c>
       <c r="EP3">
-        <v>0.04014896667443425</v>
+        <v>0.04052661047933932</v>
       </c>
       <c r="EQ3">
-        <v>0.00507109338518573</v>
+        <v>0.005062548220323112</v>
       </c>
       <c r="ER3">
-        <v>0.0006789741614056093</v>
+        <v>0.0006220740696595411</v>
       </c>
       <c r="ES3">
-        <v>0.001004002216865527</v>
+        <v>0.0009506805133771681</v>
       </c>
       <c r="ET3">
-        <v>0.000500776608412194</v>
+        <v>0.0004419146551576419</v>
       </c>
       <c r="EU3">
-        <v>3.319027755754012E-05</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.00560034109407619</v>
+        <v>0.005597622668644522</v>
       </c>
       <c r="EW3">
-        <v>0.009768143164088165</v>
+        <v>0.009811310051438753</v>
       </c>
       <c r="EX3">
-        <v>0.004841005081320638</v>
+        <v>0.004829926765023993</v>
       </c>
       <c r="EY3">
-        <v>0.01719351328882173</v>
+        <v>0.01731842960308224</v>
       </c>
       <c r="EZ3">
-        <v>0.02795222646954979</v>
+        <v>0.02819559056783159</v>
       </c>
       <c r="FA3">
-        <v>0.006082835702181278</v>
+        <v>0.006085429289085308</v>
       </c>
       <c r="FB3">
-        <v>0.0006244893104903566</v>
+        <v>0.0005669893691391142</v>
       </c>
       <c r="FC3">
-        <v>8.245851638516262E-05</v>
+        <v>1.899110054560769E-05</v>
       </c>
       <c r="FD3">
-        <v>0.009603305161319168</v>
+        <v>0.009644657268795759</v>
       </c>
       <c r="FE3">
-        <v>0.007434217124882183</v>
+        <v>0.007451688711803279</v>
       </c>
       <c r="FF3">
-        <v>0.00142953602401377</v>
+        <v>0.0013808992243458</v>
       </c>
       <c r="FG3">
-        <v>0.00126386802123083</v>
+        <v>0.001213407303824442</v>
       </c>
       <c r="FH3">
-        <v>7.440942124995152E-05</v>
+        <v>1.085338909856385E-05</v>
       </c>
       <c r="FI3">
-        <v>0.003631666061005803</v>
+        <v>0.003607273556973085</v>
       </c>
       <c r="FJ3">
-        <v>0.0005298489089005591</v>
+        <v>0.0004713070264120366</v>
       </c>
       <c r="FK3">
-        <v>1.307390121961927E-06</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>6.57523161045269E-06</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001351615822704844</v>
+        <v>0.001302121162526931</v>
       </c>
       <c r="FN3">
-        <v>1.282686321546945E-05</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0006477244108806668</v>
+        <v>0.0005904802757867819</v>
       </c>
       <c r="FP3">
-        <v>0.01291567721696138</v>
+        <v>0.01299349680184481</v>
       </c>
       <c r="FQ3">
-        <v>0.0143019142402478</v>
+        <v>0.01439499556701229</v>
       </c>
       <c r="FR3">
-        <v>0.0003188153053555541</v>
+        <v>0.0002579500536802118</v>
       </c>
       <c r="FS3">
-        <v>0.003682569661860897</v>
+        <v>0.003658737579750271</v>
       </c>
       <c r="FT3">
-        <v>0.0004895065082228755</v>
+        <v>0.000430520477081805</v>
       </c>
       <c r="FU3">
-        <v>0.003360673356453587</v>
+        <v>0.003333297365009229</v>
       </c>
       <c r="FV3">
-        <v>0.01171786019684009</v>
+        <v>0.01178249244516077</v>
       </c>
       <c r="FW3">
-        <v>0.02443038941038892</v>
+        <v>0.02463497993153987</v>
       </c>
       <c r="FX3">
-        <v>0.01504091725266179</v>
+        <v>0.01514213461463189</v>
       </c>
       <c r="FY3">
-        <v>0.003679216061804562</v>
+        <v>0.003655347058317886</v>
       </c>
       <c r="FZ3">
-        <v>0.0001293373621726474</v>
+        <v>6.638605781480295E-05</v>
       </c>
       <c r="GA3">
-        <v>2.0989211352583E-05</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>9.903930166369157E-05</v>
+        <v>3.575443156548913E-05</v>
       </c>
       <c r="GC3">
-        <v>4.390672373755817E-05</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.008585822144227186</v>
+        <v>0.008615972297842814</v>
       </c>
       <c r="GE3">
-        <v>0.01170682119665465</v>
+        <v>0.01177133191137854</v>
       </c>
       <c r="GF3">
-        <v>0.006976500117193318</v>
+        <v>0.006988932480151576</v>
       </c>
       <c r="GG3">
-        <v>0.007440030724979842</v>
+        <v>0.007457566316585994</v>
       </c>
       <c r="GH3">
-        <v>0.001662626027929285</v>
+        <v>0.001616555426837067</v>
       </c>
       <c r="GI3">
-        <v>0.0003385879456877007</v>
+        <v>0.0002779403804021943</v>
       </c>
       <c r="GJ3">
-        <v>0.002153910536182028</v>
+        <v>0.002113248719611621</v>
       </c>
       <c r="GK3">
-        <v>0.004492609375468185</v>
+        <v>0.004477695405350536</v>
       </c>
       <c r="GL3">
-        <v>0.003465692758217735</v>
+        <v>0.003439472975253818</v>
       </c>
       <c r="GM3">
-        <v>1.491768875059176E-05</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>4.425032374333006E-06</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0001809342530393872</v>
+        <v>0.0001185510033627013</v>
       </c>
       <c r="GP3">
-        <v>9.319325156548788E-05</v>
+        <v>2.984401952475777E-05</v>
       </c>
       <c r="GQ3">
-        <v>0.0003361116456461031</v>
+        <v>0.0002754368175971443</v>
       </c>
       <c r="GR3">
-        <v>0.003762827563209093</v>
+        <v>0.003739879078458598</v>
       </c>
       <c r="GS3">
-        <v>0.003859932864840297</v>
+        <v>0.003838053458482517</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0006570872815972508</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001200877557746407</v>
+        <v>0.0005447570994358078</v>
       </c>
       <c r="D4">
-        <v>0.001557862774912698</v>
+        <v>0.0009442381712885222</v>
       </c>
       <c r="E4">
-        <v>0.0009699268166407155</v>
+        <v>0.0002863137657469967</v>
       </c>
       <c r="F4">
-        <v>0.0001674554080524014</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>7.482814359824896E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0001989747495680669</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0006265247701275963</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.001424106968480804</v>
+        <v>0.0007945599483523407</v>
       </c>
       <c r="K4">
-        <v>0.001431303768826875</v>
+        <v>0.0008026134625537968</v>
       </c>
       <c r="L4">
-        <v>0.000752126136167369</v>
+        <v>4.258588822759415E-05</v>
       </c>
       <c r="M4">
-        <v>0.0001617514577781165</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>7.920710380881932E-05</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0007140704343373906</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0008701007418403949</v>
+        <v>0.000174604301482248</v>
       </c>
       <c r="Q4">
-        <v>0.0008226102395567268</v>
+        <v>0.0001214604853161398</v>
       </c>
       <c r="R4">
-        <v>0.0005773615877634942</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0002385089714691427</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0002256601208512821</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.314906207490204E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.0006292520302587415</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.001014197748769565</v>
+        <v>0.0003358547511108618</v>
       </c>
       <c r="X4">
-        <v>0.001002964248229381</v>
+        <v>0.0003232840041424792</v>
       </c>
       <c r="Y4">
-        <v>0.0004995375240211809</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>6.883360330999045E-05</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.0001468833570631565</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>2.613575725678597E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0002469873718768422</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.001509909672606785</v>
+        <v>0.0008905766867601428</v>
       </c>
       <c r="AE4">
-        <v>0.002050188898587105</v>
+        <v>0.001495171257951686</v>
       </c>
       <c r="AF4">
-        <v>0.001290169162040158</v>
+        <v>0.0006446780599558623</v>
       </c>
       <c r="AG4">
-        <v>1.780666085626605E-05</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>3.071969747721317E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0004503367716552722</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.002240006707714844</v>
+        <v>0.001707585156905268</v>
       </c>
       <c r="AK4">
-        <v>0.002338948112472623</v>
+        <v>0.001818304639176825</v>
       </c>
       <c r="AL4">
-        <v>0.001162214055887201</v>
+        <v>0.0005014910580941008</v>
       </c>
       <c r="AM4">
-        <v>0.0002691256129414002</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>1.33236806406937E-07</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0003354151961290568</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0002925303540668603</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.001308805362936314</v>
+        <v>0.0006655327316656744</v>
       </c>
       <c r="AR4">
-        <v>0.001803091386704967</v>
+        <v>0.001218659026766398</v>
       </c>
       <c r="AS4">
-        <v>0.00203911569805463</v>
+        <v>0.001482779893254103</v>
       </c>
       <c r="AT4">
-        <v>0.005499995564477406</v>
+        <v>0.005355646141236658</v>
       </c>
       <c r="AU4">
-        <v>0.03864098885812305</v>
+        <v>0.04244177432407988</v>
       </c>
       <c r="AV4">
-        <v>0.005700884674137529</v>
+        <v>0.00558044927870994</v>
       </c>
       <c r="AW4">
-        <v>0.02160956803913584</v>
+        <v>0.02338291721523121</v>
       </c>
       <c r="AX4">
-        <v>0.001298980162463851</v>
+        <v>0.0006545379301244133</v>
       </c>
       <c r="AY4">
-        <v>0.01256768260434014</v>
+        <v>0.01326467726755555</v>
       </c>
       <c r="AZ4">
-        <v>0.004683259225203137</v>
+        <v>0.00444168474299096</v>
       </c>
       <c r="BA4">
-        <v>3.801064482781179E-05</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>3.395307263269597E-07</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.00291546544019552</v>
+        <v>0.00246345112969137</v>
       </c>
       <c r="BD4">
-        <v>0.0001662814579959498</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.005966884786928633</v>
+        <v>0.005878114294124946</v>
       </c>
       <c r="BF4">
-        <v>0.05505559464744957</v>
+        <v>0.06081039016428538</v>
       </c>
       <c r="BG4">
-        <v>0.003671556176553534</v>
+        <v>0.003309547615634959</v>
       </c>
       <c r="BH4">
-        <v>0.00790248538000555</v>
+        <v>0.008044130595133087</v>
       </c>
       <c r="BI4">
-        <v>0.01081542352007954</v>
+        <v>0.0113038276203333</v>
       </c>
       <c r="BJ4">
-        <v>0.01540430474074434</v>
+        <v>0.01643897356051389</v>
       </c>
       <c r="BK4">
-        <v>0.009094898437344925</v>
+        <v>0.009378489619908092</v>
       </c>
       <c r="BL4">
-        <v>0.02082878100159026</v>
+        <v>0.02250918455727042</v>
       </c>
       <c r="BM4">
-        <v>0.001133031354483897</v>
+        <v>0.0004688344205764776</v>
       </c>
       <c r="BN4">
-        <v>0.001687904681166002</v>
+        <v>0.001089760387889557</v>
       </c>
       <c r="BO4">
-        <v>0.0001486495671480879</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1.64698407919826E-07</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0004141401599146915</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>2.760196532729129E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.005345713557058472</v>
+        <v>0.005182998259118349</v>
       </c>
       <c r="BT4">
-        <v>0.003771713381369777</v>
+        <v>0.003421627627942939</v>
       </c>
       <c r="BU4">
-        <v>0.002129796502415183</v>
+        <v>0.001584255425518358</v>
       </c>
       <c r="BV4">
-        <v>0.001581579376053154</v>
+        <v>0.0009707780188471945</v>
       </c>
       <c r="BW4">
-        <v>0.002243020907859787</v>
+        <v>0.001710958170259262</v>
       </c>
       <c r="BX4">
-        <v>0.005101872245332914</v>
+        <v>0.004910129849206793</v>
       </c>
       <c r="BY4">
-        <v>0.00201950409711157</v>
+        <v>0.001460833708962019</v>
       </c>
       <c r="BZ4">
-        <v>0.002754666732463218</v>
+        <v>0.002283510793149342</v>
       </c>
       <c r="CA4">
-        <v>0.0265589982771383</v>
+        <v>0.02892153226554697</v>
       </c>
       <c r="CB4">
-        <v>0.01498839072074435</v>
+        <v>0.0159735487459318</v>
       </c>
       <c r="CC4">
-        <v>0.0001594549176676831</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.001293102762181225</v>
+        <v>0.0006479608786060112</v>
       </c>
       <c r="CE4">
-        <v>9.551791459315465E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0005799798278893971</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.02044182698298286</v>
+        <v>0.02207616716977734</v>
       </c>
       <c r="CH4">
-        <v>0.008388668403384553</v>
+        <v>0.008588189301086633</v>
       </c>
       <c r="CI4">
-        <v>0.007514693661357871</v>
+        <v>0.007610175787002142</v>
       </c>
       <c r="CJ4">
-        <v>0.008646460415780956</v>
+        <v>0.008876669116146345</v>
       </c>
       <c r="CK4">
-        <v>0.001602925177079606</v>
+        <v>0.0009946648440252515</v>
       </c>
       <c r="CL4">
-        <v>3.298812758629481E-05</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.001460272170219874</v>
+        <v>0.0008350302895871252</v>
       </c>
       <c r="CN4">
-        <v>0.009327310448520884</v>
+        <v>0.009638568174625299</v>
       </c>
       <c r="CO4">
-        <v>0.01358703165335741</v>
+        <v>0.014405370582326</v>
       </c>
       <c r="CP4">
-        <v>0.02136889202756249</v>
+        <v>0.02311359090576733</v>
       </c>
       <c r="CQ4">
-        <v>0.02251343708260005</v>
+        <v>0.02439438367640227</v>
       </c>
       <c r="CR4">
-        <v>0.001810794587075389</v>
+        <v>0.001227279223325516</v>
       </c>
       <c r="CS4">
-        <v>0.0006011383289068425</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.01896775591209944</v>
+        <v>0.02042662129765994</v>
       </c>
       <c r="CU4">
-        <v>0.07539084362530743</v>
+        <v>0.08356636623116651</v>
       </c>
       <c r="CV4">
-        <v>0.05802071779003296</v>
+        <v>0.06412848434358226</v>
       </c>
       <c r="CW4">
-        <v>0.01998535296103247</v>
+        <v>0.02156535405261478</v>
       </c>
       <c r="CX4">
-        <v>0.006032937290104889</v>
+        <v>0.005952029749159361</v>
       </c>
       <c r="CY4">
-        <v>0.002050188898587105</v>
+        <v>0.001495171257951686</v>
       </c>
       <c r="CZ4">
-        <v>0.0001131377654404376</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.0005191876249660922</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.006340371704888439</v>
+        <v>0.006296061444692948</v>
       </c>
       <c r="DC4">
-        <v>0.006803520327159793</v>
+        <v>0.006814343712851639</v>
       </c>
       <c r="DD4">
-        <v>0.0008246875396566176</v>
+        <v>0.0001237850691660016</v>
       </c>
       <c r="DE4">
-        <v>0.005839362980796512</v>
+        <v>0.005735412172724431</v>
       </c>
       <c r="DF4">
-        <v>0.02012275596763974</v>
+        <v>0.02171911364185204</v>
       </c>
       <c r="DG4">
-        <v>0.01609057677374499</v>
+        <v>0.01720694005924411</v>
       </c>
       <c r="DH4">
-        <v>0.001988638095627322</v>
+        <v>0.001426293389744847</v>
       </c>
       <c r="DI4">
-        <v>0.0001244029059821426</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.006414990308476611</v>
+        <v>0.006379562716757304</v>
       </c>
       <c r="DK4">
-        <v>0.007941235381868913</v>
+        <v>0.008087493433520481</v>
       </c>
       <c r="DL4">
-        <v>0.002355214513254823</v>
+        <v>0.001836507407547012</v>
       </c>
       <c r="DM4">
-        <v>0.002929203540856142</v>
+        <v>0.002478824626724916</v>
       </c>
       <c r="DN4">
-        <v>0.0002537292422010374</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002496804720063449</v>
+        <v>0.001994952645220283</v>
       </c>
       <c r="DP4">
-        <v>0.000956971246017723</v>
+        <v>0.0002718159518598583</v>
       </c>
       <c r="DQ4">
-        <v>0.0004820570731806013</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.0007094680641160771</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.000131275106312605</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0002851316637110807</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.0005858923281737105</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.006535413014267358</v>
+        <v>0.006514320654261149</v>
       </c>
       <c r="DW4">
-        <v>0.00960618146193091</v>
+        <v>0.009950636254726768</v>
       </c>
       <c r="DX4">
-        <v>0.0004912648836233758</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>0.0006508249312961143</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0008525328409956102</v>
+        <v>0.0001549451012627395</v>
       </c>
       <c r="EA4">
-        <v>0.0001265363560847335</v>
+        <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.01003668648263253</v>
+        <v>0.01043238899640332</v>
       </c>
       <c r="EC4">
-        <v>0.02191728505393297</v>
+        <v>0.02372726515174875</v>
       </c>
       <c r="ED4">
-        <v>0.009243409444486348</v>
+        <v>0.009544679516469401</v>
       </c>
       <c r="EE4">
-        <v>0.004555033719037177</v>
+        <v>0.004298195152445328</v>
       </c>
       <c r="EF4">
-        <v>0.0002481261119316006</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>7.098087641324604E-06</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.0003982377391499944</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>2.760196532729129E-05</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.004701898226099428</v>
+        <v>0.004462542548015545</v>
       </c>
       <c r="EK4">
-        <v>0.007071706840056035</v>
+        <v>0.007114455399488587</v>
       </c>
       <c r="EL4">
-        <v>0.009505109457070676</v>
+        <v>0.009837532543720546</v>
       </c>
       <c r="EM4">
-        <v>0.0102706664938839</v>
+        <v>0.01069422220739386</v>
       </c>
       <c r="EN4">
-        <v>0.005636026871018721</v>
+        <v>0.005507870741947046</v>
       </c>
       <c r="EO4">
-        <v>0.0006529090813963345</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>9.375119050819848E-07</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.003159859651947665</v>
+        <v>0.002736938257366654</v>
       </c>
       <c r="ER4">
-        <v>0.005046942542691518</v>
+        <v>0.004848661263303096</v>
       </c>
       <c r="ES4">
-        <v>0.0001293060362179186</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.0005074746644028529</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0001991053095743451</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.0006640806319335391</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.0004445811213785012</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.002659815727902133</v>
+        <v>0.00217736863614591</v>
       </c>
       <c r="EY4">
-        <v>0.006705128022428417</v>
+        <v>0.006704238695988043</v>
       </c>
       <c r="EZ4">
-        <v>0.009227719443731868</v>
+        <v>0.009527121763326221</v>
       </c>
       <c r="FA4">
-        <v>0.006305753303223749</v>
+        <v>0.006257322036062488</v>
       </c>
       <c r="FB4">
-        <v>0.001385355066617347</v>
+        <v>0.0007511949837870614</v>
       </c>
       <c r="FC4">
-        <v>6.262979801166907E-07</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.0004743220228086472</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.0033823661626473</v>
+        <v>0.002985932151551052</v>
       </c>
       <c r="FF4">
-        <v>0.0005210492250556106</v>
+        <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.001466871670537223</v>
+        <v>0.0008424154006048707</v>
       </c>
       <c r="FH4">
-        <v>0.013344981641718</v>
+        <v>0.01413450671054099</v>
       </c>
       <c r="FI4">
-        <v>0.02352621313130124</v>
+        <v>0.02552772153474122</v>
       </c>
       <c r="FJ4">
-        <v>0.02064071299254666</v>
+        <v>0.02229872875624226</v>
       </c>
       <c r="FK4">
-        <v>0.01580312075992214</v>
+        <v>0.01688526501223797</v>
       </c>
       <c r="FL4">
-        <v>0.007834904376755792</v>
+        <v>0.007968504685944473</v>
       </c>
       <c r="FM4">
-        <v>9.203871442585092E-05</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.000452070691738651</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>4.661182224141523E-05</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>1.629544878359664E-06</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.001186456957052966</v>
+        <v>0.0005286198569261483</v>
       </c>
       <c r="FR4">
-        <v>0.001460272170219874</v>
+        <v>0.0008350302895871252</v>
       </c>
       <c r="FS4">
-        <v>0.003352366361204704</v>
+        <v>0.002952361145639974</v>
       </c>
       <c r="FT4">
-        <v>0.007757208673019651</v>
+        <v>0.007881560012847811</v>
       </c>
       <c r="FU4">
-        <v>0.006271230301563647</v>
+        <v>0.006218689383942537</v>
       </c>
       <c r="FV4">
-        <v>0.0005013636241089922</v>
+        <v>0</v>
       </c>
       <c r="FW4">
-        <v>0.0001456788670052363</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>7.779200774077181E-07</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0004320489207758673</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>4.303118206923356E-05</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.002284447509851861</v>
+        <v>0.001757316233762213</v>
       </c>
       <c r="GB4">
-        <v>7.539705062560589E-06</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.003049191046625961</v>
+        <v>0.002613095557589634</v>
       </c>
       <c r="GD4">
-        <v>0.01015698748841743</v>
+        <v>0.01056701074661861</v>
       </c>
       <c r="GE4">
-        <v>0.007569041963971308</v>
+        <v>0.007670993762473878</v>
       </c>
       <c r="GF4">
-        <v>0.001755643684423357</v>
+        <v>0.00116556310555469</v>
       </c>
       <c r="GG4">
-        <v>0.001218859658611109</v>
+        <v>0.0005648798064336404</v>
       </c>
       <c r="GH4">
-        <v>0.004930366537085746</v>
+        <v>0.004718207940777955</v>
       </c>
       <c r="GI4">
-        <v>0.004186948501337122</v>
+        <v>0.003886292725596481</v>
       </c>
       <c r="GJ4">
-        <v>0.001991478395763903</v>
+        <v>0.001429471801870569</v>
       </c>
       <c r="GK4">
-        <v>0.003591767472716747</v>
+        <v>0.003220260789744881</v>
       </c>
       <c r="GL4">
-        <v>0.0005009616240896613</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>5.787550678305023E-06</v>
+        <v>0</v>
       </c>
       <c r="GN4">
-        <v>6.891036331368161E-05</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>5.975021287319892E-05</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>2.112367101577058E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>1.965011094491174E-05</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.0006554561315188141</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0008578323012504445</v>
+        <v>0.0001608754142310099</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003841399619026752</v>
+        <v>0.000333823319640274</v>
       </c>
       <c r="C5">
-        <v>0.0001480088168801073</v>
+        <v>9.535634257860449E-05</v>
       </c>
       <c r="D5">
-        <v>5.358650887044461E-05</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>8.943017811489232E-05</v>
+        <v>3.619823827434903E-05</v>
       </c>
       <c r="F5">
-        <v>1.1040034767286E-05</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1.387935770743563E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0005223343889896611</v>
+        <v>0.0004733847793157996</v>
       </c>
       <c r="I5">
-        <v>0.0013767902709785</v>
+        <v>0.001336293021220809</v>
       </c>
       <c r="J5">
-        <v>0.001004754878820671</v>
+        <v>0.0009605774191160931</v>
       </c>
       <c r="K5">
-        <v>0.0005349947887227912</v>
+        <v>0.0004861704169429892</v>
       </c>
       <c r="L5">
-        <v>0.0001088320777059177</v>
+        <v>5.579206332560891E-05</v>
       </c>
       <c r="M5">
-        <v>2.607857945028701E-05</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003466803926922893</v>
+        <v>0.0002959931967618227</v>
       </c>
       <c r="O5">
-        <v>0.001001559878888019</v>
+        <v>0.0009573508139362513</v>
       </c>
       <c r="P5">
-        <v>0.001265863873316728</v>
+        <v>0.001224269328944997</v>
       </c>
       <c r="Q5">
-        <v>0.0004266997510055532</v>
+        <v>0.000376804114277828</v>
       </c>
       <c r="R5">
-        <v>8.308975324854275E-05</v>
+        <v>2.979509331428662E-05</v>
       </c>
       <c r="S5">
-        <v>1.508782168196229E-05</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.236407673937639E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>9.12262180770334E-05</v>
+        <v>3.801204483685396E-05</v>
       </c>
       <c r="V5">
-        <v>0.0004940355295861756</v>
+        <v>0.0004448059848683436</v>
       </c>
       <c r="W5">
-        <v>0.001011748678673248</v>
+        <v>0.0009676404023107032</v>
       </c>
       <c r="X5">
-        <v>0.0005467762884744478</v>
+        <v>0.0004980684604254016</v>
       </c>
       <c r="Y5">
-        <v>0.000146027246921877</v>
+        <v>9.335517073941217E-05</v>
       </c>
       <c r="Z5">
-        <v>0.0001177386775181746</v>
+        <v>6.478676808140864E-05</v>
       </c>
       <c r="AA5">
-        <v>1.784189862390883E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>9.83922879259791E-05</v>
+        <v>4.524900213923579E-05</v>
       </c>
       <c r="AC5">
-        <v>0.000365380492298108</v>
+        <v>0.0003148782795548</v>
       </c>
       <c r="AD5">
-        <v>0.0008114962828943885</v>
+        <v>0.0007654070905373761</v>
       </c>
       <c r="AE5">
-        <v>0.0002878941539314502</v>
+        <v>0.0002366254388627831</v>
       </c>
       <c r="AF5">
-        <v>5.455827584996063E-05</v>
+        <v>9.813797921125067E-07</v>
       </c>
       <c r="AG5">
-        <v>2.040506156987966E-06</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>5.335779887526561E-05</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0004435050606513124</v>
+        <v>0.0003937756636658873</v>
       </c>
       <c r="AJ5">
-        <v>0.0005850196376683125</v>
+        <v>0.0005366901165144497</v>
       </c>
       <c r="AK5">
-        <v>0.0003219495632135929</v>
+        <v>0.0002710177275349713</v>
       </c>
       <c r="AL5">
-        <v>1.022010178456945E-05</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>6.493353263125956E-05</v>
+        <v>1.145926961320526E-05</v>
       </c>
       <c r="AN5">
-        <v>0.0001888070960201163</v>
+        <v>0.0001365582022270057</v>
       </c>
       <c r="AO5">
-        <v>0.0002118670155340339</v>
+        <v>0.0001598462326867054</v>
       </c>
       <c r="AP5">
-        <v>0.000362439332360105</v>
+        <v>0.0003119080253792932</v>
       </c>
       <c r="AQ5">
-        <v>0.0005641239581087745</v>
+        <v>0.0005155877348792949</v>
       </c>
       <c r="AR5">
-        <v>0.000699571555253661</v>
+        <v>0.0006523751927062616</v>
       </c>
       <c r="AS5">
-        <v>0.0004743689400007296</v>
+        <v>0.000424944851483734</v>
       </c>
       <c r="AT5">
-        <v>0.0002036135257080101</v>
+        <v>0.0001515110985440533</v>
       </c>
       <c r="AU5">
-        <v>5.570303482583014E-05</v>
+        <v>2.137462834075155E-06</v>
       </c>
       <c r="AV5">
-        <v>0.0001433777769777255</v>
+        <v>9.067949198328204E-05</v>
       </c>
       <c r="AW5">
-        <v>0.0005048645393579098</v>
+        <v>0.0004557421162481747</v>
       </c>
       <c r="AX5">
-        <v>0.0007139642849502753</v>
+        <v>0.0006669102966718537</v>
       </c>
       <c r="AY5">
-        <v>0.0008346101224071696</v>
+        <v>0.0007887495743777636</v>
       </c>
       <c r="AZ5">
-        <v>0.0003904597917694589</v>
+        <v>0.0003402056658730504</v>
       </c>
       <c r="BA5">
-        <v>1.895058760053867E-05</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>5.211320390150055E-06</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.0001273482473156135</v>
+        <v>7.44913966692189E-05</v>
       </c>
       <c r="BD5">
-        <v>0.0005857762876523629</v>
+        <v>0.0005374542513530497</v>
       </c>
       <c r="BE5">
-        <v>0.0005506044883937527</v>
+        <v>0.0005019345292671765</v>
       </c>
       <c r="BF5">
-        <v>0.0001656549965081417</v>
+        <v>0.0001131770799158262</v>
       </c>
       <c r="BG5">
-        <v>4.019745915267373E-05</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.0001327685572013583</v>
+        <v>7.996532478263018E-05</v>
       </c>
       <c r="BI5">
-        <v>0.0005093283892638158</v>
+        <v>0.0004602501229874664</v>
       </c>
       <c r="BJ5">
-        <v>0.0007228193847636178</v>
+        <v>0.0006758529919857875</v>
       </c>
       <c r="BK5">
-        <v>0.0008187782227408917</v>
+        <v>0.000772761064034496</v>
       </c>
       <c r="BL5">
-        <v>0.0005370345886797941</v>
+        <v>0.0004882303947977127</v>
       </c>
       <c r="BM5">
-        <v>0.0001449645569442776</v>
+        <v>9.228196853015827E-05</v>
       </c>
       <c r="BN5">
-        <v>5.239683589552184E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>2.962466537553871E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0002305349851405299</v>
+        <v>0.0001786988676473107</v>
       </c>
       <c r="BQ5">
-        <v>0.0005475078284590276</v>
+        <v>0.0004988072368739969</v>
       </c>
       <c r="BR5">
-        <v>0.0005120260892069507</v>
+        <v>0.0004629745088383771</v>
       </c>
       <c r="BS5">
-        <v>0.0003545160925271197</v>
+        <v>0.0003039064080944323</v>
       </c>
       <c r="BT5">
-        <v>0.0001869955860583013</v>
+        <v>0.0001347287726340994</v>
       </c>
       <c r="BU5">
-        <v>5.198631190417533E-05</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>1.529231367765179E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>8.789133814732967E-05</v>
+        <v>3.464417595355153E-05</v>
       </c>
       <c r="BX5">
-        <v>0.0004999277194619734</v>
+        <v>0.0004507564608541379</v>
       </c>
       <c r="BY5">
-        <v>0.0007400940843994826</v>
+        <v>0.0006932985746149629</v>
       </c>
       <c r="BZ5">
-        <v>0.0005665224880582157</v>
+        <v>0.0005180099913181074</v>
       </c>
       <c r="CA5">
-        <v>6.362326865887875E-05</v>
+        <v>1.01360443833585E-05</v>
       </c>
       <c r="CB5">
-        <v>5.363253286947446E-06</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>8.429873422305853E-05</v>
+        <v>3.10160336450943E-05</v>
       </c>
       <c r="CD5">
-        <v>0.0007218839847833352</v>
+        <v>0.000674908338938769</v>
       </c>
       <c r="CE5">
-        <v>0.0009925186790785993</v>
+        <v>0.0009482201777071474</v>
       </c>
       <c r="CF5">
-        <v>0.0007718371837303667</v>
+        <v>0.0007253556797430508</v>
       </c>
       <c r="CG5">
-        <v>0.000291643423852419</v>
+        <v>0.0002404117969230729</v>
       </c>
       <c r="CH5">
-        <v>1.35060842153039E-05</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>2.415601949081284E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>5.762288378536145E-05</v>
+        <v>4.076303124502192E-06</v>
       </c>
       <c r="CK5">
-        <v>0.0004542376704250786</v>
+        <v>0.0004046144414496818</v>
       </c>
       <c r="CL5">
-        <v>0.0006300720867186473</v>
+        <v>0.0005821882287318424</v>
       </c>
       <c r="CM5">
-        <v>0.000633393636648632</v>
+        <v>0.0005855426357537842</v>
       </c>
       <c r="CN5">
-        <v>0.003115401034330149</v>
+        <v>0.00309210228976827</v>
       </c>
       <c r="CO5">
-        <v>0.1056281827734529</v>
+        <v>0.1066189503435264</v>
       </c>
       <c r="CP5">
-        <v>0.003079851335079505</v>
+        <v>0.003056200929467229</v>
       </c>
       <c r="CQ5">
-        <v>0.05583419582306539</v>
+        <v>0.05633239647630035</v>
       </c>
       <c r="CR5">
-        <v>0.009228936805462315</v>
+        <v>0.009266113745821368</v>
       </c>
       <c r="CS5">
-        <v>0.007419041843613273</v>
+        <v>0.007438315128616354</v>
       </c>
       <c r="CT5">
-        <v>0.001375499371005711</v>
+        <v>0.001334989351541104</v>
       </c>
       <c r="CU5">
-        <v>0.0006253373468184514</v>
+        <v>0.0005774066523283354</v>
       </c>
       <c r="CV5">
-        <v>0.001908323259774263</v>
+        <v>0.001873083985557875</v>
       </c>
       <c r="CW5">
-        <v>0.001745111263214625</v>
+        <v>0.001708257480201893</v>
       </c>
       <c r="CX5">
-        <v>0.000332475432991717</v>
+        <v>0.0002816477202311662</v>
       </c>
       <c r="CY5">
-        <v>0.01235397223958938</v>
+        <v>0.01242206233157722</v>
       </c>
       <c r="CZ5">
-        <v>0.04674200201472065</v>
+        <v>0.04715026181072044</v>
       </c>
       <c r="DA5">
-        <v>0.01258763573466396</v>
+        <v>0.01265803724845985</v>
       </c>
       <c r="DB5">
-        <v>0.01558868767140449</v>
+        <v>0.01568877588012652</v>
       </c>
       <c r="DC5">
-        <v>0.02409225449215695</v>
+        <v>0.02427646080323543</v>
       </c>
       <c r="DD5">
-        <v>0.00698804685269826</v>
+        <v>0.007003056693722464</v>
       </c>
       <c r="DE5">
-        <v>0.000121593617436916</v>
+        <v>6.867984143727092E-05</v>
       </c>
       <c r="DF5">
-        <v>0.006366526865799342</v>
+        <v>0.006375388571226263</v>
       </c>
       <c r="DG5">
-        <v>0.001950893358876923</v>
+        <v>0.001916075192182723</v>
       </c>
       <c r="DH5">
-        <v>0.0002648313744175929</v>
+        <v>0.0002133345201117487</v>
       </c>
       <c r="DI5">
-        <v>0.007479874242330981</v>
+        <v>0.007499749287283714</v>
       </c>
       <c r="DJ5">
-        <v>0.0002118670155340339</v>
+        <v>0.0001598462326867054</v>
       </c>
       <c r="DK5">
-        <v>0.008184185827484727</v>
+        <v>0.008211027990502105</v>
       </c>
       <c r="DL5">
-        <v>0.001508448568203261</v>
+        <v>0.001469253695007721</v>
       </c>
       <c r="DM5">
-        <v>0.006545264162031721</v>
+        <v>0.006555893954015297</v>
       </c>
       <c r="DN5">
-        <v>0.01403449570416546</v>
+        <v>0.01411920969619259</v>
       </c>
       <c r="DO5">
-        <v>0.0113274187612282</v>
+        <v>0.011385354087294</v>
       </c>
       <c r="DP5">
-        <v>0.0006179677269737963</v>
+        <v>0.0005699641314940735</v>
       </c>
       <c r="DQ5">
-        <v>0.0004474191905688061</v>
+        <v>0.0003977285125336729</v>
       </c>
       <c r="DR5">
-        <v>9.677785196000996E-05</v>
+        <v>4.361859601713148E-05</v>
       </c>
       <c r="DS5">
-        <v>0.004258045410244234</v>
+        <v>0.004246049813948985</v>
       </c>
       <c r="DT5">
-        <v>0.001005746478799769</v>
+        <v>0.0009615788280977306</v>
       </c>
       <c r="DU5">
-        <v>0.043211332089144</v>
+        <v>0.04358466615804046</v>
       </c>
       <c r="DV5">
-        <v>0.0195296475883326</v>
+        <v>0.01966872015228611</v>
       </c>
       <c r="DW5">
-        <v>0.005072659193072909</v>
+        <v>0.005068721834809933</v>
       </c>
       <c r="DX5">
-        <v>0.01388356370734697</v>
+        <v>0.01396678466551844</v>
       </c>
       <c r="DY5">
-        <v>0.0007157309249130361</v>
+        <v>0.0006686944124073516</v>
       </c>
       <c r="DZ5">
-        <v>1.247429523705308E-05</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.01095545476906887</v>
+        <v>0.01100971059148345</v>
       </c>
       <c r="EB5">
-        <v>0.003119089934252391</v>
+        <v>0.003095827680643989</v>
       </c>
       <c r="EC5">
-        <v>0.004006643915543551</v>
+        <v>0.003992161431438803</v>
       </c>
       <c r="ED5">
-        <v>0.006118418471029244</v>
+        <v>0.006124825864308487</v>
       </c>
       <c r="EE5">
-        <v>0.002766093941693229</v>
+        <v>0.002739339817713321</v>
       </c>
       <c r="EF5">
-        <v>0.002272080552106586</v>
+        <v>0.002240439600075972</v>
       </c>
       <c r="EG5">
-        <v>0.0001208660874522516</v>
+        <v>6.794511465589674E-05</v>
       </c>
       <c r="EH5">
-        <v>0.006823320256170548</v>
+        <v>0.006836700605829584</v>
       </c>
       <c r="EI5">
-        <v>0.03093036734801569</v>
+        <v>0.03118221693035422</v>
       </c>
       <c r="EJ5">
-        <v>0.03589093624345135</v>
+        <v>0.03619185625128171</v>
       </c>
       <c r="EK5">
-        <v>0.008120548828826136</v>
+        <v>0.008146761488521009</v>
       </c>
       <c r="EL5">
-        <v>0.0002453394348284655</v>
+        <v>0.0001936497643780497</v>
       </c>
       <c r="EM5">
-        <v>0.004054999314524264</v>
+        <v>0.004040995166685542</v>
       </c>
       <c r="EN5">
-        <v>0.0158260836664004</v>
+        <v>0.01592852021917934</v>
       </c>
       <c r="EO5">
-        <v>0.07808085335412587</v>
+        <v>0.07879912008724625</v>
       </c>
       <c r="EP5">
-        <v>0.04913167896434841</v>
+        <v>0.04956357767499247</v>
       </c>
       <c r="EQ5">
-        <v>0.007432327443333225</v>
+        <v>0.007451732150768876</v>
       </c>
       <c r="ER5">
-        <v>0.0005304196288192315</v>
+        <v>0.0004815499991168216</v>
       </c>
       <c r="ES5">
-        <v>0.0002185162553938739</v>
+        <v>0.0001665612474679299</v>
       </c>
       <c r="ET5">
-        <v>0.0005804576877644742</v>
+        <v>0.0005320830393625936</v>
       </c>
       <c r="EU5">
-        <v>4.364870907992449E-06</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.004214207511168298</v>
+        <v>0.004201778266151367</v>
       </c>
       <c r="EW5">
-        <v>0.01278610273048046</v>
+        <v>0.01285846749892235</v>
       </c>
       <c r="EX5">
-        <v>0.004482876405504999</v>
+        <v>0.004473104859078576</v>
       </c>
       <c r="EY5">
-        <v>0.008274097825589462</v>
+        <v>0.00830182940675561</v>
       </c>
       <c r="EZ5">
-        <v>0.02077391656210453</v>
+        <v>0.02092529755463877</v>
       </c>
       <c r="FA5">
-        <v>0.006395416865190367</v>
+        <v>0.006404564353274974</v>
       </c>
       <c r="FB5">
-        <v>0.001317776872222449</v>
+        <v>0.001276695856237997</v>
       </c>
       <c r="FC5">
-        <v>5.812555377476562E-05</v>
+        <v>4.583945573876574E-06</v>
       </c>
       <c r="FD5">
-        <v>0.007805266835471998</v>
+        <v>0.007828360695309454</v>
       </c>
       <c r="FE5">
-        <v>0.007096322150415914</v>
+        <v>0.007112403061118064</v>
       </c>
       <c r="FF5">
-        <v>0.0004528304804547409</v>
+        <v>0.000403193331420567</v>
       </c>
       <c r="FG5">
-        <v>0.0007479040842348549</v>
+        <v>0.0007011858317212432</v>
       </c>
       <c r="FH5">
-        <v>0.0006397397265148622</v>
+        <v>0.0005919515017524519</v>
       </c>
       <c r="FI5">
-        <v>0.003401256828304566</v>
+        <v>0.003380785796800465</v>
       </c>
       <c r="FJ5">
-        <v>0.002848951739946661</v>
+        <v>0.002823017253290881</v>
       </c>
       <c r="FK5">
-        <v>0.0001804280961967381</v>
+        <v>0.0001280963165300117</v>
       </c>
       <c r="FL5">
-        <v>0.0004180990411868484</v>
+        <v>0.0003681183254088708</v>
       </c>
       <c r="FM5">
-        <v>0.0008738761815794763</v>
+        <v>0.0008284040571909041</v>
       </c>
       <c r="FN5">
-        <v>2.491972947471452E-05</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0002607538945035425</v>
+        <v>0.0002092167053735008</v>
       </c>
       <c r="FP5">
-        <v>0.01274275573139417</v>
+        <v>0.01281469170714438</v>
       </c>
       <c r="FQ5">
-        <v>0.01872122060537352</v>
+        <v>0.0188522961317152</v>
       </c>
       <c r="FR5">
-        <v>0.0003436441427562907</v>
+        <v>0.0002929269119488978</v>
       </c>
       <c r="FS5">
-        <v>0.001237484373914943</v>
+        <v>0.001195609096800608</v>
       </c>
       <c r="FT5">
-        <v>0.001888726360187348</v>
+        <v>0.001853293231551977</v>
       </c>
       <c r="FU5">
-        <v>0.0006325180166670892</v>
+        <v>0.0005846583540550132</v>
       </c>
       <c r="FV5">
-        <v>0.01174475375243116</v>
+        <v>0.01180681739644247</v>
       </c>
       <c r="FW5">
-        <v>0.03022938536279176</v>
+        <v>0.03047430076378897</v>
       </c>
       <c r="FX5">
-        <v>0.01629337865655024</v>
+        <v>0.01640043773639819</v>
       </c>
       <c r="FY5">
-        <v>0.003701774821969918</v>
+        <v>0.00368427654341572</v>
       </c>
       <c r="FZ5">
-        <v>0.0004467578905827456</v>
+        <v>0.0003970606709044305</v>
       </c>
       <c r="GA5">
-        <v>0.0002960154637602604</v>
+        <v>0.0002448270854709529</v>
       </c>
       <c r="GB5">
-        <v>6.853081555543207E-06</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>1.268987673250882E-06</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.007401977543972974</v>
+        <v>0.007421082027279773</v>
       </c>
       <c r="GE5">
-        <v>0.01488726368618988</v>
+        <v>0.01498041334126409</v>
       </c>
       <c r="GF5">
-        <v>0.009916259790974165</v>
+        <v>0.009960235796533263</v>
       </c>
       <c r="GG5">
-        <v>0.0073527901450098</v>
+        <v>0.007371408061826578</v>
       </c>
       <c r="GH5">
-        <v>0.002019171057437691</v>
+        <v>0.001985028300316587</v>
       </c>
       <c r="GI5">
-        <v>8.109417829060769E-05</v>
+        <v>2.777977793658302E-05</v>
       </c>
       <c r="GJ5">
-        <v>0.0005040828893743862</v>
+        <v>0.0004549527341076978</v>
       </c>
       <c r="GK5">
-        <v>0.002620932944753092</v>
+        <v>0.002592742874204389</v>
       </c>
       <c r="GL5">
-        <v>0.003813837119607745</v>
+        <v>0.003797447372099602</v>
       </c>
       <c r="GM5">
-        <v>9.152520807073096E-05</v>
+        <v>3.831399246837852E-05</v>
       </c>
       <c r="GN5">
-        <v>5.569226582605714E-06</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0005128138491903455</v>
+        <v>0.0004637700614194327</v>
       </c>
       <c r="GP5">
-        <v>0.0001865681660673109</v>
+        <v>0.0001342971245633739</v>
       </c>
       <c r="GQ5">
-        <v>0.0008748009815599824</v>
+        <v>0.0008293380053819269</v>
       </c>
       <c r="GR5">
-        <v>0.005894807875742754</v>
+        <v>0.005899003291467309</v>
       </c>
       <c r="GS5">
-        <v>0.008556962819626923</v>
+        <v>0.008587492528569692</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000320759605329454</v>
+        <v>0.0002882637926949426</v>
       </c>
       <c r="C6">
-        <v>0.0002912305776006166</v>
+        <v>0.000258547340727822</v>
       </c>
       <c r="D6">
-        <v>2.972068971409606E-05</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>5.103485607476208E-05</v>
+        <v>1.68270684934488E-05</v>
       </c>
       <c r="F6">
-        <v>0.0004774275632796696</v>
+        <v>0.0004459261407399437</v>
       </c>
       <c r="G6">
-        <v>0.001113273614374917</v>
+        <v>0.00108580798207137</v>
       </c>
       <c r="H6">
-        <v>0.0008916790314183948</v>
+        <v>0.0008628069120371261</v>
       </c>
       <c r="I6">
-        <v>0.0002803998184336415</v>
+        <v>0.000247647837448933</v>
       </c>
       <c r="J6">
-        <v>9.849736242428387E-06</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>7.588146416373781E-05</v>
+        <v>4.18313809483712E-05</v>
       </c>
       <c r="L6">
-        <v>0.0005437790081763887</v>
+        <v>0.0005126987261202899</v>
       </c>
       <c r="M6">
-        <v>0.0009085438701212714</v>
+        <v>0.0008797787938697894</v>
       </c>
       <c r="N6">
-        <v>0.0007482392424507626</v>
+        <v>0.0007184566937308229</v>
       </c>
       <c r="O6">
-        <v>0.0002932444774457218</v>
+        <v>0.0002605740230338979</v>
       </c>
       <c r="P6">
-        <v>1.792954062098734E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.794492561980403E-09</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.431391736081768E-05</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001696351069528748</v>
+        <v>0.0001361800892184102</v>
       </c>
       <c r="T6">
-        <v>0.0009254115688239282</v>
+        <v>0.0008967535538549904</v>
       </c>
       <c r="U6">
-        <v>0.001547986780939874</v>
+        <v>0.001523280324619475</v>
       </c>
       <c r="V6">
-        <v>0.0007532801820630494</v>
+        <v>0.000723529628784197</v>
       </c>
       <c r="W6">
-        <v>0.0001055874018789685</v>
+        <v>7.172586577053314E-05</v>
       </c>
       <c r="X6">
-        <v>4.79956433085167E-05</v>
+        <v>1.376856548361921E-05</v>
       </c>
       <c r="Y6">
-        <v>6.74955688087212E-07</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002848990080875959</v>
+        <v>0.00025217558399279</v>
       </c>
       <c r="AA6">
-        <v>0.000760643101496746</v>
+        <v>0.0007309392815400698</v>
       </c>
       <c r="AB6">
-        <v>0.0011855764088139</v>
+        <v>0.00115856969091478</v>
       </c>
       <c r="AC6">
-        <v>0.0004320668667684915</v>
+        <v>0.0004002775345126154</v>
       </c>
       <c r="AD6">
-        <v>6.438119004825704E-05</v>
+        <v>3.025811323025863E-05</v>
       </c>
       <c r="AE6">
-        <v>1.522463682902929E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>2.612944599030897E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0002164715533505487</v>
+        <v>0.0001833138120916452</v>
       </c>
       <c r="AH6">
-        <v>0.0003551730726826149</v>
+        <v>0.0003228956864035047</v>
       </c>
       <c r="AI6">
-        <v>0.0002638826097040277</v>
+        <v>0.000231025792038168</v>
       </c>
       <c r="AJ6">
-        <v>2.574596301980375E-07</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0001194582408121223</v>
+        <v>8.56847445621363E-05</v>
       </c>
       <c r="AL6">
-        <v>0.0001447023288705267</v>
+        <v>0.000111089059838956</v>
       </c>
       <c r="AM6">
-        <v>0.0001264241202763564</v>
+        <v>9.269483728880988E-05</v>
       </c>
       <c r="AN6">
-        <v>0.000188177915526694</v>
+        <v>0.000154840591195632</v>
       </c>
       <c r="AO6">
-        <v>0.0003745347211934547</v>
+        <v>0.0003423802255918627</v>
       </c>
       <c r="AP6">
-        <v>0.0004954544918931666</v>
+        <v>0.0004640674884056017</v>
       </c>
       <c r="AQ6">
-        <v>0.0004103090684419466</v>
+        <v>0.0003783816368617202</v>
       </c>
       <c r="AR6">
-        <v>6.035021835829071E-05</v>
+        <v>2.620155648529249E-05</v>
       </c>
       <c r="AS6">
-        <v>1.19203150831742E-05</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0003877086801802076</v>
+        <v>0.0003556378012574626</v>
       </c>
       <c r="AU6">
-        <v>0.06011765037617818</v>
+        <v>0.06046469251539723</v>
       </c>
       <c r="AV6">
-        <v>0.0105342091897836</v>
+        <v>0.01056653935198946</v>
       </c>
       <c r="AW6">
-        <v>0.0512225030603296</v>
+        <v>0.05151308664543033</v>
       </c>
       <c r="AX6">
-        <v>0.01545611081122595</v>
+        <v>0.01551968086628486</v>
       </c>
       <c r="AY6">
-        <v>0.007819993398541761</v>
+        <v>0.007835096111476984</v>
       </c>
       <c r="AZ6">
-        <v>0.0002672838794424262</v>
+        <v>0.0002344486500386579</v>
       </c>
       <c r="BA6">
-        <v>0.001474434986596954</v>
+        <v>0.001449261688321728</v>
       </c>
       <c r="BB6">
-        <v>0.001871247056076994</v>
+        <v>0.001848592371030311</v>
       </c>
       <c r="BC6">
-        <v>5.748691057851596E-05</v>
+        <v>2.332007495172799E-05</v>
       </c>
       <c r="BD6">
-        <v>0.001533059282087991</v>
+        <v>0.00150825807916342</v>
       </c>
       <c r="BE6">
-        <v>0.0202448944429068</v>
+        <v>0.02033885947516282</v>
       </c>
       <c r="BF6">
-        <v>0.04283269870561365</v>
+        <v>0.0430700312082552</v>
       </c>
       <c r="BG6">
-        <v>0.003708751314749243</v>
+        <v>0.003697759486982736</v>
       </c>
       <c r="BH6">
-        <v>0.02293640023589533</v>
+        <v>0.02304744857437186</v>
       </c>
       <c r="BI6">
-        <v>0.01489977585401528</v>
+        <v>0.01495981478517323</v>
       </c>
       <c r="BJ6">
-        <v>0.002338019220176201</v>
+        <v>0.002318327193369114</v>
       </c>
       <c r="BK6">
-        <v>0.002380333416921694</v>
+        <v>0.002360909963335724</v>
       </c>
       <c r="BL6">
-        <v>0.007081290455357534</v>
+        <v>0.007091704533173603</v>
       </c>
       <c r="BM6">
-        <v>0.0005396661184927229</v>
+        <v>0.0005085597314384106</v>
       </c>
       <c r="BN6">
-        <v>0.0002382643816743994</v>
+        <v>0.0002052449620793903</v>
       </c>
       <c r="BO6">
-        <v>0.001690968269942755</v>
+        <v>0.001667169334076841</v>
       </c>
       <c r="BP6">
-        <v>0.002102192138314341</v>
+        <v>0.002081003289072382</v>
       </c>
       <c r="BQ6">
-        <v>0.0103109722069534</v>
+        <v>0.01034188545757491</v>
       </c>
       <c r="BR6">
-        <v>0.001746013265709086</v>
+        <v>0.001722563706954316</v>
       </c>
       <c r="BS6">
-        <v>0.001275352601908954</v>
+        <v>0.001248915704146187</v>
       </c>
       <c r="BT6">
-        <v>0.004984726616610305</v>
+        <v>0.004981833555292038</v>
       </c>
       <c r="BU6">
-        <v>0.007012066460681751</v>
+        <v>0.00702204116560034</v>
       </c>
       <c r="BV6">
-        <v>0.003026408167230222</v>
+        <v>0.003011085426646473</v>
       </c>
       <c r="BW6">
-        <v>0.001787583162511825</v>
+        <v>0.001764397452818234</v>
       </c>
       <c r="BX6">
-        <v>0.003769224910098045</v>
+        <v>0.003758616915407539</v>
       </c>
       <c r="BY6">
-        <v>0.004159768280060228</v>
+        <v>0.004151639110419564</v>
       </c>
       <c r="BZ6">
-        <v>0.000903225260530341</v>
+        <v>0.0008744264264335124</v>
       </c>
       <c r="CA6">
-        <v>0.0310579346112447</v>
+        <v>0.03122053129083048</v>
       </c>
       <c r="CB6">
-        <v>0.01743851865875325</v>
+        <v>0.01751467129134236</v>
       </c>
       <c r="CC6">
-        <v>8.710705330034538E-05</v>
+        <v>5.312822022949856E-05</v>
       </c>
       <c r="CD6">
-        <v>0.001988865047030655</v>
+        <v>0.001966956897310679</v>
       </c>
       <c r="CE6">
-        <v>0.0002038435643218038</v>
+        <v>0.000170605671720076</v>
       </c>
       <c r="CF6">
-        <v>0.0004016059091113317</v>
+        <v>0.0003696232375474805</v>
       </c>
       <c r="CG6">
-        <v>0.005325843190374045</v>
+        <v>0.005325115236372908</v>
       </c>
       <c r="CH6">
-        <v>0.0001314109298928065</v>
+        <v>9.771329877684915E-05</v>
       </c>
       <c r="CI6">
-        <v>0.001811429260677753</v>
+        <v>0.001788394904995063</v>
       </c>
       <c r="CJ6">
-        <v>0.001380239993841763</v>
+        <v>0.001354468828785098</v>
       </c>
       <c r="CK6">
-        <v>1.427099090237694E-06</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.006228020820984962</v>
+        <v>0.006233019095316371</v>
       </c>
       <c r="CM6">
-        <v>0.001051270319143769</v>
+        <v>0.001023411144577793</v>
       </c>
       <c r="CN6">
-        <v>0.004306196668797999</v>
+        <v>0.004298996897492906</v>
       </c>
       <c r="CO6">
-        <v>0.02617011398718108</v>
+        <v>0.02630168709004289</v>
       </c>
       <c r="CP6">
-        <v>0.03304016745878546</v>
+        <v>0.03321534560515579</v>
       </c>
       <c r="CQ6">
-        <v>0.01152083111389966</v>
+        <v>0.01155942348237587</v>
       </c>
       <c r="CR6">
-        <v>0.0006800473876955947</v>
+        <v>0.0006498320171925618</v>
       </c>
       <c r="CS6">
-        <v>0.002088144939394752</v>
+        <v>0.00206686693091661</v>
       </c>
       <c r="CT6">
-        <v>0.01721462267597374</v>
+        <v>0.01728935421422772</v>
       </c>
       <c r="CU6">
-        <v>0.06214373122034646</v>
+        <v>0.06250363313478077</v>
       </c>
       <c r="CV6">
-        <v>0.03895989700348199</v>
+        <v>0.0391726483747802</v>
       </c>
       <c r="CW6">
-        <v>0.00863178433610458</v>
+        <v>0.008652039582320447</v>
       </c>
       <c r="CX6">
-        <v>0.003671026717650751</v>
+        <v>0.003659795447395969</v>
       </c>
       <c r="CY6">
-        <v>0.003925100698109188</v>
+        <v>0.00391548206551699</v>
       </c>
       <c r="CZ6">
-        <v>0.0003073192763631884</v>
+        <v>0.0002747381563680043</v>
       </c>
       <c r="DA6">
-        <v>0.000149793708478934</v>
+        <v>0.0001162127550370834</v>
       </c>
       <c r="DB6">
-        <v>0.003226890251810567</v>
+        <v>0.003212839994775445</v>
       </c>
       <c r="DC6">
-        <v>0.01033690720495866</v>
+        <v>0.01036798506808589</v>
       </c>
       <c r="DD6">
-        <v>0.009416147275776963</v>
+        <v>0.009441380966520556</v>
       </c>
       <c r="DE6">
-        <v>0.0182223905984634</v>
+        <v>0.01830351855914529</v>
       </c>
       <c r="DF6">
-        <v>0.0309576666189566</v>
+        <v>0.03111962688571324</v>
       </c>
       <c r="DG6">
-        <v>0.01005144422691445</v>
+        <v>0.01008071022269172</v>
       </c>
       <c r="DH6">
-        <v>3.804610407376444E-06</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0002371655217589159</v>
+        <v>0.0002041391275698046</v>
       </c>
       <c r="DJ6">
-        <v>0.01020233921530868</v>
+        <v>0.01023256295945884</v>
       </c>
       <c r="DK6">
-        <v>0.01099456915437599</v>
+        <v>0.0110298212758313</v>
       </c>
       <c r="DL6">
-        <v>0.004232263674484399</v>
+        <v>0.004224594641703091</v>
       </c>
       <c r="DM6">
-        <v>0.003450782034590405</v>
+        <v>0.003438152845232509</v>
       </c>
       <c r="DN6">
-        <v>5.565982571904232E-06</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.001564741179651245</v>
+        <v>0.001540141065484919</v>
       </c>
       <c r="DP6">
-        <v>0.001528450082442497</v>
+        <v>0.001503619624381572</v>
       </c>
       <c r="DQ6">
-        <v>0.000726380844131955</v>
+        <v>0.0006964595575675926</v>
       </c>
       <c r="DR6">
-        <v>0.00113409141277376</v>
+        <v>0.001106757913503629</v>
       </c>
       <c r="DS6">
-        <v>7.969090387074282E-05</v>
+        <v>4.566499962062787E-05</v>
       </c>
       <c r="DT6">
-        <v>0.0003296110946486604</v>
+        <v>0.000297171463465789</v>
       </c>
       <c r="DU6">
-        <v>0.0002383765616657714</v>
+        <v>0.0002053578540904611</v>
       </c>
       <c r="DV6">
-        <v>0.01029177920842959</v>
+        <v>0.01032257063881503</v>
       </c>
       <c r="DW6">
-        <v>0.01187839608639831</v>
+        <v>0.01191925796212761</v>
       </c>
       <c r="DX6">
-        <v>0.001422405890598662</v>
+        <v>0.001396902357485513</v>
       </c>
       <c r="DY6">
-        <v>0.004180054678499943</v>
+        <v>0.004172054269034182</v>
       </c>
       <c r="DZ6">
-        <v>0.003071944463727894</v>
+        <v>0.003056910747414219</v>
       </c>
       <c r="EA6">
-        <v>8.14533137351908E-05</v>
+        <v>4.743859570933695E-05</v>
       </c>
       <c r="EB6">
-        <v>0.009605713261196898</v>
+        <v>0.009632150149714152</v>
       </c>
       <c r="EC6">
-        <v>0.02223306128999115</v>
+        <v>0.02233964545283002</v>
       </c>
       <c r="ED6">
-        <v>0.01510088683854726</v>
+        <v>0.01516220224495635</v>
       </c>
       <c r="EE6">
-        <v>0.007406521030343114</v>
+        <v>0.007418999385159524</v>
       </c>
       <c r="EF6">
-        <v>0.0004452256157564142</v>
+        <v>0.0004135198036397201</v>
       </c>
       <c r="EG6">
-        <v>0.0007536197120369351</v>
+        <v>0.0007238713137950624</v>
       </c>
       <c r="EH6">
-        <v>0.0005871934248372607</v>
+        <v>0.0005563886992284616</v>
       </c>
       <c r="EI6">
-        <v>7.347807434858945E-07</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.008509995345471724</v>
+        <v>0.008529477582531643</v>
       </c>
       <c r="EK6">
-        <v>0.0146729618714602</v>
+        <v>0.01473156118739265</v>
       </c>
       <c r="EL6">
-        <v>0.01292330300603151</v>
+        <v>0.01297079702980467</v>
       </c>
       <c r="EM6">
-        <v>0.01065749618030124</v>
+        <v>0.01069060885964583</v>
       </c>
       <c r="EN6">
-        <v>0.002867605579444187</v>
+        <v>0.002851274900017124</v>
       </c>
       <c r="EO6">
-        <v>3.319206744710239E-07</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0004858862026290913</v>
+        <v>0.0004544384680756932</v>
       </c>
       <c r="EQ6">
-        <v>0.003952987195964358</v>
+        <v>0.003943545562278689</v>
       </c>
       <c r="ER6">
-        <v>0.005561423572254878</v>
+        <v>0.005562190874854601</v>
       </c>
       <c r="ES6">
-        <v>0.001764109464317255</v>
+        <v>0.001740774764279511</v>
       </c>
       <c r="ET6">
-        <v>0.0010415082198946</v>
+        <v>0.001013587084127848</v>
       </c>
       <c r="EU6">
-        <v>7.485265924286616E-06</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.0001068014117855955</v>
+        <v>7.294758114190171E-05</v>
       </c>
       <c r="EW6">
-        <v>0.0003061603364523258</v>
+        <v>0.0002735718605281892</v>
       </c>
       <c r="EX6">
-        <v>0.001607749976343314</v>
+        <v>0.001583422844106279</v>
       </c>
       <c r="EY6">
-        <v>0.002119331236996124</v>
+        <v>0.002098251171644538</v>
       </c>
       <c r="EZ6">
-        <v>0.0007552375419125031</v>
+        <v>0.0007254994122285689</v>
       </c>
       <c r="FA6">
-        <v>9.064944302788999E-06</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001391474492977685</v>
+        <v>0.001365774634618362</v>
       </c>
       <c r="FC6">
-        <v>0.0002651599396057846</v>
+        <v>0.0002323112293041792</v>
       </c>
       <c r="FD6">
-        <v>0.001029503520817916</v>
+        <v>0.001001506189803527</v>
       </c>
       <c r="FE6">
-        <v>0.006263135918284159</v>
+        <v>0.006268357072299382</v>
       </c>
       <c r="FF6">
-        <v>0.002516954506413772</v>
+        <v>0.002498398203072863</v>
       </c>
       <c r="FG6">
-        <v>0.0003062875264425433</v>
+        <v>0.0002736998578083471</v>
       </c>
       <c r="FH6">
-        <v>0.006377662509475589</v>
+        <v>0.006383610577336887</v>
       </c>
       <c r="FI6">
-        <v>0.01366578794892485</v>
+        <v>0.0137179946126175</v>
       </c>
       <c r="FJ6">
-        <v>0.01321735698341497</v>
+        <v>0.01326671740262897</v>
       </c>
       <c r="FK6">
-        <v>0.005148237204034234</v>
+        <v>0.005146381963790897</v>
       </c>
       <c r="FL6">
-        <v>0.001673252171305351</v>
+        <v>0.001649340789261969</v>
       </c>
       <c r="FM6">
-        <v>6.644553888948203E-05</v>
+        <v>3.23355647382111E-05</v>
       </c>
       <c r="FN6">
-        <v>5.694778761998146E-05</v>
+        <v>2.277753011588781E-05</v>
       </c>
       <c r="FO6">
-        <v>0.0009506679268813888</v>
+        <v>0.0009221702170100044</v>
       </c>
       <c r="FP6">
-        <v>0.0003792499208307951</v>
+        <v>0.0003471253531600682</v>
       </c>
       <c r="FQ6">
-        <v>0.001293387200521861</v>
+        <v>0.00126706477049365</v>
       </c>
       <c r="FR6">
-        <v>0.004376053963425073</v>
+        <v>0.0043692975846473</v>
       </c>
       <c r="FS6">
-        <v>0.01037487020203882</v>
+        <v>0.01040618902080726</v>
       </c>
       <c r="FT6">
-        <v>0.01299623950042175</v>
+        <v>0.01304419646076803</v>
       </c>
       <c r="FU6">
-        <v>0.005252489596015882</v>
+        <v>0.005251296058058709</v>
       </c>
       <c r="FV6">
-        <v>0.0002986488170300584</v>
+        <v>0.0002660126646020086</v>
       </c>
       <c r="FW6">
-        <v>8.655816834256171E-05</v>
+        <v>5.257585143384314E-05</v>
       </c>
       <c r="FX6">
-        <v>0.0002469402210071156</v>
+        <v>0.0002139758679924671</v>
       </c>
       <c r="FY6">
-        <v>0.001264158202769948</v>
+        <v>0.001237650252829271</v>
       </c>
       <c r="FZ6">
-        <v>0.004418199060183572</v>
+        <v>0.00441171018132926</v>
       </c>
       <c r="GA6">
-        <v>0.006402775507544075</v>
+        <v>0.006408882970580088</v>
       </c>
       <c r="GB6">
-        <v>7.485265924286616E-06</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.002507113707170656</v>
+        <v>0.002488494943110783</v>
       </c>
       <c r="GD6">
-        <v>0.006640018489297034</v>
+        <v>0.006647631761652317</v>
       </c>
       <c r="GE6">
-        <v>0.005032848212909133</v>
+        <v>0.005030260585065146</v>
       </c>
       <c r="GF6">
-        <v>0.001284223801226645</v>
+        <v>0.001257843210017213</v>
       </c>
       <c r="GG6">
-        <v>0.0002130188336161073</v>
+        <v>0.0001798391775358905</v>
       </c>
       <c r="GH6">
-        <v>0.0002362592818286175</v>
+        <v>0.0002032271356272761</v>
       </c>
       <c r="GI6">
-        <v>2.335964220334257E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>9.102225299921609E-06</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0002193699831276221</v>
+        <v>0.0001862306385459873</v>
       </c>
       <c r="GL6">
-        <v>0.0003492772231360817</v>
+        <v>0.0003169624152012218</v>
       </c>
       <c r="GM6">
-        <v>0.002062206741389734</v>
+        <v>0.002040764100095091</v>
       </c>
       <c r="GN6">
-        <v>0.002907699176360473</v>
+        <v>0.002891622975744262</v>
       </c>
       <c r="GO6">
-        <v>0.0007953459788276477</v>
+        <v>0.0007658624221457973</v>
       </c>
       <c r="GP6">
-        <v>8.92538131352319E-06</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>1.215781706490724E-06</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>2.2700085254071E-05</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.000226886722549488</v>
+        <v>0.0001937950876037225</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>1.706382116438928E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.794222063167699E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.863896615755755E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.130512570239104E-05</v>
+        <v>5.443006462291311E-06</v>
       </c>
       <c r="F2">
-        <v>4.073656226114153E-05</v>
+        <v>3.188669151128332E-05</v>
       </c>
       <c r="G2">
-        <v>5.854498738906776E-05</v>
+        <v>4.670156690736667E-05</v>
       </c>
       <c r="H2">
-        <v>8.162609725879204E-05</v>
+        <v>6.679175736160764E-05</v>
       </c>
       <c r="I2">
-        <v>8.684542500320296E-05</v>
+        <v>6.901125521322893E-05</v>
       </c>
       <c r="J2">
-        <v>8.685133384651361E-05</v>
+        <v>6.901125521322893E-05</v>
       </c>
       <c r="K2">
-        <v>9.505588144473913E-05</v>
+        <v>7.421746211686326E-05</v>
       </c>
       <c r="L2">
-        <v>9.895954825357761E-05</v>
+        <v>7.512064270607827E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001049049662624321</v>
+        <v>7.806659303744608E-05</v>
       </c>
       <c r="N2">
-        <v>0.0001546311318273552</v>
+        <v>0.0001248151312628071</v>
       </c>
       <c r="O2">
-        <v>0.0001990155116538641</v>
+        <v>0.0001662192189618697</v>
       </c>
       <c r="P2">
-        <v>0.0002224052505084749</v>
+        <v>0.0001866181923627657</v>
       </c>
       <c r="Q2">
-        <v>0.0002258427353401422</v>
+        <v>0.000187054958416608</v>
       </c>
       <c r="R2">
-        <v>0.0002288436718931871</v>
+        <v>0.000187054958416608</v>
       </c>
       <c r="S2">
-        <v>0.000229096584780802</v>
+        <v>0.000187054958416608</v>
       </c>
       <c r="T2">
-        <v>0.0002297094712507891</v>
+        <v>0.000187054958416608</v>
       </c>
       <c r="U2">
-        <v>0.000234580524512255</v>
+        <v>0.0001889260080460764</v>
       </c>
       <c r="V2">
-        <v>0.0002498779167631458</v>
+        <v>0.0002012285979184786</v>
       </c>
       <c r="W2">
-        <v>0.0002590140273157529</v>
+        <v>0.0002073668324933131</v>
       </c>
       <c r="X2">
-        <v>0.0002598104454067525</v>
+        <v>0.0002073668324933131</v>
       </c>
       <c r="Y2">
-        <v>0.0002608889108539404</v>
+        <v>0.0002073668324933131</v>
       </c>
       <c r="Z2">
-        <v>0.0002609441879142335</v>
+        <v>0.0002073668324933131</v>
       </c>
       <c r="AA2">
-        <v>0.0002609452560911812</v>
+        <v>0.0002073668324933131</v>
       </c>
       <c r="AB2">
-        <v>0.0002619492091420179</v>
+        <v>0.0002073668324933131</v>
       </c>
       <c r="AC2">
-        <v>0.0002680740422420864</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AD2">
-        <v>0.0002691525076892743</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AE2">
-        <v>0.0002692221822418623</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AF2">
-        <v>0.0002711584342470446</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AG2">
-        <v>0.0002723939255865429</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AH2">
-        <v>0.0002732568549442855</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AI2">
-        <v>0.000274869166565331</v>
+        <v>0.0002104922874183919</v>
       </c>
       <c r="AJ2">
-        <v>0.0002809939996653996</v>
+        <v>0.0002136177423434706</v>
       </c>
       <c r="AK2">
-        <v>0.0002824261710952665</v>
+        <v>0.0002136177423434706</v>
       </c>
       <c r="AL2">
-        <v>0.0002895529307462711</v>
+        <v>0.0002177456236376856</v>
       </c>
       <c r="AM2">
-        <v>0.00029125931286271</v>
+        <v>0.0002177456236376856</v>
       </c>
       <c r="AN2">
-        <v>0.0002922632659135467</v>
+        <v>0.0002177456236376856</v>
       </c>
       <c r="AO2">
-        <v>0.0002959769040316908</v>
+        <v>0.0002184586807390396</v>
       </c>
       <c r="AP2">
-        <v>0.0003068035945015107</v>
+        <v>0.0002262883385889267</v>
       </c>
       <c r="AQ2">
-        <v>0.0003301933333561215</v>
+        <v>0.0002466873119898227</v>
       </c>
       <c r="AR2">
-        <v>0.0003431152357233395</v>
+        <v>0.0002566132269484945</v>
       </c>
       <c r="AS2">
-        <v>0.0003498573827931784</v>
+        <v>0.0002603563037948167</v>
       </c>
       <c r="AT2">
-        <v>0.0003537610496020168</v>
+        <v>0.0002612594843840317</v>
       </c>
       <c r="AU2">
-        <v>0.0003540653058071175</v>
+        <v>0.0002612594843840317</v>
       </c>
       <c r="AV2">
-        <v>0.0003581327519079358</v>
+        <v>0.0002623265259676935</v>
       </c>
       <c r="AW2">
-        <v>0.0003589814926063731</v>
+        <v>0.0002623265259676935</v>
       </c>
       <c r="AX2">
-        <v>0.0003610335884058826</v>
+        <v>0.0002623265259676935</v>
       </c>
       <c r="AY2">
-        <v>0.0003716506298859689</v>
+        <v>0.0002699464302429543</v>
       </c>
       <c r="AZ2">
-        <v>0.0003825069793543364</v>
+        <v>0.0002778057618869918</v>
       </c>
       <c r="BA2">
-        <v>0.0003832264846691025</v>
+        <v>0.0002778057618869918</v>
       </c>
       <c r="BB2">
-        <v>0.0003832961592216905</v>
+        <v>0.0002778057618869918</v>
       </c>
       <c r="BC2">
-        <v>0.0003854542115160113</v>
+        <v>0.0002778057618869918</v>
       </c>
       <c r="BD2">
-        <v>0.0003946175680672842</v>
+        <v>0.0002839712560523528</v>
       </c>
       <c r="BE2">
-        <v>0.0003998368958116951</v>
+        <v>0.000286190753903974</v>
       </c>
       <c r="BF2">
-        <v>0.0003998369105139264</v>
+        <v>0.000286190753903974</v>
       </c>
       <c r="BG2">
-        <v>0.0003998369252161577</v>
+        <v>0.000286190753903974</v>
       </c>
       <c r="BH2">
-        <v>0.000401072416555656</v>
+        <v>0.000286190753903974</v>
       </c>
       <c r="BI2">
-        <v>0.0004123850680016785</v>
+        <v>0.0002945066151551599</v>
       </c>
       <c r="BJ2">
-        <v>0.0004250457653816876</v>
+        <v>0.0003041711948226535</v>
       </c>
       <c r="BK2">
-        <v>0.0004441753754449158</v>
+        <v>0.0003203079142365592</v>
       </c>
       <c r="BL2">
-        <v>0.0004516974160765635</v>
+        <v>0.0003248312737001515</v>
       </c>
       <c r="BM2">
-        <v>0.0004590204824179549</v>
+        <v>0.0003291555596137448</v>
       </c>
       <c r="BN2">
-        <v>0.0004609692887225224</v>
+        <v>0.0003291555596137448</v>
       </c>
       <c r="BO2">
-        <v>0.0004613963216016107</v>
+        <v>0.0003291555596137448</v>
       </c>
       <c r="BP2">
-        <v>0.0004640297012726548</v>
+        <v>0.0003291555596137448</v>
       </c>
       <c r="BQ2">
-        <v>0.0004683970727587858</v>
+        <v>0.0003305226762026352</v>
       </c>
       <c r="BR2">
-        <v>0.0004684365121028545</v>
+        <v>0.0003305226762026352</v>
       </c>
       <c r="BS2">
-        <v>0.0004695243520495833</v>
+        <v>0.0003305226762026352</v>
       </c>
       <c r="BT2">
-        <v>0.0004738917235357142</v>
+        <v>0.0003318897927915256</v>
       </c>
       <c r="BU2">
-        <v>0.0004770637232803823</v>
+        <v>0.0003320609413192409</v>
       </c>
       <c r="BV2">
-        <v>0.0004923611155312731</v>
+        <v>0.0003443635311916432</v>
       </c>
       <c r="BW2">
-        <v>0.000500776194119189</v>
+        <v>0.0003497803741098524</v>
       </c>
       <c r="BX2">
-        <v>0.0005024943628350508</v>
+        <v>0.0003497803741098524</v>
       </c>
       <c r="BY2">
-        <v>0.0005027472757226657</v>
+        <v>0.0003497803741098524</v>
       </c>
       <c r="BZ2">
-        <v>0.0005042793125476423</v>
+        <v>0.0003497803741098524</v>
       </c>
       <c r="CA2">
-        <v>0.0005120029941694157</v>
+        <v>0.0003545054751536153</v>
       </c>
       <c r="CB2">
-        <v>0.0005133490961034975</v>
+        <v>0.0003545054751536153</v>
       </c>
       <c r="CC2">
-        <v>0.0005134008259889643</v>
+        <v>0.0003545054751536153</v>
       </c>
       <c r="CD2">
-        <v>0.0005180593290608387</v>
+        <v>0.0003561638685613154</v>
       </c>
       <c r="CE2">
-        <v>0.0005185460634870034</v>
+        <v>0.0003561638685613154</v>
       </c>
       <c r="CF2">
-        <v>0.0005186363497425821</v>
+        <v>0.0003561638685613154</v>
       </c>
       <c r="CG2">
-        <v>0.0005336494240073959</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CH2">
-        <v>0.0005338342120783469</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CI2">
-        <v>0.0005339079938847339</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CJ2">
-        <v>0.0005347709232424765</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CK2">
-        <v>0.0005376466737016518</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CL2">
-        <v>0.0005398998088913164</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CM2">
-        <v>0.0005409037619421531</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="CN2">
-        <v>0.00349043691750431</v>
+        <v>0.003316184116218798</v>
       </c>
       <c r="CO2">
-        <v>0.1145968814766517</v>
+        <v>0.1144750524834499</v>
       </c>
       <c r="CP2">
-        <v>0.1592313592909133</v>
+        <v>0.159128794091468</v>
       </c>
       <c r="CQ2">
-        <v>0.2032763141340438</v>
+        <v>0.2031927186406195</v>
       </c>
       <c r="CR2">
-        <v>0.2184368413916369</v>
+        <v>0.2183578064016858</v>
       </c>
       <c r="CS2">
-        <v>0.2269171079763605</v>
+        <v>0.2268393009942388</v>
       </c>
       <c r="CT2">
-        <v>0.2300541431227407</v>
+        <v>0.2299748986393664</v>
       </c>
       <c r="CU2">
-        <v>0.2492145641844601</v>
+        <v>0.2491418755800887</v>
       </c>
       <c r="CV2">
-        <v>0.255216049390569</v>
+        <v>0.255143352236271</v>
       </c>
       <c r="CW2">
-        <v>0.2570101025027147</v>
+        <v>0.2569352978910056</v>
       </c>
       <c r="CX2">
-        <v>0.2604462481344476</v>
+        <v>0.2603701552348831</v>
       </c>
       <c r="CY2">
-        <v>0.2752473354096423</v>
+        <v>0.2751756237043543</v>
       </c>
       <c r="CZ2">
-        <v>0.3495238317723423</v>
+        <v>0.3494861709930094</v>
       </c>
       <c r="DA2">
-        <v>0.3501671407408397</v>
+        <v>0.3501267984471786</v>
       </c>
       <c r="DB2">
-        <v>0.4054173780352505</v>
+        <v>0.4054015952826163</v>
       </c>
       <c r="DC2">
-        <v>0.4057483984990405</v>
+        <v>0.4057297784447321</v>
       </c>
       <c r="DD2">
-        <v>0.4173971119286061</v>
+        <v>0.4173813004844157</v>
       </c>
       <c r="DE2">
-        <v>0.4251172862505513</v>
+        <v>0.425102323636748</v>
       </c>
       <c r="DF2">
-        <v>0.432048042911154</v>
+        <v>0.4320335353211118</v>
       </c>
       <c r="DG2">
-        <v>0.4320745940248538</v>
+        <v>0.4320570972464322</v>
       </c>
       <c r="DH2">
-        <v>0.4328436942571912</v>
+        <v>0.4328235787163099</v>
       </c>
       <c r="DI2">
-        <v>0.4339956587007798</v>
+        <v>0.4339731153919791</v>
       </c>
       <c r="DJ2">
-        <v>0.4375179617282936</v>
+        <v>0.4374941731118684</v>
       </c>
       <c r="DK2">
-        <v>0.4440914094063936</v>
+        <v>0.4440678975675971</v>
       </c>
       <c r="DL2">
-        <v>0.4440940427860647</v>
+        <v>0.4440678975675971</v>
       </c>
       <c r="DM2">
-        <v>0.4458753630988339</v>
+        <v>0.4458471040711074</v>
       </c>
       <c r="DN2">
-        <v>0.4536576937177353</v>
+        <v>0.4536303145275077</v>
       </c>
       <c r="DO2">
-        <v>0.458603163075557</v>
+        <v>0.4585752485343711</v>
       </c>
       <c r="DP2">
-        <v>0.4604206270865563</v>
+        <v>0.4603906167666529</v>
       </c>
       <c r="DQ2">
-        <v>0.4626229203787106</v>
+        <v>0.4625910062549191</v>
       </c>
       <c r="DR2">
-        <v>0.4659861486140142</v>
+        <v>0.4659529098270045</v>
       </c>
       <c r="DS2">
-        <v>0.4662603277205877</v>
+        <v>0.4662242232761877</v>
       </c>
       <c r="DT2">
-        <v>0.4726398214081856</v>
+        <v>0.472603896986084</v>
       </c>
       <c r="DU2">
-        <v>0.508849324635016</v>
+        <v>0.5088284611480567</v>
       </c>
       <c r="DV2">
-        <v>0.5124793574572543</v>
+        <v>0.5124573024044463</v>
       </c>
       <c r="DW2">
-        <v>0.5157264236982463</v>
+        <v>0.5157029860339815</v>
       </c>
       <c r="DX2">
-        <v>0.521068158436663</v>
+        <v>0.521044383101249</v>
       </c>
       <c r="DY2">
-        <v>0.5212155321794462</v>
+        <v>0.5211888279288824</v>
       </c>
       <c r="DZ2">
-        <v>0.5212316985306545</v>
+        <v>0.5212019999111986</v>
       </c>
       <c r="EA2">
-        <v>0.5255447938194434</v>
+        <v>0.5255142443847183</v>
       </c>
       <c r="EB2">
-        <v>0.5275630179206116</v>
+        <v>0.5275304728577707</v>
       </c>
       <c r="EC2">
-        <v>0.5331446936472783</v>
+        <v>0.5331119306095603</v>
       </c>
       <c r="ED2">
-        <v>0.5381905991001817</v>
+        <v>0.5381573508147672</v>
       </c>
       <c r="EE2">
-        <v>0.5387724674116878</v>
+        <v>0.5387365069618356</v>
       </c>
       <c r="EF2">
-        <v>0.5425291864277223</v>
+        <v>0.5424920976103321</v>
       </c>
       <c r="EG2">
-        <v>0.5425661270889133</v>
+        <v>0.5425260542660436</v>
       </c>
       <c r="EH2">
-        <v>0.5487258770872719</v>
+        <v>0.5486858746659952</v>
       </c>
       <c r="EI2">
-        <v>0.5813505554896502</v>
+        <v>0.5813238256881047</v>
       </c>
       <c r="EJ2">
-        <v>0.6076455882019896</v>
+        <v>0.6076289734313142</v>
       </c>
       <c r="EK2">
-        <v>0.6112888341235808</v>
+        <v>0.6112710343785056</v>
       </c>
       <c r="EL2">
-        <v>0.612626188058091</v>
+        <v>0.6126060530279651</v>
       </c>
       <c r="EM2">
-        <v>0.6186995547606798</v>
+        <v>0.6186794470392242</v>
       </c>
       <c r="EN2">
-        <v>0.648220931315026</v>
+        <v>0.6482125481090588</v>
       </c>
       <c r="EO2">
-        <v>0.7279594774102509</v>
+        <v>0.7279878699126734</v>
       </c>
       <c r="EP2">
-        <v>0.751167546273758</v>
+        <v>0.7512045138531352</v>
       </c>
       <c r="EQ2">
-        <v>0.7543182313194698</v>
+        <v>0.754353768206944</v>
       </c>
       <c r="ER2">
-        <v>0.7556761403529734</v>
+        <v>0.7557093522094546</v>
       </c>
       <c r="ES2">
-        <v>0.7565987248677947</v>
+        <v>0.7566293945285443</v>
       </c>
       <c r="ET2">
-        <v>0.7567034430276667</v>
+        <v>0.756731162494225</v>
       </c>
       <c r="EU2">
-        <v>0.7568138747922588</v>
+        <v>0.7568386469148983</v>
       </c>
       <c r="EV2">
-        <v>0.7627202535030251</v>
+        <v>0.762744969631185</v>
       </c>
       <c r="EW2">
-        <v>0.7669274762969985</v>
+        <v>0.7669512887946406</v>
       </c>
       <c r="EX2">
-        <v>0.772761111611327</v>
+        <v>0.7727848318259277</v>
       </c>
       <c r="EY2">
-        <v>0.797777239386294</v>
+        <v>0.7978104366409227</v>
       </c>
       <c r="EZ2">
-        <v>0.8335019576368642</v>
+        <v>0.833549973988195</v>
       </c>
       <c r="FA2">
-        <v>0.8360805247105925</v>
+        <v>0.8361268249648927</v>
       </c>
       <c r="FB2">
-        <v>0.8361472988273225</v>
+        <v>0.8361906299587751</v>
       </c>
       <c r="FC2">
-        <v>0.8366238050539881</v>
+        <v>0.8366643714603762</v>
       </c>
       <c r="FD2">
-        <v>0.8488459824554714</v>
+        <v>0.8488896435485667</v>
       </c>
       <c r="FE2">
-        <v>0.8566132872751085</v>
+        <v>0.8566578207099756</v>
       </c>
       <c r="FF2">
-        <v>0.8595795425298518</v>
+        <v>0.8596225532687003</v>
       </c>
       <c r="FG2">
-        <v>0.862716577676232</v>
+        <v>0.8627581509138279</v>
       </c>
       <c r="FH2">
-        <v>0.8627179342491655</v>
+        <v>0.8627581509138279</v>
       </c>
       <c r="FI2">
-        <v>0.8655135153122667</v>
+        <v>0.8655521241388736</v>
       </c>
       <c r="FJ2">
-        <v>0.8655323268213455</v>
+        <v>0.8655679425986161</v>
       </c>
       <c r="FK2">
-        <v>0.8658576142054163</v>
+        <v>0.865890389821025</v>
       </c>
       <c r="FL2">
-        <v>0.8659031411731869</v>
+        <v>0.8659329370666562</v>
       </c>
       <c r="FM2">
-        <v>0.8661355125218078</v>
+        <v>0.8661624219017887</v>
       </c>
       <c r="FN2">
-        <v>0.8678259290390286</v>
+        <v>0.8678506792617443</v>
       </c>
       <c r="FO2">
-        <v>0.8690774576777416</v>
+        <v>0.8690998298008462</v>
       </c>
       <c r="FP2">
-        <v>0.8818658620514969</v>
+        <v>0.8818916113276691</v>
       </c>
       <c r="FQ2">
-        <v>0.8864221154283783</v>
+        <v>0.8864471351904265</v>
       </c>
       <c r="FR2">
-        <v>0.8864227283148484</v>
+        <v>0.8864471351904265</v>
       </c>
       <c r="FS2">
-        <v>0.8912440090787516</v>
+        <v>0.8912678186510062</v>
       </c>
       <c r="FT2">
-        <v>0.8915595484032997</v>
+        <v>0.8915805129510035</v>
       </c>
       <c r="FU2">
-        <v>0.8932892267185978</v>
+        <v>0.8933080516950642</v>
       </c>
       <c r="FV2">
-        <v>0.9042367621824999</v>
+        <v>0.9042580459814592</v>
       </c>
       <c r="FW2">
-        <v>0.9211868753524575</v>
+        <v>0.9212136124025759</v>
       </c>
       <c r="FX2">
-        <v>0.9301315029144415</v>
+        <v>0.930159699622172</v>
       </c>
       <c r="FY2">
-        <v>0.9312550310594226</v>
+        <v>0.9312807858135835</v>
       </c>
       <c r="FZ2">
-        <v>0.9312685728097595</v>
+        <v>0.9312913318857274</v>
       </c>
       <c r="GA2">
-        <v>0.9316166385427148</v>
+        <v>0.9316365688201625</v>
       </c>
       <c r="GB2">
-        <v>0.9319336369271914</v>
+        <v>0.9319507229079508</v>
       </c>
       <c r="GC2">
-        <v>0.9319648103516649</v>
+        <v>0.9319789094499176</v>
       </c>
       <c r="GD2">
-        <v>0.9431315528048325</v>
+        <v>0.9431482200785468</v>
       </c>
       <c r="GE2">
-        <v>0.956244093162715</v>
+        <v>0.9562642992870425</v>
       </c>
       <c r="GF2">
-        <v>0.9650137477332673</v>
+        <v>0.9650353262286833</v>
       </c>
       <c r="GG2">
-        <v>0.9742921312789073</v>
+        <v>0.9743153359284864</v>
       </c>
       <c r="GH2">
-        <v>0.9758632472019703</v>
+        <v>0.9758842331803326</v>
       </c>
       <c r="GI2">
-        <v>0.9763199657596049</v>
+        <v>0.9763381771416829</v>
       </c>
       <c r="GJ2">
-        <v>0.9774747165030571</v>
+        <v>0.9774905015071812</v>
       </c>
       <c r="GK2">
-        <v>0.9821473412742399</v>
+        <v>0.9821624548169392</v>
       </c>
       <c r="GL2">
-        <v>0.9854885388106224</v>
+        <v>0.9855023166999323</v>
       </c>
       <c r="GM2">
-        <v>0.9858280284239976</v>
+        <v>0.9858389732365289</v>
       </c>
       <c r="GN2">
-        <v>0.9859878823161696</v>
+        <v>0.9859959044393626</v>
       </c>
       <c r="GO2">
-        <v>0.9861186131197678</v>
+        <v>0.9861236980253621</v>
       </c>
       <c r="GP2">
-        <v>0.9863199474699085</v>
+        <v>0.9863221303789866</v>
       </c>
       <c r="GQ2">
-        <v>0.9891322870321889</v>
+        <v>0.9891328704633084</v>
       </c>
       <c r="GR2">
-        <v>0.9954497094228264</v>
+        <v>0.9954504419115354</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,772 +7418,772 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>5.815819597695862E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0001206793730272079</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0002321624148999331</v>
+        <v>4.83351708215219E-05</v>
       </c>
       <c r="E3">
-        <v>0.0002710124675525478</v>
+        <v>4.83351708215219E-05</v>
       </c>
       <c r="F3">
-        <v>0.0002716269410028699</v>
+        <v>4.83351708215219E-05</v>
       </c>
       <c r="G3">
-        <v>0.0002838541842082667</v>
+        <v>4.83351708215219E-05</v>
       </c>
       <c r="H3">
-        <v>0.0005119476180398478</v>
+        <v>0.0002145645527993595</v>
       </c>
       <c r="I3">
-        <v>0.0009701532657369221</v>
+        <v>0.0006134395633132688</v>
       </c>
       <c r="J3">
-        <v>0.001938171781997984</v>
+        <v>0.001527740214433004</v>
       </c>
       <c r="K3">
-        <v>0.002327067968530778</v>
+        <v>0.001856542703001225</v>
       </c>
       <c r="L3">
-        <v>0.002390742189600396</v>
+        <v>0.001856542703001225</v>
       </c>
       <c r="M3">
-        <v>0.002447199376548781</v>
+        <v>0.001856542703001225</v>
       </c>
       <c r="N3">
-        <v>0.002529156707925524</v>
+        <v>0.001875027100754583</v>
       </c>
       <c r="O3">
-        <v>0.002619239659438764</v>
+        <v>0.00190172657745636</v>
       </c>
       <c r="P3">
-        <v>0.002674688354370208</v>
+        <v>0.00190172657745636</v>
       </c>
       <c r="Q3">
-        <v>0.002720399985138085</v>
+        <v>0.00190172657745636</v>
       </c>
       <c r="R3">
-        <v>0.00289878619813467</v>
+        <v>0.002017701488193055</v>
       </c>
       <c r="S3">
-        <v>0.003050353110680736</v>
+        <v>0.002106561832060841</v>
       </c>
       <c r="T3">
-        <v>0.003065619974937193</v>
+        <v>0.002106561832060841</v>
       </c>
       <c r="U3">
-        <v>0.003084645815256795</v>
+        <v>0.002106561832060841</v>
       </c>
       <c r="V3">
-        <v>0.003463854271626851</v>
+        <v>0.002425569933643088</v>
       </c>
       <c r="W3">
-        <v>0.004279676085331268</v>
+        <v>0.003185998276411103</v>
       </c>
       <c r="X3">
-        <v>0.004751448663256243</v>
+        <v>0.003598589581932369</v>
       </c>
       <c r="Y3">
-        <v>0.004861385435102994</v>
+        <v>0.003645361459106689</v>
       </c>
       <c r="Z3">
-        <v>0.004903299262807075</v>
+        <v>0.003645361459106689</v>
       </c>
       <c r="AA3">
-        <v>0.005049655585265611</v>
+        <v>0.003728953847025532</v>
       </c>
       <c r="AB3">
-        <v>0.00559303796439351</v>
+        <v>0.004213943340067324</v>
       </c>
       <c r="AC3">
-        <v>0.006151716733778362</v>
+        <v>0.004714397628592513</v>
       </c>
       <c r="AD3">
-        <v>0.006464756749036901</v>
+        <v>0.004966508809263648</v>
       </c>
       <c r="AE3">
-        <v>0.006526746040078215</v>
+        <v>0.004966508809263648</v>
       </c>
       <c r="AF3">
-        <v>0.006532842847480631</v>
+        <v>0.004966508809263648</v>
       </c>
       <c r="AG3">
-        <v>0.006549181472755092</v>
+        <v>0.004966508809263648</v>
       </c>
       <c r="AH3">
-        <v>0.006550916247684234</v>
+        <v>0.004966508809263648</v>
       </c>
       <c r="AI3">
-        <v>0.006638765329159949</v>
+        <v>0.004990949822191521</v>
       </c>
       <c r="AJ3">
-        <v>0.007365388741365985</v>
+        <v>0.005661197735887945</v>
       </c>
       <c r="AK3">
-        <v>0.008440379259423994</v>
+        <v>0.006683648094386358</v>
       </c>
       <c r="AL3">
-        <v>0.00874295671450678</v>
+        <v>0.006925181527586828</v>
       </c>
       <c r="AM3">
-        <v>0.008884049416876897</v>
+        <v>0.007003452345723369</v>
       </c>
       <c r="AN3">
-        <v>0.009251966283057274</v>
+        <v>0.007311044542635796</v>
       </c>
       <c r="AO3">
-        <v>0.009268804593340129</v>
+        <v>0.007311044542635796</v>
       </c>
       <c r="AP3">
-        <v>0.00935550751079659</v>
+        <v>0.007334326772880276</v>
       </c>
       <c r="AQ3">
-        <v>0.009804876978345232</v>
+        <v>0.007724268321541127</v>
       </c>
       <c r="AR3">
-        <v>0.01032699574711594</v>
+        <v>0.008187760103038642</v>
       </c>
       <c r="AS3">
-        <v>0.01044158443904083</v>
+        <v>0.008239235115489007</v>
       </c>
       <c r="AT3">
-        <v>0.01045547884027423</v>
+        <v>0.008239235115489007</v>
       </c>
       <c r="AU3">
-        <v>0.01046174323437947</v>
+        <v>0.008239235115489007</v>
       </c>
       <c r="AV3">
-        <v>0.0104624116866907</v>
+        <v>0.008239235115489007</v>
       </c>
       <c r="AW3">
-        <v>0.01054900163814526</v>
+        <v>0.008262403136035212</v>
       </c>
       <c r="AX3">
-        <v>0.01062447313941305</v>
+        <v>0.008274330298095043</v>
       </c>
       <c r="AY3">
-        <v>0.01069215318054996</v>
+        <v>0.008278380220138304</v>
       </c>
       <c r="AZ3">
-        <v>0.01073458358126272</v>
+        <v>0.008278380220138304</v>
       </c>
       <c r="BA3">
-        <v>0.01078787840015798</v>
+        <v>0.008278380220138304</v>
       </c>
       <c r="BB3">
-        <v>0.01079247234523515</v>
+        <v>0.008278380220138304</v>
       </c>
       <c r="BC3">
-        <v>0.01080066570837279</v>
+        <v>0.008278380220138304</v>
       </c>
       <c r="BD3">
-        <v>0.01082793298583083</v>
+        <v>0.008278380220138304</v>
       </c>
       <c r="BE3">
-        <v>0.01096916985820337</v>
+        <v>0.008356796795513306</v>
       </c>
       <c r="BF3">
-        <v>0.01135256426464374</v>
+        <v>0.008680036932278609</v>
       </c>
       <c r="BG3">
-        <v>0.01157779569842725</v>
+        <v>0.00884337280509033</v>
       </c>
       <c r="BH3">
-        <v>0.01164319198952579</v>
+        <v>0.008845113834206225</v>
       </c>
       <c r="BI3">
-        <v>0.01168204204217841</v>
+        <v>0.008845113834206225</v>
       </c>
       <c r="BJ3">
-        <v>0.01183988597482992</v>
+        <v>0.00894032030487551</v>
       </c>
       <c r="BK3">
-        <v>0.01227999598222302</v>
+        <v>0.009320900451585528</v>
       </c>
       <c r="BL3">
-        <v>0.01275372282018082</v>
+        <v>0.009735467532516638</v>
       </c>
       <c r="BM3">
-        <v>0.01326891262883513</v>
+        <v>0.01019195406968443</v>
       </c>
       <c r="BN3">
-        <v>0.01336850280050808</v>
+        <v>0.01022826543604878</v>
       </c>
       <c r="BO3">
-        <v>0.01337209827456847</v>
+        <v>0.01022826543604878</v>
       </c>
       <c r="BP3">
-        <v>0.01337340566469044</v>
+        <v>0.01022826543604878</v>
       </c>
       <c r="BQ3">
-        <v>0.0134601085821469</v>
+        <v>0.01025154766629326</v>
       </c>
       <c r="BR3">
-        <v>0.0137843795375941</v>
+        <v>0.01051501343390853</v>
       </c>
       <c r="BS3">
-        <v>0.01405336852211265</v>
+        <v>0.0107225886051171</v>
       </c>
       <c r="BT3">
-        <v>0.01425433612548857</v>
+        <v>0.01086139351548644</v>
       </c>
       <c r="BU3">
-        <v>0.01426318530763722</v>
+        <v>0.01086139351548644</v>
       </c>
       <c r="BV3">
-        <v>0.01431854367856714</v>
+        <v>0.01086139351548644</v>
       </c>
       <c r="BW3">
-        <v>0.01449378065151083</v>
+        <v>0.01097418451469054</v>
       </c>
       <c r="BX3">
-        <v>0.01466901762445451</v>
+        <v>0.01108697551389463</v>
       </c>
       <c r="BY3">
-        <v>0.01475686670593022</v>
+        <v>0.01111141652682251</v>
       </c>
       <c r="BZ3">
-        <v>0.01482454674706713</v>
+        <v>0.01111546644886577</v>
       </c>
       <c r="CA3">
-        <v>0.01487124506985158</v>
+        <v>0.01111546644886577</v>
       </c>
       <c r="CB3">
-        <v>0.0149767509176239</v>
+        <v>0.01115775861981774</v>
       </c>
       <c r="CC3">
-        <v>0.01502445889642531</v>
+        <v>0.01115775861981774</v>
       </c>
       <c r="CD3">
-        <v>0.01536428838213387</v>
+        <v>0.01143695420894464</v>
       </c>
       <c r="CE3">
-        <v>0.01565125794695447</v>
+        <v>0.01166270791720495</v>
       </c>
       <c r="CF3">
-        <v>0.01590071407114491</v>
+        <v>0.01185053518154753</v>
       </c>
       <c r="CG3">
-        <v>0.01598410157254568</v>
+        <v>0.01187046549474607</v>
       </c>
       <c r="CH3">
-        <v>0.01598671074148951</v>
+        <v>0.01187046549474607</v>
       </c>
       <c r="CI3">
-        <v>0.01602783403618031</v>
+        <v>0.01187046549474607</v>
       </c>
       <c r="CJ3">
-        <v>0.01602921964150358</v>
+        <v>0.01187046549474607</v>
       </c>
       <c r="CK3">
-        <v>0.01635448674696752</v>
+        <v>0.0121349383794668</v>
       </c>
       <c r="CL3">
-        <v>0.0172370870217937</v>
+        <v>0.01296288037915624</v>
       </c>
       <c r="CM3">
-        <v>0.01836955514081723</v>
+        <v>0.01404344113683227</v>
       </c>
       <c r="CN3">
-        <v>0.02049898647658805</v>
+        <v>0.01613194115288722</v>
       </c>
       <c r="CO3">
-        <v>0.1556644387471374</v>
+        <v>0.152721118853095</v>
       </c>
       <c r="CP3">
-        <v>0.1720758240228207</v>
+        <v>0.169248809624215</v>
       </c>
       <c r="CQ3">
-        <v>0.2158041147573815</v>
+        <v>0.2133941506425129</v>
       </c>
       <c r="CR3">
-        <v>0.2256980519235828</v>
+        <v>0.2233326396219888</v>
       </c>
       <c r="CS3">
-        <v>0.2299491899949947</v>
+        <v>0.2275662052509927</v>
       </c>
       <c r="CT3">
-        <v>0.2302063204493141</v>
+        <v>0.2277617913358101</v>
       </c>
       <c r="CU3">
-        <v>0.2326799777908673</v>
+        <v>0.2301983071052597</v>
       </c>
       <c r="CV3">
-        <v>0.2339235889117578</v>
+        <v>0.2313912344909055</v>
       </c>
       <c r="CW3">
-        <v>0.2347394107254622</v>
+        <v>0.2321516628336736</v>
       </c>
       <c r="CX3">
-        <v>0.2380223798806105</v>
+        <v>0.2354064005149142</v>
       </c>
       <c r="CY3">
-        <v>0.2504888490900259</v>
+        <v>0.2479457437648747</v>
       </c>
       <c r="CZ3">
-        <v>0.2993325239105165</v>
+        <v>0.2972627865624192</v>
       </c>
       <c r="DA3">
-        <v>0.3048008073023743</v>
+        <v>0.3027268976428715</v>
       </c>
       <c r="DB3">
-        <v>0.3448507819751456</v>
+        <v>0.3431534262705783</v>
       </c>
       <c r="DC3">
-        <v>0.352723327107391</v>
+        <v>0.3510482687509928</v>
       </c>
       <c r="DD3">
-        <v>0.3709089674128787</v>
+        <v>0.3693697481683487</v>
       </c>
       <c r="DE3">
-        <v>0.3743898364713514</v>
+        <v>0.3728245645269561</v>
       </c>
       <c r="DF3">
-        <v>0.3786776805433799</v>
+        <v>0.3770952402703735</v>
       </c>
       <c r="DG3">
-        <v>0.379983056565308</v>
+        <v>0.3783506125561921</v>
       </c>
       <c r="DH3">
-        <v>0.379988117420393</v>
+        <v>0.3783506125561921</v>
       </c>
       <c r="DI3">
-        <v>0.3848627320022782</v>
+        <v>0.3832145188447376</v>
       </c>
       <c r="DJ3">
-        <v>0.3872346395421222</v>
+        <v>0.3855481646005776</v>
       </c>
       <c r="DK3">
-        <v>0.396251615693592</v>
+        <v>0.394600037684936</v>
       </c>
       <c r="DL3">
-        <v>0.3962516157002696</v>
+        <v>0.394600037684936</v>
       </c>
       <c r="DM3">
-        <v>0.3992358754504001</v>
+        <v>0.3975527773274258</v>
       </c>
       <c r="DN3">
-        <v>0.4079953815975449</v>
+        <v>0.4063443457978779</v>
       </c>
       <c r="DO3">
-        <v>0.4203478598050455</v>
+        <v>0.4187684430648354</v>
       </c>
       <c r="DP3">
-        <v>0.4229179483482186</v>
+        <v>0.4213024516928104</v>
       </c>
       <c r="DQ3">
-        <v>0.4237753633626217</v>
+        <v>0.4221049311555812</v>
       </c>
       <c r="DR3">
-        <v>0.4249886221830024</v>
+        <v>0.4232671720778229</v>
       </c>
       <c r="DS3">
-        <v>0.4269335157156733</v>
+        <v>0.4251691026264443</v>
       </c>
       <c r="DT3">
-        <v>0.4307184297792534</v>
+        <v>0.4289313113660481</v>
       </c>
       <c r="DU3">
-        <v>0.4716207354663425</v>
+        <v>0.4702195547250844</v>
       </c>
       <c r="DV3">
-        <v>0.4879359407404101</v>
+        <v>0.4866500066032634</v>
       </c>
       <c r="DW3">
-        <v>0.4891289349604504</v>
+        <v>0.4877917598225534</v>
       </c>
       <c r="DX3">
-        <v>0.4961430230782751</v>
+        <v>0.4948186941274905</v>
       </c>
       <c r="DY3">
-        <v>0.4974269410998428</v>
+        <v>0.4960523721716296</v>
       </c>
       <c r="DZ3">
-        <v>0.4977732047456594</v>
+        <v>0.4963380727575896</v>
       </c>
       <c r="EA3">
-        <v>0.5056836768785419</v>
+        <v>0.5042712597950073</v>
       </c>
       <c r="EB3">
-        <v>0.5057109441559999</v>
+        <v>0.5042712597950073</v>
       </c>
       <c r="EC3">
-        <v>0.5085924274044039</v>
+        <v>0.5071200914204421</v>
       </c>
       <c r="ED3">
-        <v>0.5131333614806839</v>
+        <v>0.5116466435561909</v>
       </c>
       <c r="EE3">
-        <v>0.5152015840154265</v>
+        <v>0.5136732608944518</v>
       </c>
       <c r="EF3">
-        <v>0.5164503195364031</v>
+        <v>0.5148713690971385</v>
       </c>
       <c r="EG3">
-        <v>0.5164503244357892</v>
+        <v>0.5148713690971385</v>
       </c>
       <c r="EH3">
-        <v>0.5206046500055748</v>
+        <v>0.5190070563696978</v>
       </c>
       <c r="EI3">
-        <v>0.5541378705688758</v>
+        <v>0.5528450848463481</v>
       </c>
       <c r="EJ3">
-        <v>0.5867070211159821</v>
+        <v>0.5857084294020418</v>
       </c>
       <c r="EK3">
-        <v>0.5917645862009405</v>
+        <v>0.5907573003826543</v>
       </c>
       <c r="EL3">
-        <v>0.5923024617099759</v>
+        <v>0.5912367223778549</v>
       </c>
       <c r="EM3">
-        <v>0.5987922688189936</v>
+        <v>0.5977336036153144</v>
       </c>
       <c r="EN3">
-        <v>0.623456637233313</v>
+        <v>0.6226051385367839</v>
       </c>
       <c r="EO3">
-        <v>0.7091253286724011</v>
+        <v>0.7091526220535362</v>
       </c>
       <c r="EP3">
-        <v>0.7492742953468353</v>
+        <v>0.7496792325328756</v>
       </c>
       <c r="EQ3">
-        <v>0.7543453887320211</v>
+        <v>0.7547417807531988</v>
       </c>
       <c r="ER3">
-        <v>0.7550243628934267</v>
+        <v>0.7553638548228583</v>
       </c>
       <c r="ES3">
-        <v>0.7560283651102921</v>
+        <v>0.7563145353362355</v>
       </c>
       <c r="ET3">
-        <v>0.7565291417187043</v>
+        <v>0.7567564499913931</v>
       </c>
       <c r="EU3">
-        <v>0.7565623319962619</v>
+        <v>0.7567564499913931</v>
       </c>
       <c r="EV3">
-        <v>0.762162673090338</v>
+        <v>0.7623540726600376</v>
       </c>
       <c r="EW3">
-        <v>0.7719308162544262</v>
+        <v>0.7721653827114764</v>
       </c>
       <c r="EX3">
-        <v>0.7767718213357468</v>
+        <v>0.7769953094765004</v>
       </c>
       <c r="EY3">
-        <v>0.7939653346245685</v>
+        <v>0.7943137390795827</v>
       </c>
       <c r="EZ3">
-        <v>0.8219175610941183</v>
+        <v>0.8225093296474143</v>
       </c>
       <c r="FA3">
-        <v>0.8280003967962996</v>
+        <v>0.8285947589364996</v>
       </c>
       <c r="FB3">
-        <v>0.8286248861067899</v>
+        <v>0.8291617483056387</v>
       </c>
       <c r="FC3">
-        <v>0.828707344623175</v>
+        <v>0.8291807394061843</v>
       </c>
       <c r="FD3">
-        <v>0.8383106497844941</v>
+        <v>0.83882539667498</v>
       </c>
       <c r="FE3">
-        <v>0.8457448669093763</v>
+        <v>0.8462770853867833</v>
       </c>
       <c r="FF3">
-        <v>0.8471744029333901</v>
+        <v>0.8476579846111291</v>
       </c>
       <c r="FG3">
-        <v>0.8484382709546209</v>
+        <v>0.8488713919149535</v>
       </c>
       <c r="FH3">
-        <v>0.8485126803758708</v>
+        <v>0.8488822453040521</v>
       </c>
       <c r="FI3">
-        <v>0.8521443464368766</v>
+        <v>0.8524895188610252</v>
       </c>
       <c r="FJ3">
-        <v>0.8526741953457772</v>
+        <v>0.8529608258874373</v>
       </c>
       <c r="FK3">
-        <v>0.8526755027358991</v>
+        <v>0.8529608258874373</v>
       </c>
       <c r="FL3">
-        <v>0.8526820779675095</v>
+        <v>0.8529608258874373</v>
       </c>
       <c r="FM3">
-        <v>0.8540336937902143</v>
+        <v>0.8542629470499642</v>
       </c>
       <c r="FN3">
-        <v>0.8540465206534298</v>
+        <v>0.8542629470499642</v>
       </c>
       <c r="FO3">
-        <v>0.8546942450643105</v>
+        <v>0.854853427325751</v>
       </c>
       <c r="FP3">
-        <v>0.8676099222812719</v>
+        <v>0.8678469241275958</v>
       </c>
       <c r="FQ3">
-        <v>0.8819118365215197</v>
+        <v>0.8822419196946081</v>
       </c>
       <c r="FR3">
-        <v>0.8822306518268753</v>
+        <v>0.8824998697482883</v>
       </c>
       <c r="FS3">
-        <v>0.8859132214887362</v>
+        <v>0.8861586073280386</v>
       </c>
       <c r="FT3">
-        <v>0.8864027279969591</v>
+        <v>0.8865891278051204</v>
       </c>
       <c r="FU3">
-        <v>0.8897634013534127</v>
+        <v>0.8899224251701296</v>
       </c>
       <c r="FV3">
-        <v>0.9014812615502528</v>
+        <v>0.9017049176152905</v>
       </c>
       <c r="FW3">
-        <v>0.9259116509606417</v>
+        <v>0.9263398975468303</v>
       </c>
       <c r="FX3">
-        <v>0.9409525682133034</v>
+        <v>0.9414820321614622</v>
       </c>
       <c r="FY3">
-        <v>0.944631784275108</v>
+        <v>0.9451373792197801</v>
       </c>
       <c r="FZ3">
-        <v>0.9447611216372807</v>
+        <v>0.945203765277595</v>
       </c>
       <c r="GA3">
-        <v>0.9447821108486333</v>
+        <v>0.945203765277595</v>
       </c>
       <c r="GB3">
-        <v>0.9448811501502969</v>
+        <v>0.9452395197091604</v>
       </c>
       <c r="GC3">
-        <v>0.9449250568740345</v>
+        <v>0.9452395197091604</v>
       </c>
       <c r="GD3">
-        <v>0.9535108790182617</v>
+        <v>0.9538554920070033</v>
       </c>
       <c r="GE3">
-        <v>0.9652177002149164</v>
+        <v>0.9656268239183818</v>
       </c>
       <c r="GF3">
-        <v>0.9721942003321097</v>
+        <v>0.9726157563985334</v>
       </c>
       <c r="GG3">
-        <v>0.9796342310570896</v>
+        <v>0.9800733227151194</v>
       </c>
       <c r="GH3">
-        <v>0.9812968570850189</v>
+        <v>0.9816898781419564</v>
       </c>
       <c r="GI3">
-        <v>0.9816354450307067</v>
+        <v>0.9819678185223586</v>
       </c>
       <c r="GJ3">
-        <v>0.9837893555668887</v>
+        <v>0.9840810672419702</v>
       </c>
       <c r="GK3">
-        <v>0.9882819649423569</v>
+        <v>0.9885587626473208</v>
       </c>
       <c r="GL3">
-        <v>0.9917476577005746</v>
+        <v>0.9919982356225746</v>
       </c>
       <c r="GM3">
-        <v>0.9917625753893252</v>
+        <v>0.9919982356225746</v>
       </c>
       <c r="GN3">
-        <v>0.9917670004216995</v>
+        <v>0.9919982356225746</v>
       </c>
       <c r="GO3">
-        <v>0.9919479346747389</v>
+        <v>0.9921167866259373</v>
       </c>
       <c r="GP3">
-        <v>0.9920411279263044</v>
+        <v>0.992146630645462</v>
       </c>
       <c r="GQ3">
-        <v>0.9923772395719505</v>
+        <v>0.9924220674630592</v>
       </c>
       <c r="GR3">
-        <v>0.9961400671351596</v>
+        <v>0.9961619465415178</v>
       </c>
       <c r="GS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:257">
@@ -8191,601 +8191,601 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>0.0006570872815972508</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.001857964839343658</v>
+        <v>0.0005447570994358078</v>
       </c>
       <c r="D4">
-        <v>0.003415827614256356</v>
+        <v>0.00148899527072433</v>
       </c>
       <c r="E4">
-        <v>0.004385754430897071</v>
+        <v>0.001775309036471327</v>
       </c>
       <c r="F4">
-        <v>0.004553209838949472</v>
+        <v>0.001775309036471327</v>
       </c>
       <c r="G4">
-        <v>0.004628037982547721</v>
+        <v>0.001775309036471327</v>
       </c>
       <c r="H4">
-        <v>0.004827012732115788</v>
+        <v>0.001775309036471327</v>
       </c>
       <c r="I4">
-        <v>0.005453537502243384</v>
+        <v>0.001775309036471327</v>
       </c>
       <c r="J4">
-        <v>0.006877644470724188</v>
+        <v>0.002569868984823667</v>
       </c>
       <c r="K4">
-        <v>0.008308948239551063</v>
+        <v>0.003372482447377464</v>
       </c>
       <c r="L4">
-        <v>0.009061074375718433</v>
+        <v>0.003415068335605058</v>
       </c>
       <c r="M4">
-        <v>0.009222825833496548</v>
+        <v>0.003415068335605058</v>
       </c>
       <c r="N4">
-        <v>0.009302032937305367</v>
+        <v>0.003415068335605058</v>
       </c>
       <c r="O4">
-        <v>0.01001610337164276</v>
+        <v>0.003415068335605058</v>
       </c>
       <c r="P4">
-        <v>0.01088620411348315</v>
+        <v>0.003589672637087306</v>
       </c>
       <c r="Q4">
-        <v>0.01170881435303988</v>
+        <v>0.003711133122403446</v>
       </c>
       <c r="R4">
-        <v>0.01228617594080337</v>
+        <v>0.003711133122403446</v>
       </c>
       <c r="S4">
-        <v>0.01252468491227252</v>
+        <v>0.003711133122403446</v>
       </c>
       <c r="T4">
-        <v>0.0127503450331238</v>
+        <v>0.003711133122403446</v>
       </c>
       <c r="U4">
-        <v>0.0127934940951987</v>
+        <v>0.003711133122403446</v>
       </c>
       <c r="V4">
-        <v>0.01342274612545744</v>
+        <v>0.003711133122403446</v>
       </c>
       <c r="W4">
-        <v>0.01443694387422701</v>
+        <v>0.004046987873514308</v>
       </c>
       <c r="X4">
-        <v>0.01543990812245639</v>
+        <v>0.004370271877656787</v>
       </c>
       <c r="Y4">
-        <v>0.01593944564647757</v>
+        <v>0.004370271877656787</v>
       </c>
       <c r="Z4">
-        <v>0.01600827924978756</v>
+        <v>0.004370271877656787</v>
       </c>
       <c r="AA4">
-        <v>0.01615516260685072</v>
+        <v>0.004370271877656787</v>
       </c>
       <c r="AB4">
-        <v>0.0161577761825764</v>
+        <v>0.004370271877656787</v>
       </c>
       <c r="AC4">
-        <v>0.01640476355445324</v>
+        <v>0.004370271877656787</v>
       </c>
       <c r="AD4">
-        <v>0.01791467322706002</v>
+        <v>0.00526084856441693</v>
       </c>
       <c r="AE4">
-        <v>0.01996486212564713</v>
+        <v>0.006756019822368616</v>
       </c>
       <c r="AF4">
-        <v>0.02125503128768728</v>
+        <v>0.007400697882324479</v>
       </c>
       <c r="AG4">
-        <v>0.02127283794854355</v>
+        <v>0.007400697882324479</v>
       </c>
       <c r="AH4">
-        <v>0.02127590991829127</v>
+        <v>0.007400697882324479</v>
       </c>
       <c r="AI4">
-        <v>0.02172624668994655</v>
+        <v>0.007400697882324479</v>
       </c>
       <c r="AJ4">
-        <v>0.02396625339766139</v>
+        <v>0.009108283039229746</v>
       </c>
       <c r="AK4">
-        <v>0.02630520151013401</v>
+        <v>0.01092658767840657</v>
       </c>
       <c r="AL4">
-        <v>0.02746741556602121</v>
+        <v>0.01142807873650067</v>
       </c>
       <c r="AM4">
-        <v>0.02773654117896261</v>
+        <v>0.01142807873650067</v>
       </c>
       <c r="AN4">
-        <v>0.02773667441576902</v>
+        <v>0.01142807873650067</v>
       </c>
       <c r="AO4">
-        <v>0.02807208961189808</v>
+        <v>0.01142807873650067</v>
       </c>
       <c r="AP4">
-        <v>0.02836461996596494</v>
+        <v>0.01142807873650067</v>
       </c>
       <c r="AQ4">
-        <v>0.02967342532890125</v>
+        <v>0.01209361146816634</v>
       </c>
       <c r="AR4">
-        <v>0.03147651671560622</v>
+        <v>0.01331227049493274</v>
       </c>
       <c r="AS4">
-        <v>0.03351563241366085</v>
+        <v>0.01479505038818685</v>
       </c>
       <c r="AT4">
-        <v>0.03901562797813825</v>
+        <v>0.0201506965294235</v>
       </c>
       <c r="AU4">
-        <v>0.07765661683626129</v>
+        <v>0.06259247085350338</v>
       </c>
       <c r="AV4">
-        <v>0.08335750151039882</v>
+        <v>0.06817292013221332</v>
       </c>
       <c r="AW4">
-        <v>0.1049670695495347</v>
+        <v>0.09155583734744453</v>
       </c>
       <c r="AX4">
-        <v>0.1062660497119985</v>
+        <v>0.09221037527756895</v>
       </c>
       <c r="AY4">
-        <v>0.1188337323163387</v>
+        <v>0.1054750525451245</v>
       </c>
       <c r="AZ4">
-        <v>0.1235169915415418</v>
+        <v>0.1099167372881155</v>
       </c>
       <c r="BA4">
-        <v>0.1235550021863696</v>
+        <v>0.1099167372881155</v>
       </c>
       <c r="BB4">
-        <v>0.1235553417170959</v>
+        <v>0.1099167372881155</v>
       </c>
       <c r="BC4">
-        <v>0.1264708071572914</v>
+        <v>0.1123801884178068</v>
       </c>
       <c r="BD4">
-        <v>0.1266370886152874</v>
+        <v>0.1123801884178068</v>
       </c>
       <c r="BE4">
-        <v>0.132603973402216</v>
+        <v>0.1182583027119318</v>
       </c>
       <c r="BF4">
-        <v>0.1876595680496656</v>
+        <v>0.1790686928762172</v>
       </c>
       <c r="BG4">
-        <v>0.1913311242262191</v>
+        <v>0.1823782404918521</v>
       </c>
       <c r="BH4">
-        <v>0.1992336096062247</v>
+        <v>0.1904223710869852</v>
       </c>
       <c r="BI4">
-        <v>0.2100490331263042</v>
+        <v>0.2017261987073185</v>
       </c>
       <c r="BJ4">
-        <v>0.2254533378670485</v>
+        <v>0.2181651722678324</v>
       </c>
       <c r="BK4">
-        <v>0.2345482363043935</v>
+        <v>0.2275436618877405</v>
       </c>
       <c r="BL4">
-        <v>0.2553770173059837</v>
+        <v>0.2500528464450109</v>
       </c>
       <c r="BM4">
-        <v>0.2565100486604676</v>
+        <v>0.2505216808655874</v>
       </c>
       <c r="BN4">
-        <v>0.2581979533416336</v>
+        <v>0.251611441253477</v>
       </c>
       <c r="BO4">
-        <v>0.2583466029087817</v>
+        <v>0.251611441253477</v>
       </c>
       <c r="BP4">
-        <v>0.2583467676071896</v>
+        <v>0.251611441253477</v>
       </c>
       <c r="BQ4">
-        <v>0.2587609077671043</v>
+        <v>0.251611441253477</v>
       </c>
       <c r="BR4">
-        <v>0.2587885097324316</v>
+        <v>0.251611441253477</v>
       </c>
       <c r="BS4">
-        <v>0.2641342232894901</v>
+        <v>0.2567944395125953</v>
       </c>
       <c r="BT4">
-        <v>0.2679059366708599</v>
+        <v>0.2602160671405382</v>
       </c>
       <c r="BU4">
-        <v>0.2700357331732751</v>
+        <v>0.2618003225660566</v>
       </c>
       <c r="BV4">
-        <v>0.2716173125493282</v>
+        <v>0.2627711005849038</v>
       </c>
       <c r="BW4">
-        <v>0.273860333457188</v>
+        <v>0.2644820587551631</v>
       </c>
       <c r="BX4">
-        <v>0.2789622057025209</v>
+        <v>0.2693921886043699</v>
       </c>
       <c r="BY4">
-        <v>0.2809817097996324</v>
+        <v>0.2708530223133319</v>
       </c>
       <c r="BZ4">
-        <v>0.2837363765320957</v>
+        <v>0.2731365331064812</v>
       </c>
       <c r="CA4">
-        <v>0.310295374809234</v>
+        <v>0.3020580653720282</v>
       </c>
       <c r="CB4">
-        <v>0.3252837655299783</v>
+        <v>0.31803161411796</v>
       </c>
       <c r="CC4">
-        <v>0.325443220447646</v>
+        <v>0.31803161411796</v>
       </c>
       <c r="CD4">
-        <v>0.3267363232098273</v>
+        <v>0.318679574996566</v>
       </c>
       <c r="CE4">
-        <v>0.3267458750012866</v>
+        <v>0.318679574996566</v>
       </c>
       <c r="CF4">
-        <v>0.327325854829176</v>
+        <v>0.318679574996566</v>
       </c>
       <c r="CG4">
-        <v>0.3477676818121588</v>
+        <v>0.3407557421663434</v>
       </c>
       <c r="CH4">
-        <v>0.3561563502155434</v>
+        <v>0.34934393146743</v>
       </c>
       <c r="CI4">
-        <v>0.3636710438769012</v>
+        <v>0.3569541072544321</v>
       </c>
       <c r="CJ4">
-        <v>0.3723175042926822</v>
+        <v>0.3658307763705784</v>
       </c>
       <c r="CK4">
-        <v>0.3739204294697618</v>
+        <v>0.3668254412146037</v>
       </c>
       <c r="CL4">
-        <v>0.3739534175973481</v>
+        <v>0.3668254412146037</v>
       </c>
       <c r="CM4">
-        <v>0.3754136897675679</v>
+        <v>0.3676604715041908</v>
       </c>
       <c r="CN4">
-        <v>0.3847410002160888</v>
+        <v>0.3772990396788161</v>
       </c>
       <c r="CO4">
-        <v>0.3983280318694462</v>
+        <v>0.3917044102611421</v>
       </c>
       <c r="CP4">
-        <v>0.4196969238970087</v>
+        <v>0.4148180011669094</v>
       </c>
       <c r="CQ4">
-        <v>0.4422103609796088</v>
+        <v>0.4392123848433117</v>
       </c>
       <c r="CR4">
-        <v>0.4440211555666841</v>
+        <v>0.4404396640666372</v>
       </c>
       <c r="CS4">
-        <v>0.444622293895591</v>
+        <v>0.4404396640666372</v>
       </c>
       <c r="CT4">
-        <v>0.4635900498076904</v>
+        <v>0.4608662853642971</v>
       </c>
       <c r="CU4">
-        <v>0.5389808934329978</v>
+        <v>0.5444326515954636</v>
       </c>
       <c r="CV4">
-        <v>0.5970016112230307</v>
+        <v>0.6085611359390459</v>
       </c>
       <c r="CW4">
-        <v>0.6169869641840632</v>
+        <v>0.6301264899916608</v>
       </c>
       <c r="CX4">
-        <v>0.6230199014741681</v>
+        <v>0.6360785197408201</v>
       </c>
       <c r="CY4">
-        <v>0.6250700903727552</v>
+        <v>0.6375736909987718</v>
       </c>
       <c r="CZ4">
-        <v>0.6251832281381956</v>
+        <v>0.6375736909987718</v>
       </c>
       <c r="DA4">
-        <v>0.6257024157631617</v>
+        <v>0.6375736909987718</v>
       </c>
       <c r="DB4">
-        <v>0.6320427874680501</v>
+        <v>0.6438697524434648</v>
       </c>
       <c r="DC4">
-        <v>0.6388463077952099</v>
+        <v>0.6506840961563164</v>
       </c>
       <c r="DD4">
-        <v>0.6396709953348665</v>
+        <v>0.6508078812254824</v>
       </c>
       <c r="DE4">
-        <v>0.6455103583156629</v>
+        <v>0.6565432933982068</v>
       </c>
       <c r="DF4">
-        <v>0.6656331142833027</v>
+        <v>0.6782624070400589</v>
       </c>
       <c r="DG4">
-        <v>0.6817236910570478</v>
+        <v>0.695469347099303</v>
       </c>
       <c r="DH4">
-        <v>0.6837123291526751</v>
+        <v>0.6968956404890478</v>
       </c>
       <c r="DI4">
-        <v>0.6838367320586572</v>
+        <v>0.6968956404890478</v>
       </c>
       <c r="DJ4">
-        <v>0.6902517223671338</v>
+        <v>0.7032752032058052</v>
       </c>
       <c r="DK4">
-        <v>0.6981929577490027</v>
+        <v>0.7113626966393256</v>
       </c>
       <c r="DL4">
-        <v>0.7005481722622575</v>
+        <v>0.7131992040468726</v>
       </c>
       <c r="DM4">
-        <v>0.7034773758031136</v>
+        <v>0.7156780286735975</v>
       </c>
       <c r="DN4">
-        <v>0.7037311050453147</v>
+        <v>0.7156780286735975</v>
       </c>
       <c r="DO4">
-        <v>0.7062279097653781</v>
+        <v>0.7176729813188178</v>
       </c>
       <c r="DP4">
-        <v>0.7071848810113958</v>
+        <v>0.7179447972706777</v>
       </c>
       <c r="DQ4">
-        <v>0.7076669380845764</v>
+        <v>0.7179447972706777</v>
       </c>
       <c r="DR4">
-        <v>0.7083764061486925</v>
+        <v>0.7179447972706777</v>
       </c>
       <c r="DS4">
-        <v>0.7085076812550051</v>
+        <v>0.7179447972706777</v>
       </c>
       <c r="DT4">
-        <v>0.7087928129187162</v>
+        <v>0.7179447972706777</v>
       </c>
       <c r="DU4">
-        <v>0.70937870524689</v>
+        <v>0.7179447972706777</v>
       </c>
       <c r="DV4">
-        <v>0.7159141182611574</v>
+        <v>0.7244591179249389</v>
       </c>
       <c r="DW4">
-        <v>0.7255202997230883</v>
+        <v>0.7344097541796657</v>
       </c>
       <c r="DX4">
-        <v>0.7260115646067117</v>
+        <v>0.7344097541796657</v>
       </c>
       <c r="DY4">
-        <v>0.7266623895380078</v>
+        <v>0.7344097541796657</v>
       </c>
       <c r="DZ4">
-        <v>0.7275149223790034</v>
+        <v>0.7345646992809285</v>
       </c>
       <c r="EA4">
-        <v>0.7276414587350881</v>
+        <v>0.7345646992809285</v>
       </c>
       <c r="EB4">
-        <v>0.7376781452177207</v>
+        <v>0.7449970882773318</v>
       </c>
       <c r="EC4">
-        <v>0.7595954302716537</v>
+        <v>0.7687243534290805</v>
       </c>
       <c r="ED4">
-        <v>0.76883883971614</v>
+        <v>0.7782690329455499</v>
       </c>
       <c r="EE4">
-        <v>0.7733938734351772</v>
+        <v>0.7825672280979953</v>
       </c>
       <c r="EF4">
-        <v>0.7736419995471088</v>
+        <v>0.7825672280979953</v>
       </c>
       <c r="EG4">
-        <v>0.7736490976347501</v>
+        <v>0.7825672280979953</v>
       </c>
       <c r="EH4">
-        <v>0.7740473353739001</v>
+        <v>0.7825672280979953</v>
       </c>
       <c r="EI4">
-        <v>0.7740749373392274</v>
+        <v>0.7825672280979953</v>
       </c>
       <c r="EJ4">
-        <v>0.7787768355653268</v>
+        <v>0.7870297706460109</v>
       </c>
       <c r="EK4">
-        <v>0.7858485424053828</v>
+        <v>0.7941442260454995</v>
       </c>
       <c r="EL4">
-        <v>0.7953536518624535</v>
+        <v>0.8039817585892201</v>
       </c>
       <c r="EM4">
-        <v>0.8056243183563374</v>
+        <v>0.814675980796614</v>
       </c>
       <c r="EN4">
-        <v>0.8112603452273561</v>
+        <v>0.820183851538561</v>
       </c>
       <c r="EO4">
-        <v>0.8119132543087525</v>
+        <v>0.820183851538561</v>
       </c>
       <c r="EP4">
-        <v>0.8119141918206576</v>
+        <v>0.820183851538561</v>
       </c>
       <c r="EQ4">
-        <v>0.8150740514726053</v>
+        <v>0.8229207897959276</v>
       </c>
       <c r="ER4">
-        <v>0.8201209940152968</v>
+        <v>0.8277694510592307</v>
       </c>
       <c r="ES4">
-        <v>0.8202503000515148</v>
+        <v>0.8277694510592307</v>
       </c>
       <c r="ET4">
-        <v>0.8207577747159176</v>
+        <v>0.8277694510592307</v>
       </c>
       <c r="EU4">
-        <v>0.8209568800254919</v>
+        <v>0.8277694510592307</v>
       </c>
       <c r="EV4">
-        <v>0.8216209606574255</v>
+        <v>0.8277694510592307</v>
       </c>
       <c r="EW4">
-        <v>0.822065541778804</v>
+        <v>0.8277694510592307</v>
       </c>
       <c r="EX4">
-        <v>0.8247253575067061</v>
+        <v>0.8299468196953766</v>
       </c>
       <c r="EY4">
-        <v>0.8314304855291345</v>
+        <v>0.8366510583913647</v>
       </c>
       <c r="EZ4">
-        <v>0.8406582049728664</v>
+        <v>0.8461781801546909</v>
       </c>
       <c r="FA4">
-        <v>0.8469639582760902</v>
+        <v>0.8524355021907534</v>
       </c>
       <c r="FB4">
-        <v>0.8483493133427075</v>
+        <v>0.8531866971745404</v>
       </c>
       <c r="FC4">
-        <v>0.8483499396406876</v>
+        <v>0.8531866971745404</v>
       </c>
       <c r="FD4">
-        <v>0.8488242616634962</v>
+        <v>0.8531866971745404</v>
       </c>
       <c r="FE4">
-        <v>0.8522066278261435</v>
+        <v>0.8561726293260915</v>
       </c>
       <c r="FF4">
-        <v>0.8527276770511991</v>
+        <v>0.8561726293260915</v>
       </c>
       <c r="FG4">
-        <v>0.8541945487217364</v>
+        <v>0.8570150447266964</v>
       </c>
       <c r="FH4">
-        <v>0.8675395303634544</v>
+        <v>0.8711495514372374</v>
       </c>
       <c r="FI4">
-        <v>0.8910657434947556</v>
+        <v>0.8966772729719786</v>
       </c>
       <c r="FJ4">
-        <v>0.9117064564873023</v>
+        <v>0.9189760017282209</v>
       </c>
       <c r="FK4">
-        <v>0.9275095772472245</v>
+        <v>0.9358612667404589</v>
       </c>
       <c r="FL4">
-        <v>0.9353444816239803</v>
+        <v>0.9438297714264033</v>
       </c>
       <c r="FM4">
-        <v>0.9354365203384062</v>
+        <v>0.9438297714264033</v>
       </c>
       <c r="FN4">
-        <v>0.9358885910301449</v>
+        <v>0.9438297714264033</v>
       </c>
       <c r="FO4">
-        <v>0.9359352028523863</v>
+        <v>0.9438297714264033</v>
       </c>
       <c r="FP4">
-        <v>0.9359368323972647</v>
+        <v>0.9438297714264033</v>
       </c>
       <c r="FQ4">
-        <v>0.9371232893543177</v>
+        <v>0.9443583912833294</v>
       </c>
       <c r="FR4">
-        <v>0.9385835615245375</v>
+        <v>0.9451934215729165</v>
       </c>
       <c r="FS4">
-        <v>0.9419359278857422</v>
+        <v>0.9481457827185565</v>
       </c>
       <c r="FT4">
-        <v>0.9496931365587619</v>
+        <v>0.9560273427314043</v>
       </c>
       <c r="FU4">
-        <v>0.9559643668603255</v>
+        <v>0.9622460321153469</v>
       </c>
       <c r="FV4">
-        <v>0.9564657304844345</v>
+        <v>0.9622460321153469</v>
       </c>
       <c r="FW4">
-        <v>0.9566114093514397</v>
+        <v>0.9622460321153469</v>
       </c>
       <c r="FX4">
-        <v>0.9566121872715171</v>
+        <v>0.9622460321153469</v>
       </c>
       <c r="FY4">
-        <v>0.957044236192293</v>
+        <v>0.9622460321153469</v>
       </c>
       <c r="FZ4">
-        <v>0.9570872673743622</v>
+        <v>0.9622460321153469</v>
       </c>
       <c r="GA4">
-        <v>0.9593717148842141</v>
+        <v>0.9640033483491091</v>
       </c>
       <c r="GB4">
-        <v>0.9593792545892766</v>
+        <v>0.9640033483491091</v>
       </c>
       <c r="GC4">
-        <v>0.9624284456359026</v>
+        <v>0.9666164439066987</v>
       </c>
       <c r="GD4">
-        <v>0.97258543312432</v>
+        <v>0.9771834546533172</v>
       </c>
       <c r="GE4">
-        <v>0.9801544750882913</v>
+        <v>0.9848544484157912</v>
       </c>
       <c r="GF4">
-        <v>0.9819101187727147</v>
+        <v>0.9860200115213459</v>
       </c>
       <c r="GG4">
-        <v>0.9831289784313259</v>
+        <v>0.9865848913277795</v>
       </c>
       <c r="GH4">
-        <v>0.9880593449684116</v>
+        <v>0.9913030992685574</v>
       </c>
       <c r="GI4">
-        <v>0.9922462934697488</v>
+        <v>0.9951893919941539</v>
       </c>
       <c r="GJ4">
-        <v>0.9942377718655127</v>
+        <v>0.9966188637960245</v>
       </c>
       <c r="GK4">
-        <v>0.9978295393382294</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GL4">
-        <v>0.998330500962319</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GM4">
-        <v>0.9983362885129973</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GN4">
-        <v>0.998405198876311</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GO4">
-        <v>0.9984649490891842</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GP4">
-        <v>0.9984670614562857</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GQ4">
-        <v>0.9984867115672307</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GR4">
-        <v>0.9991421676987495</v>
+        <v>0.9998391245857694</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.0003841399619026752</v>
+        <v>0.000333823319640274</v>
       </c>
       <c r="C5">
-        <v>0.0005321487787827825</v>
+        <v>0.0004291796622188784</v>
       </c>
       <c r="D5">
-        <v>0.0005857352876532271</v>
+        <v>0.0004291796622188784</v>
       </c>
       <c r="E5">
-        <v>0.0006751654657681194</v>
+        <v>0.0004653779004932275</v>
       </c>
       <c r="F5">
-        <v>0.0006862055005354054</v>
+        <v>0.0004653779004932275</v>
       </c>
       <c r="G5">
-        <v>0.0007000848582428411</v>
+        <v>0.0004653779004932275</v>
       </c>
       <c r="H5">
-        <v>0.001222419247232502</v>
+        <v>0.0009387626798090271</v>
       </c>
       <c r="I5">
-        <v>0.002599209518211002</v>
+        <v>0.002275055701029836</v>
       </c>
       <c r="J5">
-        <v>0.003603964397031673</v>
+        <v>0.00323563312014593</v>
       </c>
       <c r="K5">
-        <v>0.004138959185754464</v>
+        <v>0.003721803537088919</v>
       </c>
       <c r="L5">
-        <v>0.004247791263460382</v>
+        <v>0.003777595600414527</v>
       </c>
       <c r="M5">
-        <v>0.004273869842910669</v>
+        <v>0.003777595600414527</v>
       </c>
       <c r="N5">
-        <v>0.004620550235602958</v>
+        <v>0.00407358879717635</v>
       </c>
       <c r="O5">
-        <v>0.005622110114490977</v>
+        <v>0.005030939611112601</v>
       </c>
       <c r="P5">
-        <v>0.006887973987807706</v>
+        <v>0.006255208940057599</v>
       </c>
       <c r="Q5">
-        <v>0.007314673738813259</v>
+        <v>0.006632013054335427</v>
       </c>
       <c r="R5">
-        <v>0.007397763492061802</v>
+        <v>0.006661808147649714</v>
       </c>
       <c r="S5">
-        <v>0.007412851313743764</v>
+        <v>0.006661808147649714</v>
       </c>
       <c r="T5">
-        <v>0.00742521539048314</v>
+        <v>0.006661808147649714</v>
       </c>
       <c r="U5">
-        <v>0.007516441608560174</v>
+        <v>0.006699820192486568</v>
       </c>
       <c r="V5">
-        <v>0.00801047713814635</v>
+        <v>0.007144626177354911</v>
       </c>
       <c r="W5">
-        <v>0.009022225816819598</v>
+        <v>0.008112266579665614</v>
       </c>
       <c r="X5">
-        <v>0.009569002105294046</v>
+        <v>0.008610335040091016</v>
       </c>
       <c r="Y5">
-        <v>0.009715029352215923</v>
+        <v>0.008703690210830428</v>
       </c>
       <c r="Z5">
-        <v>0.009832768029734098</v>
+        <v>0.008768476978911836</v>
       </c>
       <c r="AA5">
-        <v>0.009834552219596488</v>
+        <v>0.008768476978911836</v>
       </c>
       <c r="AB5">
-        <v>0.009932944507522468</v>
+        <v>0.008813725981051072</v>
       </c>
       <c r="AC5">
-        <v>0.01029832499982058</v>
+        <v>0.009128604260605872</v>
       </c>
       <c r="AD5">
-        <v>0.01110982128271496</v>
+        <v>0.009894011351143248</v>
       </c>
       <c r="AE5">
-        <v>0.01139771543664641</v>
+        <v>0.01013063679000603</v>
       </c>
       <c r="AF5">
-        <v>0.01145227371249638</v>
+        <v>0.01013161816979814</v>
       </c>
       <c r="AG5">
-        <v>0.01145431421865336</v>
+        <v>0.01013161816979814</v>
       </c>
       <c r="AH5">
-        <v>0.01150767201752863</v>
+        <v>0.01013161816979814</v>
       </c>
       <c r="AI5">
-        <v>0.01195117707817994</v>
+        <v>0.01052539383346403</v>
       </c>
       <c r="AJ5">
-        <v>0.01253619671584825</v>
+        <v>0.01106208394997848</v>
       </c>
       <c r="AK5">
-        <v>0.01285814627906185</v>
+        <v>0.01133310167751345</v>
       </c>
       <c r="AL5">
-        <v>0.01286836638084641</v>
+        <v>0.01133310167751345</v>
       </c>
       <c r="AM5">
-        <v>0.01293329991347767</v>
+        <v>0.01134456094712666</v>
       </c>
       <c r="AN5">
-        <v>0.01312210700949779</v>
+        <v>0.01148111914935366</v>
       </c>
       <c r="AO5">
-        <v>0.01333397402503182</v>
+        <v>0.01164096538204037</v>
       </c>
       <c r="AP5">
-        <v>0.01369641335739193</v>
+        <v>0.01195287340741966</v>
       </c>
       <c r="AQ5">
-        <v>0.0142605373155007</v>
+        <v>0.01246846114229896</v>
       </c>
       <c r="AR5">
-        <v>0.01496010887075436</v>
+        <v>0.01312083633500522</v>
       </c>
       <c r="AS5">
-        <v>0.01543447781075509</v>
+        <v>0.01354578118648895</v>
       </c>
       <c r="AT5">
-        <v>0.0156380913364631</v>
+        <v>0.01369729228503301</v>
       </c>
       <c r="AU5">
-        <v>0.01569379437128893</v>
+        <v>0.01369942974786708</v>
       </c>
       <c r="AV5">
-        <v>0.01583717214826666</v>
+        <v>0.01379010923985036</v>
       </c>
       <c r="AW5">
-        <v>0.01634203668762457</v>
+        <v>0.01424585135609854</v>
       </c>
       <c r="AX5">
-        <v>0.01705600097257485</v>
+        <v>0.01491276165277039</v>
       </c>
       <c r="AY5">
-        <v>0.01789061109498202</v>
+        <v>0.01570151122714816</v>
       </c>
       <c r="AZ5">
-        <v>0.01828107088675147</v>
+        <v>0.01604171689302121</v>
       </c>
       <c r="BA5">
-        <v>0.01830002147435201</v>
+        <v>0.01604171689302121</v>
       </c>
       <c r="BB5">
-        <v>0.01830523279474216</v>
+        <v>0.01604171689302121</v>
       </c>
       <c r="BC5">
-        <v>0.01843258104205778</v>
+        <v>0.01611620828969042</v>
       </c>
       <c r="BD5">
-        <v>0.01901835732971014</v>
+        <v>0.01665366254104347</v>
       </c>
       <c r="BE5">
-        <v>0.01956896181810389</v>
+        <v>0.01715559707031065</v>
       </c>
       <c r="BF5">
-        <v>0.01973461681461203</v>
+        <v>0.01726877415022648</v>
       </c>
       <c r="BG5">
-        <v>0.01977481427376471</v>
+        <v>0.01726877415022648</v>
       </c>
       <c r="BH5">
-        <v>0.01990758283096607</v>
+        <v>0.01734873947500911</v>
       </c>
       <c r="BI5">
-        <v>0.02041691122022988</v>
+        <v>0.01780898959799657</v>
       </c>
       <c r="BJ5">
-        <v>0.0211397306049935</v>
+        <v>0.01848484258998236</v>
       </c>
       <c r="BK5">
-        <v>0.02195850882773439</v>
+        <v>0.01925760365401686</v>
       </c>
       <c r="BL5">
-        <v>0.02249554341641418</v>
+        <v>0.01974583404881457</v>
       </c>
       <c r="BM5">
-        <v>0.02264050797335846</v>
+        <v>0.01983811601734473</v>
       </c>
       <c r="BN5">
-        <v>0.02269290480925398</v>
+        <v>0.01983811601734473</v>
       </c>
       <c r="BO5">
-        <v>0.02269586727579154</v>
+        <v>0.01983811601734473</v>
       </c>
       <c r="BP5">
-        <v>0.02292640226093207</v>
+        <v>0.02001681488499204</v>
       </c>
       <c r="BQ5">
-        <v>0.02347391008939109</v>
+        <v>0.02051562212186603</v>
       </c>
       <c r="BR5">
-        <v>0.02398593617859804</v>
+        <v>0.02097859663070441</v>
       </c>
       <c r="BS5">
-        <v>0.02434045227112516</v>
+        <v>0.02128250303879884</v>
       </c>
       <c r="BT5">
-        <v>0.02452744785718346</v>
+        <v>0.02141723181143294</v>
       </c>
       <c r="BU5">
-        <v>0.02457943416908764</v>
+        <v>0.02141723181143294</v>
       </c>
       <c r="BV5">
-        <v>0.02458096340045541</v>
+        <v>0.02141723181143294</v>
       </c>
       <c r="BW5">
-        <v>0.02466885473860274</v>
+        <v>0.02145187598738649</v>
       </c>
       <c r="BX5">
-        <v>0.02516878245806471</v>
+        <v>0.02190263244824063</v>
       </c>
       <c r="BY5">
-        <v>0.02590887654246419</v>
+        <v>0.02259593102285559</v>
       </c>
       <c r="BZ5">
-        <v>0.02647539903052241</v>
+        <v>0.0231139410141737</v>
       </c>
       <c r="CA5">
-        <v>0.02653902229918129</v>
+        <v>0.02312407705855705</v>
       </c>
       <c r="CB5">
-        <v>0.02654438555246823</v>
+        <v>0.02312407705855705</v>
       </c>
       <c r="CC5">
-        <v>0.02662868428669129</v>
+        <v>0.02315509309220215</v>
       </c>
       <c r="CD5">
-        <v>0.02735056827147463</v>
+        <v>0.02383000143114092</v>
       </c>
       <c r="CE5">
-        <v>0.02834308695055323</v>
+        <v>0.02477822160884807</v>
       </c>
       <c r="CF5">
-        <v>0.02911492413428359</v>
+        <v>0.02550357728859112</v>
       </c>
       <c r="CG5">
-        <v>0.02940656755813601</v>
+        <v>0.02574398908551419</v>
       </c>
       <c r="CH5">
-        <v>0.02942007364235132</v>
+        <v>0.02574398908551419</v>
       </c>
       <c r="CI5">
-        <v>0.02944422966184213</v>
+        <v>0.02574398908551419</v>
       </c>
       <c r="CJ5">
-        <v>0.02950185254562749</v>
+        <v>0.02574806538863869</v>
       </c>
       <c r="CK5">
-        <v>0.02995609021605257</v>
+        <v>0.02615267983008837</v>
       </c>
       <c r="CL5">
-        <v>0.03058616230277122</v>
+        <v>0.02673486805882022</v>
       </c>
       <c r="CM5">
-        <v>0.03121955593941985</v>
+        <v>0.027320410694574</v>
       </c>
       <c r="CN5">
-        <v>0.03433495697375</v>
+        <v>0.03041251298434227</v>
       </c>
       <c r="CO5">
-        <v>0.1399631397472029</v>
+        <v>0.1370314633278687</v>
       </c>
       <c r="CP5">
-        <v>0.1430429910822824</v>
+        <v>0.140087664257336</v>
       </c>
       <c r="CQ5">
-        <v>0.1988771869053478</v>
+        <v>0.1964200607336363</v>
       </c>
       <c r="CR5">
-        <v>0.2081061237108102</v>
+        <v>0.2056861744794577</v>
       </c>
       <c r="CS5">
-        <v>0.2155251655544234</v>
+        <v>0.213124489608074</v>
       </c>
       <c r="CT5">
-        <v>0.2169006649254291</v>
+        <v>0.2144594789596151</v>
       </c>
       <c r="CU5">
-        <v>0.2175260022722476</v>
+        <v>0.2150368856119435</v>
       </c>
       <c r="CV5">
-        <v>0.2194343255320219</v>
+        <v>0.2169099695975013</v>
       </c>
       <c r="CW5">
-        <v>0.2211794367952365</v>
+        <v>0.2186182270777032</v>
       </c>
       <c r="CX5">
-        <v>0.2215119122282282</v>
+        <v>0.2188998747979344</v>
       </c>
       <c r="CY5">
-        <v>0.2338658844678176</v>
+        <v>0.2313219371295116</v>
       </c>
       <c r="CZ5">
-        <v>0.2806078864825383</v>
+        <v>0.2784721989402321</v>
       </c>
       <c r="DA5">
-        <v>0.2931955222172022</v>
+        <v>0.2911302361886919</v>
       </c>
       <c r="DB5">
-        <v>0.3087842098886067</v>
+        <v>0.3068190120688185</v>
       </c>
       <c r="DC5">
-        <v>0.3328764643807637</v>
+        <v>0.3310954728720539</v>
       </c>
       <c r="DD5">
-        <v>0.339864511233462</v>
+        <v>0.3380985295657764</v>
       </c>
       <c r="DE5">
-        <v>0.3399861048508989</v>
+        <v>0.3381672094072136</v>
       </c>
       <c r="DF5">
-        <v>0.3463526317166982</v>
+        <v>0.3445425979784399</v>
       </c>
       <c r="DG5">
-        <v>0.3483035250755752</v>
+        <v>0.3464586731706226</v>
       </c>
       <c r="DH5">
-        <v>0.3485683564499927</v>
+        <v>0.3466720076907344</v>
       </c>
       <c r="DI5">
-        <v>0.3560482306923237</v>
+        <v>0.3541717569780181</v>
       </c>
       <c r="DJ5">
-        <v>0.3562600977078578</v>
+        <v>0.3543316032107048</v>
       </c>
       <c r="DK5">
-        <v>0.3644442835353425</v>
+        <v>0.3625426312012069</v>
       </c>
       <c r="DL5">
-        <v>0.3659527321035457</v>
+        <v>0.3640118848962146</v>
       </c>
       <c r="DM5">
-        <v>0.3724979962655774</v>
+        <v>0.3705677788502299</v>
       </c>
       <c r="DN5">
-        <v>0.3865324919697429</v>
+        <v>0.3846869885464225</v>
       </c>
       <c r="DO5">
-        <v>0.3978599107309712</v>
+        <v>0.3960723426337165</v>
       </c>
       <c r="DP5">
-        <v>0.398477878457945</v>
+        <v>0.3966423067652106</v>
       </c>
       <c r="DQ5">
-        <v>0.3989252976485138</v>
+        <v>0.3970400352777442</v>
       </c>
       <c r="DR5">
-        <v>0.3990220755004737</v>
+        <v>0.3970836538737614</v>
       </c>
       <c r="DS5">
-        <v>0.403280120910718</v>
+        <v>0.4013297036877104</v>
       </c>
       <c r="DT5">
-        <v>0.4042858673895177</v>
+        <v>0.4022912825158081</v>
       </c>
       <c r="DU5">
-        <v>0.4474971994786617</v>
+        <v>0.4458759486738486</v>
       </c>
       <c r="DV5">
-        <v>0.4670268470669943</v>
+        <v>0.4655446688261347</v>
       </c>
       <c r="DW5">
-        <v>0.4720995062600672</v>
+        <v>0.4706133906609446</v>
       </c>
       <c r="DX5">
-        <v>0.4859830699674142</v>
+        <v>0.484580175326463</v>
       </c>
       <c r="DY5">
-        <v>0.4866988008923273</v>
+        <v>0.4852488697388704</v>
       </c>
       <c r="DZ5">
-        <v>0.4867112751875643</v>
+        <v>0.4852488697388704</v>
       </c>
       <c r="EA5">
-        <v>0.4976667299566332</v>
+        <v>0.4962585803303538</v>
       </c>
       <c r="EB5">
-        <v>0.5007858198908856</v>
+        <v>0.4993544080109978</v>
       </c>
       <c r="EC5">
-        <v>0.5047924638064291</v>
+        <v>0.5033465694424366</v>
       </c>
       <c r="ED5">
-        <v>0.5109108822774583</v>
+        <v>0.5094713953067451</v>
       </c>
       <c r="EE5">
-        <v>0.5136769762191515</v>
+        <v>0.5122107351244585</v>
       </c>
       <c r="EF5">
-        <v>0.5159490567712581</v>
+        <v>0.5144511747245344</v>
       </c>
       <c r="EG5">
-        <v>0.5160699228587103</v>
+        <v>0.5145191198391903</v>
       </c>
       <c r="EH5">
-        <v>0.5228932431148808</v>
+        <v>0.5213558204450199</v>
       </c>
       <c r="EI5">
-        <v>0.5538236104628965</v>
+        <v>0.5525380373753741</v>
       </c>
       <c r="EJ5">
-        <v>0.5897145467063478</v>
+        <v>0.5887298936266558</v>
       </c>
       <c r="EK5">
-        <v>0.597835095535174</v>
+        <v>0.5968766551151768</v>
       </c>
       <c r="EL5">
-        <v>0.5980804349700025</v>
+        <v>0.5970703048795549</v>
       </c>
       <c r="EM5">
-        <v>0.6021354342845268</v>
+        <v>0.6011113000462405</v>
       </c>
       <c r="EN5">
-        <v>0.6179615179509271</v>
+        <v>0.6170398202654198</v>
       </c>
       <c r="EO5">
-        <v>0.696042371305053</v>
+        <v>0.695838940352666</v>
       </c>
       <c r="EP5">
-        <v>0.7451740502694014</v>
+        <v>0.7454025180276584</v>
       </c>
       <c r="EQ5">
-        <v>0.7526063777127346</v>
+        <v>0.7528542501784273</v>
       </c>
       <c r="ER5">
-        <v>0.7531367973415539</v>
+        <v>0.7533358001775442</v>
       </c>
       <c r="ES5">
-        <v>0.7533553135969477</v>
+        <v>0.7535023614250121</v>
       </c>
       <c r="ET5">
-        <v>0.7539357712847122</v>
+        <v>0.7540344444643747</v>
       </c>
       <c r="EU5">
-        <v>0.7539401361556203</v>
+        <v>0.7540344444643747</v>
       </c>
       <c r="EV5">
-        <v>0.7581543436667886</v>
+        <v>0.758236222730526</v>
       </c>
       <c r="EW5">
-        <v>0.770940446397269</v>
+        <v>0.7710946902294484</v>
       </c>
       <c r="EX5">
-        <v>0.775423322802774</v>
+        <v>0.775567795088527</v>
       </c>
       <c r="EY5">
-        <v>0.7836974206283635</v>
+        <v>0.7838696244952826</v>
       </c>
       <c r="EZ5">
-        <v>0.8044713371904679</v>
+        <v>0.8047949220499214</v>
       </c>
       <c r="FA5">
-        <v>0.8108667540556583</v>
+        <v>0.8111994864031964</v>
       </c>
       <c r="FB5">
-        <v>0.8121845309278808</v>
+        <v>0.8124761822594344</v>
       </c>
       <c r="FC5">
-        <v>0.8122426564816555</v>
+        <v>0.8124807662050083</v>
       </c>
       <c r="FD5">
-        <v>0.8200479233171275</v>
+        <v>0.8203091269003178</v>
       </c>
       <c r="FE5">
-        <v>0.8271442454675434</v>
+        <v>0.8274215299614358</v>
       </c>
       <c r="FF5">
-        <v>0.8275970759479981</v>
+        <v>0.8278247232928564</v>
       </c>
       <c r="FG5">
-        <v>0.828344980032233</v>
+        <v>0.8285259091245777</v>
       </c>
       <c r="FH5">
-        <v>0.8289847197587479</v>
+        <v>0.8291178606263301</v>
       </c>
       <c r="FI5">
-        <v>0.8323859765870525</v>
+        <v>0.8324986464231305</v>
       </c>
       <c r="FJ5">
-        <v>0.8352349283269992</v>
+        <v>0.8353216636764215</v>
       </c>
       <c r="FK5">
-        <v>0.835415356423196</v>
+        <v>0.8354497599929515</v>
       </c>
       <c r="FL5">
-        <v>0.8358334554643828</v>
+        <v>0.8358178783183603</v>
       </c>
       <c r="FM5">
-        <v>0.8367073316459623</v>
+        <v>0.8366462823755512</v>
       </c>
       <c r="FN5">
-        <v>0.8367322513754371</v>
+        <v>0.8366462823755512</v>
       </c>
       <c r="FO5">
-        <v>0.8369930052699406</v>
+        <v>0.8368554990809247</v>
       </c>
       <c r="FP5">
-        <v>0.8497357610013347</v>
+        <v>0.849670190788069</v>
       </c>
       <c r="FQ5">
-        <v>0.8684569816067083</v>
+        <v>0.8685224869197843</v>
       </c>
       <c r="FR5">
-        <v>0.8688006257494646</v>
+        <v>0.8688154138317332</v>
       </c>
       <c r="FS5">
-        <v>0.8700381101233795</v>
+        <v>0.8700110229285338</v>
       </c>
       <c r="FT5">
-        <v>0.8719268364835668</v>
+        <v>0.8718643161600858</v>
       </c>
       <c r="FU5">
-        <v>0.8725593545002339</v>
+        <v>0.8724489745141407</v>
       </c>
       <c r="FV5">
-        <v>0.884304108252665</v>
+        <v>0.8842557919105832</v>
       </c>
       <c r="FW5">
-        <v>0.9145334936154568</v>
+        <v>0.9147300926743722</v>
       </c>
       <c r="FX5">
-        <v>0.930826872272007</v>
+        <v>0.9311305304107704</v>
       </c>
       <c r="FY5">
-        <v>0.9345286470939769</v>
+        <v>0.9348148069541862</v>
       </c>
       <c r="FZ5">
-        <v>0.9349754049845597</v>
+        <v>0.9352118676250906</v>
       </c>
       <c r="GA5">
-        <v>0.9352714204483199</v>
+        <v>0.9354566947105615</v>
       </c>
       <c r="GB5">
-        <v>0.9352782735298755</v>
+        <v>0.9354566947105615</v>
       </c>
       <c r="GC5">
-        <v>0.9352795425175487</v>
+        <v>0.9354566947105615</v>
       </c>
       <c r="GD5">
-        <v>0.9426815200615217</v>
+        <v>0.9428777767378412</v>
       </c>
       <c r="GE5">
-        <v>0.9575687837477116</v>
+        <v>0.9578581900791053</v>
       </c>
       <c r="GF5">
-        <v>0.9674850435386858</v>
+        <v>0.9678184258756386</v>
       </c>
       <c r="GG5">
-        <v>0.9748378336836956</v>
+        <v>0.9751898339374652</v>
       </c>
       <c r="GH5">
-        <v>0.9768570047411332</v>
+        <v>0.9771748622377817</v>
       </c>
       <c r="GI5">
-        <v>0.9769380989194238</v>
+        <v>0.9772026420157183</v>
       </c>
       <c r="GJ5">
-        <v>0.9774421818087983</v>
+        <v>0.9776575947498259</v>
       </c>
       <c r="GK5">
-        <v>0.9800631147535513</v>
+        <v>0.9802503376240304</v>
       </c>
       <c r="GL5">
-        <v>0.983876951873159</v>
+        <v>0.98404778499613</v>
       </c>
       <c r="GM5">
-        <v>0.9839684770812298</v>
+        <v>0.9840860989885983</v>
       </c>
       <c r="GN5">
-        <v>0.9839740463078124</v>
+        <v>0.9840860989885983</v>
       </c>
       <c r="GO5">
-        <v>0.9844868601570027</v>
+        <v>0.9845498690500177</v>
       </c>
       <c r="GP5">
-        <v>0.98467342832307</v>
+        <v>0.9846841661745811</v>
       </c>
       <c r="GQ5">
-        <v>0.98554822930463</v>
+        <v>0.985513504179963</v>
       </c>
       <c r="GR5">
-        <v>0.9914430371803727</v>
+        <v>0.9914125074714303</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.000320759605329454</v>
+        <v>0.0002882637926949426</v>
       </c>
       <c r="C6">
-        <v>0.0006119901829300706</v>
+        <v>0.0005468111334227646</v>
       </c>
       <c r="D6">
-        <v>0.0006417108726441667</v>
+        <v>0.0005468111334227646</v>
       </c>
       <c r="E6">
-        <v>0.0006927457287189288</v>
+        <v>0.0005636382019162134</v>
       </c>
       <c r="F6">
-        <v>0.001170173291998598</v>
+        <v>0.001009564342656157</v>
       </c>
       <c r="G6">
-        <v>0.002283446906373515</v>
+        <v>0.002095372324727527</v>
       </c>
       <c r="H6">
-        <v>0.00317512593779191</v>
+        <v>0.002958179236764653</v>
       </c>
       <c r="I6">
-        <v>0.003455525756225551</v>
+        <v>0.003205827074213586</v>
       </c>
       <c r="J6">
-        <v>0.00346537549246798</v>
+        <v>0.003205827074213586</v>
       </c>
       <c r="K6">
-        <v>0.003541256956631717</v>
+        <v>0.003247658455161958</v>
       </c>
       <c r="L6">
-        <v>0.004085035964808106</v>
+        <v>0.003760357181282248</v>
       </c>
       <c r="M6">
-        <v>0.004993579834929377</v>
+        <v>0.004640135975152037</v>
       </c>
       <c r="N6">
-        <v>0.00574181907738014</v>
+        <v>0.00535859266888286</v>
       </c>
       <c r="O6">
-        <v>0.006035063554825862</v>
+        <v>0.005619166691916758</v>
       </c>
       <c r="P6">
-        <v>0.006052993095446849</v>
+        <v>0.005619166691916758</v>
       </c>
       <c r="Q6">
-        <v>0.006052994889939411</v>
+        <v>0.005619166691916758</v>
       </c>
       <c r="R6">
-        <v>0.006087308807300229</v>
+        <v>0.005619166691916758</v>
       </c>
       <c r="S6">
-        <v>0.006256943914253104</v>
+        <v>0.005755346781135168</v>
       </c>
       <c r="T6">
-        <v>0.007182355483077032</v>
+        <v>0.006652100334990159</v>
       </c>
       <c r="U6">
-        <v>0.008730342264016906</v>
+        <v>0.008175380659609634</v>
       </c>
       <c r="V6">
-        <v>0.009483622446079955</v>
+        <v>0.008898910288393831</v>
       </c>
       <c r="W6">
-        <v>0.009589209847958923</v>
+        <v>0.008970636154164364</v>
       </c>
       <c r="X6">
-        <v>0.009637205491267439</v>
+        <v>0.008984404719647983</v>
       </c>
       <c r="Y6">
-        <v>0.009637880446955526</v>
+        <v>0.008984404719647983</v>
       </c>
       <c r="Z6">
-        <v>0.009922779455043123</v>
+        <v>0.009236580303640773</v>
       </c>
       <c r="AA6">
-        <v>0.01068342255653987</v>
+        <v>0.009967519585180842</v>
       </c>
       <c r="AB6">
-        <v>0.01186899896535377</v>
+        <v>0.01112608927609562</v>
       </c>
       <c r="AC6">
-        <v>0.01230106583212226</v>
+        <v>0.01152636681060824</v>
       </c>
       <c r="AD6">
-        <v>0.01236544702217052</v>
+        <v>0.0115566249238385</v>
       </c>
       <c r="AE6">
-        <v>0.01236696948585342</v>
+        <v>0.0115566249238385</v>
       </c>
       <c r="AF6">
-        <v>0.01239309893184373</v>
+        <v>0.0115566249238385</v>
       </c>
       <c r="AG6">
-        <v>0.01260957048519428</v>
+        <v>0.01173993873593014</v>
       </c>
       <c r="AH6">
-        <v>0.01296474355787689</v>
+        <v>0.01206283442233365</v>
       </c>
       <c r="AI6">
-        <v>0.01322862616758092</v>
+        <v>0.01229386021437182</v>
       </c>
       <c r="AJ6">
-        <v>0.01322888362721112</v>
+        <v>0.01229386021437182</v>
       </c>
       <c r="AK6">
-        <v>0.01334834186802324</v>
+        <v>0.01237954495893395</v>
       </c>
       <c r="AL6">
-        <v>0.01349304419689377</v>
+        <v>0.01249063401877291</v>
       </c>
       <c r="AM6">
-        <v>0.01361946831717012</v>
+        <v>0.01258332885606172</v>
       </c>
       <c r="AN6">
-        <v>0.01380764623269682</v>
+        <v>0.01273816944725735</v>
       </c>
       <c r="AO6">
-        <v>0.01418218095389027</v>
+        <v>0.01308054967284921</v>
       </c>
       <c r="AP6">
-        <v>0.01467763544578344</v>
+        <v>0.01354461716125482</v>
       </c>
       <c r="AQ6">
-        <v>0.01508794451422539</v>
+        <v>0.01392299879811654</v>
       </c>
       <c r="AR6">
-        <v>0.01514829473258368</v>
+        <v>0.01394920035460183</v>
       </c>
       <c r="AS6">
-        <v>0.01516021504766685</v>
+        <v>0.01394920035460183</v>
       </c>
       <c r="AT6">
-        <v>0.01554792372784706</v>
+        <v>0.01430483815585929</v>
       </c>
       <c r="AU6">
-        <v>0.07566557410402523</v>
+        <v>0.07476953067125651</v>
       </c>
       <c r="AV6">
-        <v>0.08619978329380883</v>
+        <v>0.08533607002324597</v>
       </c>
       <c r="AW6">
-        <v>0.1374222863541384</v>
+        <v>0.1368491566686763</v>
       </c>
       <c r="AX6">
-        <v>0.1528783971653644</v>
+        <v>0.1523688375349612</v>
       </c>
       <c r="AY6">
-        <v>0.1606983905639061</v>
+        <v>0.1602039336464381</v>
       </c>
       <c r="AZ6">
-        <v>0.1609656744433486</v>
+        <v>0.1604383822964768</v>
       </c>
       <c r="BA6">
-        <v>0.1624401094299455</v>
+        <v>0.1618876439847985</v>
       </c>
       <c r="BB6">
-        <v>0.1643113564860225</v>
+        <v>0.1637362363558288</v>
       </c>
       <c r="BC6">
-        <v>0.164368843396601</v>
+        <v>0.1637595564307806</v>
       </c>
       <c r="BD6">
-        <v>0.165901902678689</v>
+        <v>0.165267814509944</v>
       </c>
       <c r="BE6">
-        <v>0.1861467971215958</v>
+        <v>0.1856066739851068</v>
       </c>
       <c r="BF6">
-        <v>0.2289794958272095</v>
+        <v>0.228676705193362</v>
       </c>
       <c r="BG6">
-        <v>0.2326882471419587</v>
+        <v>0.2323744646803447</v>
       </c>
       <c r="BH6">
-        <v>0.2556246473778541</v>
+        <v>0.2554219132547166</v>
       </c>
       <c r="BI6">
-        <v>0.2705244232318693</v>
+        <v>0.2703817280398898</v>
       </c>
       <c r="BJ6">
-        <v>0.2728624424520455</v>
+        <v>0.2727000552332589</v>
       </c>
       <c r="BK6">
-        <v>0.2752427758689672</v>
+        <v>0.2750609651965946</v>
       </c>
       <c r="BL6">
-        <v>0.2823240663243247</v>
+        <v>0.2821526697297682</v>
       </c>
       <c r="BM6">
-        <v>0.2828637324428174</v>
+        <v>0.2826612294612066</v>
       </c>
       <c r="BN6">
-        <v>0.2831019968244918</v>
+        <v>0.2828664744232861</v>
       </c>
       <c r="BO6">
-        <v>0.2847929650944346</v>
+        <v>0.2845336437573629</v>
       </c>
       <c r="BP6">
-        <v>0.2868951572327489</v>
+        <v>0.2866146470464353</v>
       </c>
       <c r="BQ6">
-        <v>0.2972061294397023</v>
+        <v>0.2969565325040102</v>
       </c>
       <c r="BR6">
-        <v>0.2989521427054114</v>
+        <v>0.2986790962109646</v>
       </c>
       <c r="BS6">
-        <v>0.3002274953073204</v>
+        <v>0.2999280119151108</v>
       </c>
       <c r="BT6">
-        <v>0.3052122219239307</v>
+        <v>0.3049098454704028</v>
       </c>
       <c r="BU6">
-        <v>0.3122242883846125</v>
+        <v>0.3119318866360031</v>
       </c>
       <c r="BV6">
-        <v>0.3152506965518427</v>
+        <v>0.3149429720626496</v>
       </c>
       <c r="BW6">
-        <v>0.3170382797143545</v>
+        <v>0.3167073695154679</v>
       </c>
       <c r="BX6">
-        <v>0.3208075046244526</v>
+        <v>0.3204659864308754</v>
       </c>
       <c r="BY6">
-        <v>0.3249672729045128</v>
+        <v>0.3246176255412949</v>
       </c>
       <c r="BZ6">
-        <v>0.3258704981650431</v>
+        <v>0.3254920519677285</v>
       </c>
       <c r="CA6">
-        <v>0.3569284327762878</v>
+        <v>0.3567125832585589</v>
       </c>
       <c r="CB6">
-        <v>0.3743669514350411</v>
+        <v>0.3742272545499013</v>
       </c>
       <c r="CC6">
-        <v>0.3744540584883414</v>
+        <v>0.3742803827701308</v>
       </c>
       <c r="CD6">
-        <v>0.3764429235353721</v>
+        <v>0.3762473396674415</v>
       </c>
       <c r="CE6">
-        <v>0.3766467670996939</v>
+        <v>0.3764179453391616</v>
       </c>
       <c r="CF6">
-        <v>0.3770483730088052</v>
+        <v>0.376787568576709</v>
       </c>
       <c r="CG6">
-        <v>0.3823742161991792</v>
+        <v>0.3821126838130819</v>
       </c>
       <c r="CH6">
-        <v>0.382505627129072</v>
+        <v>0.3822103971118588</v>
       </c>
       <c r="CI6">
-        <v>0.3843170563897498</v>
+        <v>0.3839987920168538</v>
       </c>
       <c r="CJ6">
-        <v>0.3856972963835915</v>
+        <v>0.3853532608456389</v>
       </c>
       <c r="CK6">
-        <v>0.3856987234826817</v>
+        <v>0.3853532608456389</v>
       </c>
       <c r="CL6">
-        <v>0.3919267443036667</v>
+        <v>0.3915862799409553</v>
       </c>
       <c r="CM6">
-        <v>0.3929780146228105</v>
+        <v>0.3926096910855331</v>
       </c>
       <c r="CN6">
-        <v>0.3972842112916085</v>
+        <v>0.396908687983026</v>
       </c>
       <c r="CO6">
-        <v>0.4234543252787896</v>
+        <v>0.4232103750730689</v>
       </c>
       <c r="CP6">
-        <v>0.456494492737575</v>
+        <v>0.4564257206782246</v>
       </c>
       <c r="CQ6">
-        <v>0.4680153238514747</v>
+        <v>0.4679851441606005</v>
       </c>
       <c r="CR6">
-        <v>0.4686953712391703</v>
+        <v>0.468634976177793</v>
       </c>
       <c r="CS6">
-        <v>0.4707835161785651</v>
+        <v>0.4707018431087097</v>
       </c>
       <c r="CT6">
-        <v>0.4879981388545388</v>
+        <v>0.4879911973229374</v>
       </c>
       <c r="CU6">
-        <v>0.5501418700748852</v>
+        <v>0.5504948304577182</v>
       </c>
       <c r="CV6">
-        <v>0.5891017670783673</v>
+        <v>0.5896674788324984</v>
       </c>
       <c r="CW6">
-        <v>0.5977335514144718</v>
+        <v>0.5983195184148188</v>
       </c>
       <c r="CX6">
-        <v>0.6014045781321226</v>
+        <v>0.6019793138622147</v>
       </c>
       <c r="CY6">
-        <v>0.6053296788302317</v>
+        <v>0.6058947959277317</v>
       </c>
       <c r="CZ6">
-        <v>0.6056369981065949</v>
+        <v>0.6061695340840997</v>
       </c>
       <c r="DA6">
-        <v>0.6057867918150738</v>
+        <v>0.6062857468391367</v>
       </c>
       <c r="DB6">
-        <v>0.6090136820668843</v>
+        <v>0.6094985868339121</v>
       </c>
       <c r="DC6">
-        <v>0.6193505892718429</v>
+        <v>0.619866571901998</v>
       </c>
       <c r="DD6">
-        <v>0.6287667365476199</v>
+        <v>0.6293079528685186</v>
       </c>
       <c r="DE6">
-        <v>0.6469891271460834</v>
+        <v>0.6476114714276638</v>
       </c>
       <c r="DF6">
-        <v>0.67794679376504</v>
+        <v>0.6787310983133771</v>
       </c>
       <c r="DG6">
-        <v>0.6879982379919544</v>
+        <v>0.6888118085360688</v>
       </c>
       <c r="DH6">
-        <v>0.6880020426023618</v>
+        <v>0.6888118085360688</v>
       </c>
       <c r="DI6">
-        <v>0.6882392081241206</v>
+        <v>0.6890159476636386</v>
       </c>
       <c r="DJ6">
-        <v>0.6984415473394293</v>
+        <v>0.6992485106230975</v>
       </c>
       <c r="DK6">
-        <v>0.7094361164938053</v>
+        <v>0.7102783318989287</v>
       </c>
       <c r="DL6">
-        <v>0.7136683801682897</v>
+        <v>0.7145029265406319</v>
       </c>
       <c r="DM6">
-        <v>0.7171191622028801</v>
+        <v>0.7179410793858644</v>
       </c>
       <c r="DN6">
-        <v>0.717124728185452</v>
+        <v>0.7179410793858644</v>
       </c>
       <c r="DO6">
-        <v>0.7186894693651033</v>
+        <v>0.7194812204513493</v>
       </c>
       <c r="DP6">
-        <v>0.7202179194475458</v>
+        <v>0.7209848400757309</v>
       </c>
       <c r="DQ6">
-        <v>0.7209443002916777</v>
+        <v>0.7216812996332985</v>
       </c>
       <c r="DR6">
-        <v>0.7220783917044514</v>
+        <v>0.7227880575468022</v>
       </c>
       <c r="DS6">
-        <v>0.7221580826083221</v>
+        <v>0.7228337225464229</v>
       </c>
       <c r="DT6">
-        <v>0.7224876937029708</v>
+        <v>0.7231308940098886</v>
       </c>
       <c r="DU6">
-        <v>0.7227260702646366</v>
+        <v>0.7233362518639791</v>
       </c>
       <c r="DV6">
-        <v>0.7330178494730663</v>
+        <v>0.7336588225027941</v>
       </c>
       <c r="DW6">
-        <v>0.7448962455594645</v>
+        <v>0.7455780804649217</v>
       </c>
       <c r="DX6">
-        <v>0.7463186514500632</v>
+        <v>0.7469749828224072</v>
       </c>
       <c r="DY6">
-        <v>0.7504987061285631</v>
+        <v>0.7511470370914414</v>
       </c>
       <c r="DZ6">
-        <v>0.753570650592291</v>
+        <v>0.7542039478388556</v>
       </c>
       <c r="EA6">
-        <v>0.7536521039060262</v>
+        <v>0.7542513864345649</v>
       </c>
       <c r="EB6">
-        <v>0.7632578171672231</v>
+        <v>0.7638835365842791</v>
       </c>
       <c r="EC6">
-        <v>0.7854908784572142</v>
+        <v>0.7862231820371092</v>
       </c>
       <c r="ED6">
-        <v>0.8005917652957615</v>
+        <v>0.8013853842820655</v>
       </c>
       <c r="EE6">
-        <v>0.8079982863261046</v>
+        <v>0.8088043836672251</v>
       </c>
       <c r="EF6">
-        <v>0.808443511941861</v>
+        <v>0.8092179034708648</v>
       </c>
       <c r="EG6">
-        <v>0.8091971316538979</v>
+        <v>0.8099417747846598</v>
       </c>
       <c r="EH6">
-        <v>0.8097843250787352</v>
+        <v>0.8104981634838883</v>
       </c>
       <c r="EI6">
-        <v>0.8097850598594787</v>
+        <v>0.8104981634838883</v>
       </c>
       <c r="EJ6">
-        <v>0.8182950552049504</v>
+        <v>0.8190276410664199</v>
       </c>
       <c r="EK6">
-        <v>0.8329680170764105</v>
+        <v>0.8337592022538125</v>
       </c>
       <c r="EL6">
-        <v>0.8458913200824421</v>
+        <v>0.8467299992836171</v>
       </c>
       <c r="EM6">
-        <v>0.8565488162627433</v>
+        <v>0.8574206081432629</v>
       </c>
       <c r="EN6">
-        <v>0.8594164218421875</v>
+        <v>0.8602718830432801</v>
       </c>
       <c r="EO6">
-        <v>0.859416753762862</v>
+        <v>0.8602718830432801</v>
       </c>
       <c r="EP6">
-        <v>0.8599026399654911</v>
+        <v>0.8607263215113558</v>
       </c>
       <c r="EQ6">
-        <v>0.8638556271614555</v>
+        <v>0.8646698670736345</v>
       </c>
       <c r="ER6">
-        <v>0.8694170507337103</v>
+        <v>0.8702320579484891</v>
       </c>
       <c r="ES6">
-        <v>0.8711811601980276</v>
+        <v>0.8719728327127686</v>
       </c>
       <c r="ET6">
-        <v>0.8722226684179222</v>
+        <v>0.8729864197968964</v>
       </c>
       <c r="EU6">
-        <v>0.8722301536838465</v>
+        <v>0.8729864197968964</v>
       </c>
       <c r="EV6">
-        <v>0.8723369550956321</v>
+        <v>0.8730593673780382</v>
       </c>
       <c r="EW6">
-        <v>0.8726431154320845</v>
+        <v>0.8733329392385665</v>
       </c>
       <c r="EX6">
-        <v>0.8742508654084278</v>
+        <v>0.8749163620826728</v>
       </c>
       <c r="EY6">
-        <v>0.8763701966454239</v>
+        <v>0.8770146132543173</v>
       </c>
       <c r="EZ6">
-        <v>0.8771254341873365</v>
+        <v>0.8777401126665458</v>
       </c>
       <c r="FA6">
-        <v>0.8771344991316392</v>
+        <v>0.8777401126665458</v>
       </c>
       <c r="FB6">
-        <v>0.8785259736246169</v>
+        <v>0.8791058873011642</v>
       </c>
       <c r="FC6">
-        <v>0.8787911335642227</v>
+        <v>0.8793381985304685</v>
       </c>
       <c r="FD6">
-        <v>0.8798206370850405</v>
+        <v>0.880339704720272</v>
       </c>
       <c r="FE6">
-        <v>0.8860837730033247</v>
+        <v>0.8866080617925713</v>
       </c>
       <c r="FF6">
-        <v>0.8886007275097385</v>
+        <v>0.8891064599956442</v>
       </c>
       <c r="FG6">
-        <v>0.8889070150361811</v>
+        <v>0.8893801598534525</v>
       </c>
       <c r="FH6">
-        <v>0.8952846775456567</v>
+        <v>0.8957637704307895</v>
       </c>
       <c r="FI6">
-        <v>0.9089504654945815</v>
+        <v>0.9094817650434069</v>
       </c>
       <c r="FJ6">
-        <v>0.9221678224779964</v>
+        <v>0.9227484824460359</v>
       </c>
       <c r="FK6">
-        <v>0.9273160596820307</v>
+        <v>0.9278948644098268</v>
       </c>
       <c r="FL6">
-        <v>0.928989311853336</v>
+        <v>0.9295442051990888</v>
       </c>
       <c r="FM6">
-        <v>0.9290557573922255</v>
+        <v>0.929576540763827</v>
       </c>
       <c r="FN6">
-        <v>0.9291127051798455</v>
+        <v>0.9295993182939429</v>
       </c>
       <c r="FO6">
-        <v>0.9300633731067268</v>
+        <v>0.930521488510953</v>
       </c>
       <c r="FP6">
-        <v>0.9304426230275576</v>
+        <v>0.930868613864113</v>
       </c>
       <c r="FQ6">
-        <v>0.9317360102280795</v>
+        <v>0.9321356786346067</v>
       </c>
       <c r="FR6">
-        <v>0.9361120641915046</v>
+        <v>0.936504976219254</v>
       </c>
       <c r="FS6">
-        <v>0.9464869343935435</v>
+        <v>0.9469111652400612</v>
       </c>
       <c r="FT6">
-        <v>0.9594831738939652</v>
+        <v>0.9599553617008293</v>
       </c>
       <c r="FU6">
-        <v>0.9647356634899811</v>
+        <v>0.965206657758888</v>
       </c>
       <c r="FV6">
-        <v>0.9650343123070111</v>
+        <v>0.9654726704234901</v>
       </c>
       <c r="FW6">
-        <v>0.9651208704753537</v>
+        <v>0.9655252462749239</v>
       </c>
       <c r="FX6">
-        <v>0.9653678106963608</v>
+        <v>0.9657392221429163</v>
       </c>
       <c r="FY6">
-        <v>0.9666319688991307</v>
+        <v>0.9669768723957456</v>
       </c>
       <c r="FZ6">
-        <v>0.9710501679593143</v>
+        <v>0.9713885825770748</v>
       </c>
       <c r="GA6">
-        <v>0.9774529434668584</v>
+        <v>0.9777974655476549</v>
       </c>
       <c r="GB6">
-        <v>0.9774604287327827</v>
+        <v>0.9777974655476549</v>
       </c>
       <c r="GC6">
-        <v>0.9799675424399533</v>
+        <v>0.9802859604907657</v>
       </c>
       <c r="GD6">
-        <v>0.9866075609292504</v>
+        <v>0.9869335922524179</v>
       </c>
       <c r="GE6">
-        <v>0.9916404091421596</v>
+        <v>0.9919638528374831</v>
       </c>
       <c r="GF6">
-        <v>0.9929246329433862</v>
+        <v>0.9932216960475003</v>
       </c>
       <c r="GG6">
-        <v>0.9931376517770023</v>
+        <v>0.9934015352250363</v>
       </c>
       <c r="GH6">
-        <v>0.9933739110588309</v>
+        <v>0.9936047623606635</v>
       </c>
       <c r="GI6">
-        <v>0.9933972707010342</v>
+        <v>0.9936047623606635</v>
       </c>
       <c r="GJ6">
-        <v>0.9934063729263342</v>
+        <v>0.9936047623606635</v>
       </c>
       <c r="GK6">
-        <v>0.9936257429094618</v>
+        <v>0.9937909929992095</v>
       </c>
       <c r="GL6">
-        <v>0.9939750201325979</v>
+        <v>0.9941079554144107</v>
       </c>
       <c r="GM6">
-        <v>0.9960372268739875</v>
+        <v>0.9961487195145058</v>
       </c>
       <c r="GN6">
-        <v>0.998944926050348</v>
+        <v>0.9990403424902501</v>
       </c>
       <c r="GO6">
-        <v>0.9997402720291757</v>
+        <v>0.9998062049123959</v>
       </c>
       <c r="GP6">
-        <v>0.9997491974104892</v>
+        <v>0.9998062049123959</v>
       </c>
       <c r="GQ6">
-        <v>0.9997504131921957</v>
+        <v>0.9998062049123959</v>
       </c>
       <c r="GR6">
-        <v>0.9997731132774498</v>
+        <v>0.9998062049123959</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999992</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>124</v>
       </c>
       <c r="E2">
-        <v>0.0005376466737016518</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="F2">
-        <v>0.508849324635016</v>
+        <v>0.5088284611480567</v>
       </c>
       <c r="G2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>130</v>
       </c>
       <c r="E3">
-        <v>0.01635448674696752</v>
+        <v>0.01404344113683227</v>
       </c>
       <c r="F3">
-        <v>0.5056836768785419</v>
+        <v>0.5042712597950073</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.03147651671560622</v>
+        <v>0.06259247085350338</v>
       </c>
       <c r="F4">
-        <v>0.5389808934329978</v>
+        <v>0.5444326515954636</v>
       </c>
       <c r="G4">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E5">
-        <v>0.02995609021605257</v>
+        <v>0.027320410694574</v>
       </c>
       <c r="F5">
-        <v>0.5007858198908856</v>
+        <v>0.5033465694424366</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01514829473258368</v>
+        <v>0.01430483815585929</v>
       </c>
       <c r="F6">
-        <v>0.5501418700748852</v>
+        <v>0.5504948304577182</v>
       </c>
       <c r="G6">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>144</v>
       </c>
       <c r="E2">
-        <v>0.0005376466737016518</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="F2">
-        <v>0.7279594774102509</v>
+        <v>0.7279878699126734</v>
       </c>
       <c r="G2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01635448674696752</v>
+        <v>0.01404344113683227</v>
       </c>
       <c r="F3">
-        <v>0.7091253286724011</v>
+        <v>0.7091526220535362</v>
       </c>
       <c r="G3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4">
-        <v>0.03147651671560622</v>
+        <v>0.06259247085350338</v>
       </c>
       <c r="F4">
-        <v>0.7005481722622575</v>
+        <v>0.7032752032058052</v>
       </c>
       <c r="G4">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>145</v>
       </c>
       <c r="E5">
-        <v>0.02995609021605257</v>
+        <v>0.027320410694574</v>
       </c>
       <c r="F5">
-        <v>0.7451740502694014</v>
+        <v>0.7454025180276584</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>114</v>
       </c>
       <c r="E6">
-        <v>0.01514829473258368</v>
+        <v>0.01430483815585929</v>
       </c>
       <c r="F6">
-        <v>0.7094361164938053</v>
+        <v>0.7102783318989287</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.0005376466737016518</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="F2">
-        <v>0.8335019576368642</v>
+        <v>0.833549973988195</v>
       </c>
       <c r="G2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>155</v>
       </c>
       <c r="E3">
-        <v>0.01635448674696752</v>
+        <v>0.01404344113683227</v>
       </c>
       <c r="F3">
-        <v>0.8219175610941183</v>
+        <v>0.8225093296474143</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4">
-        <v>0.03147651671560622</v>
+        <v>0.06259247085350338</v>
       </c>
       <c r="F4">
-        <v>0.8056243183563374</v>
+        <v>0.8039817585892201</v>
       </c>
       <c r="G4">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>155</v>
       </c>
       <c r="E5">
-        <v>0.02995609021605257</v>
+        <v>0.027320410694574</v>
       </c>
       <c r="F5">
-        <v>0.8044713371904679</v>
+        <v>0.8047949220499214</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>133</v>
       </c>
       <c r="E6">
-        <v>0.01514829473258368</v>
+        <v>0.01430483815585929</v>
       </c>
       <c r="F6">
-        <v>0.8005917652957615</v>
+        <v>0.8013853842820655</v>
       </c>
       <c r="G6">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>177</v>
       </c>
       <c r="E2">
-        <v>0.0005376466737016518</v>
+        <v>0.000368181998613587</v>
       </c>
       <c r="F2">
-        <v>0.9042367621824999</v>
+        <v>0.9042580459814592</v>
       </c>
       <c r="G2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>177</v>
       </c>
       <c r="E3">
-        <v>0.01635448674696752</v>
+        <v>0.01404344113683227</v>
       </c>
       <c r="F3">
-        <v>0.9014812615502528</v>
+        <v>0.9017049176152905</v>
       </c>
       <c r="G3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>165</v>
       </c>
       <c r="E4">
-        <v>0.03147651671560622</v>
+        <v>0.06259247085350338</v>
       </c>
       <c r="F4">
-        <v>0.9117064564873023</v>
+        <v>0.9189760017282209</v>
       </c>
       <c r="G4">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D5">
         <v>178</v>
       </c>
       <c r="E5">
-        <v>0.02995609021605257</v>
+        <v>0.027320410694574</v>
       </c>
       <c r="F5">
-        <v>0.9145334936154568</v>
+        <v>0.9147300926743722</v>
       </c>
       <c r="G5">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>164</v>
       </c>
       <c r="E6">
-        <v>0.01514829473258368</v>
+        <v>0.01430483815585929</v>
       </c>
       <c r="F6">
-        <v>0.9089504654945815</v>
+        <v>0.9094817650434069</v>
       </c>
       <c r="G6">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H6">
         <v>49</v>

--- a/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
@@ -2003,43 +2003,43 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.443006462291311E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.644368504899201E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.481487539608335E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.009019045424097E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.219497851621298E-06</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.20620690363432E-06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.031805892150092E-07</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.9459503313678E-06</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.674853822536099E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.140408769906262E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.039897340089606E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.36766053842228E-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -2051,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.871049629468389E-06</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.230258987240222E-05</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>6.13823457483457E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="AC2">
-        <v>3.125454925078757E-06</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.125454925078757E-06</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <v>0</v>
       </c>
       <c r="AL2">
-        <v>4.12788129421491E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
@@ -2111,28 +2111,28 @@
         <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.130571013540586E-07</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>7.82965784988705E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>2.039897340089606E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>9.925914958671767E-06</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>3.743076846322204E-06</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>9.031805892150092E-07</v>
+        <v>0</v>
       </c>
       <c r="AU2">
         <v>0</v>
       </c>
       <c r="AV2">
-        <v>1.06704158366177E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.6199042752609E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>7.85933164403745E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="BD2">
-        <v>6.165494165360945E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>2.219497851621298E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <v>0</v>
@@ -2171,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>8.315861251185885E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>9.66457966749354E-06</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>1.613671941390577E-05</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>4.523359463592295E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>4.324285913593316E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="BQ2">
-        <v>1.367116588890404E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
         <v>0</v>
@@ -2204,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="BT2">
-        <v>1.367116588890404E-06</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>1.711485277153154E-07</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>1.230258987240222E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>5.416842918209242E-06</v>
+        <v>0</v>
       </c>
       <c r="BX2">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>4.725101043762921E-06</v>
+        <v>0</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.658393407700084E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="CG2">
-        <v>1.201813005227163E-05</v>
+        <v>0</v>
       </c>
       <c r="CH2">
         <v>0</v>
@@ -2264,334 +2264,334 @@
         <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.002948002117605211</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.1111588683672311</v>
+        <v>0.3329355347982855</v>
       </c>
       <c r="CP2">
-        <v>0.04465374160801808</v>
+        <v>0.06007337301084215</v>
       </c>
       <c r="CQ2">
-        <v>0.04406392454915144</v>
+        <v>0.0576534278790307</v>
       </c>
       <c r="CR2">
-        <v>0.01516508776106634</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.008481494592552943</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.003135597645127654</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.0191669769407223</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.006001476656182286</v>
+        <v>0</v>
       </c>
       <c r="CW2">
-        <v>0.001791945654734498</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.003434857343877542</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>0.01480546846947123</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.07431054728865502</v>
+        <v>0.1817515127883549</v>
       </c>
       <c r="DA2">
-        <v>0.0006406274541692192</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.05527479683543775</v>
+        <v>0.1036502253685603</v>
       </c>
       <c r="DC2">
-        <v>0.0003281831621157861</v>
+        <v>0</v>
       </c>
       <c r="DD2">
-        <v>0.01165152203968364</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.007721023152332324</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.006931211684363699</v>
+        <v>0</v>
       </c>
       <c r="DG2">
-        <v>2.356192532045565E-05</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.0007664814698776809</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.001149536675669212</v>
+        <v>0</v>
       </c>
       <c r="DJ2">
-        <v>0.003521057719889329</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.006573724455728717</v>
+        <v>0</v>
       </c>
       <c r="DL2">
         <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.00177920650351031</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.007783210456400245</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.004944934006863416</v>
+        <v>0</v>
       </c>
       <c r="DP2">
-        <v>0.001815368232281805</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.002200389488266233</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.003361903572085428</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.0002713134491831611</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.006379673709896205</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.03622456416197277</v>
+        <v>0.02548951922246845</v>
       </c>
       <c r="DV2">
-        <v>0.003628841256389671</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.003245683629535152</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.005341397067267527</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.0001444448276333724</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>1.317198231621814E-05</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.004312244473519613</v>
+        <v>0</v>
       </c>
       <c r="EB2">
-        <v>0.002016228473052348</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.005581457751789625</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.005045420205206883</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.0005791561470683507</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.003755590648496495</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>3.395665571149007E-05</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.006159820399951599</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.03263795102210951</v>
+        <v>0.01077409708093011</v>
       </c>
       <c r="EJ2">
-        <v>0.02630514774320946</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.003642060947191406</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.001335018649459475</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.006073394011259055</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0295331010698346</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.07977532180361463</v>
+        <v>0.2041727945826375</v>
       </c>
       <c r="EP2">
-        <v>0.02321664394046181</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.00314925435380878</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.001355584002510518</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0009200423190897294</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.0001017679656806818</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.0001074844206733212</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.005906322716286641</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.004206319163455615</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.005833543031287143</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.02502560481499489</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.0357395373472723</v>
+        <v>0.02349951526889032</v>
       </c>
       <c r="FA2">
-        <v>0.002576850976697684</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>6.380499388245946E-05</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.0004737415016010115</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.01222527208819048</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.007768177161409008</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.002964732558724682</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>0.003135597645127654</v>
+        <v>0</v>
       </c>
       <c r="FH2">
         <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.00279397322504573</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>1.581845974254004E-05</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>0.0003224472224088584</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>4.2547245631249E-05</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0002294848351324755</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.001688257359955603</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.001249150539101869</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.01279178152682287</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>0.004555523862757354</v>
+        <v>0</v>
       </c>
       <c r="FR2">
         <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.004820683460579784</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0003126942999972552</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.001727538744060736</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.01094999428639498</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>0.01695556642111678</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.008946087219596116</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>0.001121086191411516</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>1.054607214389502E-05</v>
+        <v>0</v>
       </c>
       <c r="GA2">
-        <v>0.0003452369344350812</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0003141540877882489</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>2.818654196677296E-05</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.01116931062862926</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.01311607920849568</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>0.008771026941640765</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>0.009280009699803155</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>0.001568897251846122</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.0004539439613502942</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.001152324365498312</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>0.004671953309758053</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.003339861882993105</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0003366565365966807</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0001569312028336861</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0001277935859995532</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.00019843235362447</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.002810740084321817</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.006317571448226976</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.004549558088464222</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.83351708215219E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2785,16 +2785,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001662293819778376</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0003988750105139093</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0009143006511197353</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0003288024885682215</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.848439775335753E-05</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>2.669947670177699E-05</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0001159749107366948</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>8.886034386778569E-05</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -2827,31 +2827,31 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.0003190081015822474</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0007604283427680144</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0004125913055212663</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.67718771743205E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>8.359238791884331E-05</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0004849894930417911</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0005004542885251897</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0002521111806711346</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
@@ -2866,37 +2866,37 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>2.444101292787349E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.000670247913696424</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.001022450358498412</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0002415334332004708</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.827081813653998E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0003075921969124273</v>
+        <v>0</v>
       </c>
       <c r="AO3">
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.328223024447995E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0003899415486608513</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0004634917814975151</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>5.147501245036485E-05</v>
+        <v>0</v>
       </c>
       <c r="AT3">
         <v>0</v>
@@ -2908,13 +2908,13 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>2.31680205462062E-05</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.192716205983172E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>4.049922043260406E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
         <v>0</v>
@@ -2932,34 +2932,34 @@
         <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.841657537500224E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.0003232401367653024</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.0001633358728117214</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>1.741029115895731E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>9.520647066928611E-05</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.0003805801467100178</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.0004145670809311105</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.0004564865371677974</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>3.631136636434948E-05</v>
+        <v>0</v>
       </c>
       <c r="BO3">
         <v>0</v>
@@ -2968,16 +2968,16 @@
         <v>0</v>
       </c>
       <c r="BQ3">
-        <v>2.328223024447995E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.0002634657676152646</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0002075751712085714</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.0001388049103693443</v>
+        <v>0</v>
       </c>
       <c r="BU3">
         <v>0</v>
@@ -2986,37 +2986,37 @@
         <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.0001127909992040954</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.0001127909992040954</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>2.444101292787349E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>4.049922043260406E-06</v>
+        <v>0</v>
       </c>
       <c r="CA3">
         <v>0</v>
       </c>
       <c r="CB3">
-        <v>4.229217095197112E-05</v>
+        <v>0</v>
       </c>
       <c r="CC3">
         <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.0002791955891268973</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.0002257537082603129</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.0001878272643425815</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>1.993031319853723E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
         <v>0</v>
@@ -3028,238 +3028,238 @@
         <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0002644728847207247</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.0008279419996894395</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001080560757676035</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.002088500016054951</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.1365891777002078</v>
+        <v>0.4560321607069681</v>
       </c>
       <c r="CP3">
-        <v>0.01652769077111995</v>
+        <v>0</v>
       </c>
       <c r="CQ3">
-        <v>0.04414534101829789</v>
+        <v>0.05953040614886815</v>
       </c>
       <c r="CR3">
-        <v>0.009938488979475935</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.004233565629003931</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0001955860848173544</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.002436515769449601</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.001192927385645861</v>
+        <v>0</v>
       </c>
       <c r="CW3">
-        <v>0.0007604283427680144</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.003254737681240634</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>0.01253934324996057</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.04931704279754447</v>
+        <v>0.08171240230052498</v>
       </c>
       <c r="DA3">
-        <v>0.005464111080452273</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.04042652862770684</v>
+        <v>0.04358001193475289</v>
       </c>
       <c r="DC3">
-        <v>0.007894842480414511</v>
+        <v>0</v>
       </c>
       <c r="DD3">
-        <v>0.01832147941735592</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.003454816358607323</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.004270675743417439</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.001255372285818554</v>
+        <v>0</v>
       </c>
       <c r="DH3">
         <v>0</v>
       </c>
       <c r="DI3">
-        <v>0.00486390628854551</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.002333645755840068</v>
+        <v>0</v>
       </c>
       <c r="DK3">
-        <v>0.009051873084358408</v>
+        <v>0</v>
       </c>
       <c r="DL3">
         <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.002952739642489744</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.00879156847045208</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.01242409726695752</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.00253400862797496</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0008024794627708449</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.001162240922241702</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.001901930548621372</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.00376220873960375</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.0412882433590363</v>
+        <v>0.04727600092833337</v>
       </c>
       <c r="DV3">
-        <v>0.01643045187817898</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.001141753219290032</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.007026934304937033</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.001233678044139127</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.0002857005859599713</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.007933187037417756</v>
+        <v>0</v>
       </c>
       <c r="EB3">
         <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.00284883162543477</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.004526552135748792</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.002026617338260762</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.001198108202686688</v>
+        <v>0</v>
       </c>
       <c r="EG3">
         <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.004135687272559273</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.03383802847665027</v>
+        <v>0.01532121217518559</v>
       </c>
       <c r="EJ3">
-        <v>0.03286334455569375</v>
+        <v>0.01114068593709126</v>
       </c>
       <c r="EK3">
-        <v>0.00504887098061243</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.0004794219952005579</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.00649688123745956</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>0.02487153492146953</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.08654748351675229</v>
+        <v>0.2413978458951216</v>
       </c>
       <c r="EP3">
-        <v>0.04052661047933932</v>
+        <v>0.04400927397315405</v>
       </c>
       <c r="EQ3">
-        <v>0.005062548220323112</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.0006220740696595411</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.0009506805133771681</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.0004419146551576419</v>
+        <v>0</v>
       </c>
       <c r="EU3">
         <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.005597622668644522</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.009811310051438753</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.004829926765023993</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.01731842960308224</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.02819559056783159</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.006085429289085308</v>
+        <v>0</v>
       </c>
       <c r="FB3">
-        <v>0.0005669893691391142</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>1.899110054560769E-05</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.009644657268795759</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.007451688711803279</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.0013808992243458</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>0.001213407303824442</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>1.085338909856385E-05</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.003607273556973085</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.0004713070264120366</v>
+        <v>0</v>
       </c>
       <c r="FK3">
         <v>0</v>
@@ -3268,82 +3268,82 @@
         <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.001302121162526931</v>
+        <v>0</v>
       </c>
       <c r="FN3">
         <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.0005904802757867819</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.01299349680184481</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>0.01439499556701229</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>0.0002579500536802118</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>0.003658737579750271</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>0.000430520477081805</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.003333297365009229</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.01178249244516077</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>0.02463497993153987</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.01514213461463189</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>0.003655347058317886</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>6.638605781480295E-05</v>
+        <v>0</v>
       </c>
       <c r="GA3">
         <v>0</v>
       </c>
       <c r="GB3">
-        <v>3.575443156548913E-05</v>
+        <v>0</v>
       </c>
       <c r="GC3">
         <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.008615972297842814</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.01177133191137854</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>0.006988932480151576</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.007457566316585994</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.001616555426837067</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.0002779403804021943</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.002113248719611621</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>0.004477695405350536</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.003439472975253818</v>
+        <v>0</v>
       </c>
       <c r="GM3">
         <v>0</v>
@@ -3352,19 +3352,19 @@
         <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.0001185510033627013</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>2.984401952475777E-05</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.0002754368175971443</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.003739879078458598</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.003838053458482517</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0005447570994358078</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0009442381712885222</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0002863137657469967</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3564,13 +3564,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0007945599483523407</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0008026134625537968</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>4.258588822759415E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.000174604301482248</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001214604853161398</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="W4">
-        <v>0.0003358547511108618</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.0003232840041424792</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -3624,13 +3624,13 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0008905766867601428</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.001495171257951686</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0006446780599558623</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3642,13 +3642,13 @@
         <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.001707585156905268</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.001818304639176825</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0005014910580941008</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -3663,34 +3663,34 @@
         <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0006655327316656744</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.001218659026766398</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.001482779893254103</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.005355646141236658</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.04244177432407988</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="AV4">
-        <v>0.00558044927870994</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.02338291721523121</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0006545379301244133</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.01326467726755555</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.00444168474299096</v>
+        <v>0</v>
       </c>
       <c r="BA4">
         <v>0</v>
@@ -3699,40 +3699,40 @@
         <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.00246345112969137</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.005878114294124946</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.06081039016428538</v>
+        <v>0.2339280048772223</v>
       </c>
       <c r="BG4">
-        <v>0.003309547615634959</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.008044130595133087</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.0113038276203333</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.01643897356051389</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.009378489619908092</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.02250918455727042</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0004688344205764776</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.001089760387889557</v>
+        <v>0</v>
       </c>
       <c r="BO4">
         <v>0</v>
@@ -3747,40 +3747,40 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.005182998259118349</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.003421627627942939</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.001584255425518358</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0009707780188471945</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.001710958170259262</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.004910129849206793</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.001460833708962019</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.002283510793149342</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.02892153226554697</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0159735487459318</v>
+        <v>0</v>
       </c>
       <c r="CC4">
         <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0006479608786060112</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3789,61 +3789,61 @@
         <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.02207616716977734</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.008588189301086633</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.007610175787002142</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.008876669116146345</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0009946648440252515</v>
+        <v>0</v>
       </c>
       <c r="CL4">
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.0008350302895871252</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.009638568174625299</v>
+        <v>0</v>
       </c>
       <c r="CO4">
-        <v>0.014405370582326</v>
+        <v>0</v>
       </c>
       <c r="CP4">
-        <v>0.02311359090576733</v>
+        <v>0</v>
       </c>
       <c r="CQ4">
-        <v>0.02439438367640227</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.001227279223325516</v>
+        <v>0</v>
       </c>
       <c r="CS4">
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.02042662129765994</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.08356636623116651</v>
+        <v>0.4237851720690647</v>
       </c>
       <c r="CV4">
-        <v>0.06412848434358226</v>
+        <v>0.2616114564464078</v>
       </c>
       <c r="CW4">
-        <v>0.02156535405261478</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.005952029749159361</v>
+        <v>0</v>
       </c>
       <c r="CY4">
-        <v>0.001495171257951686</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
         <v>0</v>
@@ -3852,49 +3852,49 @@
         <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.006296061444692948</v>
+        <v>0</v>
       </c>
       <c r="DC4">
-        <v>0.006814343712851639</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0001237850691660016</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.005735412172724431</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.02171911364185204</v>
+        <v>0</v>
       </c>
       <c r="DG4">
-        <v>0.01720694005924411</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.001426293389744847</v>
+        <v>0</v>
       </c>
       <c r="DI4">
         <v>0</v>
       </c>
       <c r="DJ4">
-        <v>0.006379562716757304</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.008087493433520481</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.001836507407547012</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.002478824626724916</v>
+        <v>0</v>
       </c>
       <c r="DN4">
         <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.001994952645220283</v>
+        <v>0</v>
       </c>
       <c r="DP4">
-        <v>0.0002718159518598583</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.006514320654261149</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.009950636254726768</v>
+        <v>0</v>
       </c>
       <c r="DX4">
         <v>0</v>
@@ -3924,22 +3924,22 @@
         <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.0001549451012627395</v>
+        <v>0</v>
       </c>
       <c r="EA4">
         <v>0</v>
       </c>
       <c r="EB4">
-        <v>0.01043238899640332</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.02372726515174875</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.009544679516469401</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.004298195152445328</v>
+        <v>0</v>
       </c>
       <c r="EF4">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.004462542548015545</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.007114455399488587</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.009837532543720546</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.01069422220739386</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.005507870741947046</v>
+        <v>0</v>
       </c>
       <c r="EO4">
         <v>0</v>
@@ -3975,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.002736938257366654</v>
+        <v>0</v>
       </c>
       <c r="ER4">
-        <v>0.004848661263303096</v>
+        <v>0</v>
       </c>
       <c r="ES4">
         <v>0</v>
@@ -3996,19 +3996,19 @@
         <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.00217736863614591</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.006704238695988043</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.009527121763326221</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.006257322036062488</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0007511949837870614</v>
+        <v>0</v>
       </c>
       <c r="FC4">
         <v>0</v>
@@ -4017,28 +4017,28 @@
         <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.002985932151551052</v>
+        <v>0</v>
       </c>
       <c r="FF4">
         <v>0</v>
       </c>
       <c r="FG4">
-        <v>0.0008424154006048707</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.01413450671054099</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.02552772153474122</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.02229872875624226</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>0.01688526501223797</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.007968504685944473</v>
+        <v>0</v>
       </c>
       <c r="FM4">
         <v>0</v>
@@ -4053,19 +4053,19 @@
         <v>0</v>
       </c>
       <c r="FQ4">
-        <v>0.0005286198569261483</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0008350302895871252</v>
+        <v>0</v>
       </c>
       <c r="FS4">
-        <v>0.002952361145639974</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>0.007881560012847811</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.006218689383942537</v>
+        <v>0</v>
       </c>
       <c r="FV4">
         <v>0</v>
@@ -4083,37 +4083,37 @@
         <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.001757316233762213</v>
+        <v>0</v>
       </c>
       <c r="GB4">
         <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002613095557589634</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.01056701074661861</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.007670993762473878</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>0.00116556310555469</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>0.0005648798064336404</v>
+        <v>0</v>
       </c>
       <c r="GH4">
-        <v>0.004718207940777955</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.003886292725596481</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.001429471801870569</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.003220260789744881</v>
+        <v>0</v>
       </c>
       <c r="GL4">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.0001608754142310099</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,16 +4313,16 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000333823319640274</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.535634257860449E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>3.619823827434903E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4331,37 +4331,37 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0004733847793157996</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.001336293021220809</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0009605774191160931</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0004861704169429892</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.579206332560891E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0002959931967618227</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0009573508139362513</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.001224269328944997</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.000376804114277828</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2.979509331428662E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -4370,40 +4370,40 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>3.801204483685396E-05</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0004448059848683436</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0009676404023107032</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0004980684604254016</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>9.335517073941217E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6.478676808140864E-05</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>4.524900213923579E-05</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0003148782795548</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0007654070905373761</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0002366254388627831</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>9.813797921125067E-07</v>
+        <v>0</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4412,58 +4412,58 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0003937756636658873</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0005366901165144497</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0002710177275349713</v>
+        <v>0</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
-        <v>1.145926961320526E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0001365582022270057</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0001598462326867054</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0003119080253792932</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0005155877348792949</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0006523751927062616</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.000424944851483734</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0001515110985440533</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>2.137462834075155E-06</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>9.067949198328204E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.0004557421162481747</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.0006669102966718537</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.0007887495743777636</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.0003402056658730504</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
@@ -4472,37 +4472,37 @@
         <v>0</v>
       </c>
       <c r="BC5">
-        <v>7.44913966692189E-05</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.0005374542513530497</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.0005019345292671765</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.0001131770799158262</v>
+        <v>0</v>
       </c>
       <c r="BG5">
         <v>0</v>
       </c>
       <c r="BH5">
-        <v>7.996532478263018E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.0004602501229874664</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.0006758529919857875</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.000772761064034496</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.0004882303947977127</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>9.228196853015827E-05</v>
+        <v>0</v>
       </c>
       <c r="BN5">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.0001786988676473107</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.0004988072368739969</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.0004629745088383771</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.0003039064080944323</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.0001347287726340994</v>
+        <v>0</v>
       </c>
       <c r="BU5">
         <v>0</v>
@@ -4532,37 +4532,37 @@
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.464417595355153E-05</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.0004507564608541379</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.0006932985746149629</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0005180099913181074</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.01360443833585E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>3.10160336450943E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.000674908338938769</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.0009482201777071474</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.0007253556797430508</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.0002404117969230729</v>
+        <v>0</v>
       </c>
       <c r="CH5">
         <v>0</v>
@@ -4571,292 +4571,292 @@
         <v>0</v>
       </c>
       <c r="CJ5">
-        <v>4.076303124502192E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.0004046144414496818</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.0005821882287318424</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.0005855426357537842</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.00309210228976827</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1066189503435264</v>
+        <v>0.3677001884079104</v>
       </c>
       <c r="CP5">
-        <v>0.003056200929467229</v>
+        <v>0</v>
       </c>
       <c r="CQ5">
-        <v>0.05633239647630035</v>
+        <v>0.1256044813342048</v>
       </c>
       <c r="CR5">
-        <v>0.009266113745821368</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.007438315128616354</v>
+        <v>0</v>
       </c>
       <c r="CT5">
-        <v>0.001334989351541104</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>0.0005774066523283354</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.001873083985557875</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.001708257480201893</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.0002816477202311662</v>
+        <v>0</v>
       </c>
       <c r="CY5">
-        <v>0.01242206233157722</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.04715026181072044</v>
+        <v>0.08139872028366781</v>
       </c>
       <c r="DA5">
-        <v>0.01265803724845985</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.01568877588012652</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.02427646080323543</v>
+        <v>0</v>
       </c>
       <c r="DD5">
-        <v>0.007003056693722464</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>6.867984143727092E-05</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.006375388571226263</v>
+        <v>0</v>
       </c>
       <c r="DG5">
-        <v>0.001916075192182723</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.0002133345201117487</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.007499749287283714</v>
+        <v>0</v>
       </c>
       <c r="DJ5">
-        <v>0.0001598462326867054</v>
+        <v>0</v>
       </c>
       <c r="DK5">
-        <v>0.008211027990502105</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.001469253695007721</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.006555893954015297</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.01411920969619259</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.011385354087294</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>0.0005699641314940735</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.0003977285125336729</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>4.361859601713148E-05</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.004246049813948985</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0009615788280977306</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.04358466615804046</v>
+        <v>0.06423279153552414</v>
       </c>
       <c r="DV5">
-        <v>0.01966872015228611</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.005068721834809933</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01396678466551844</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.0006686944124073516</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
         <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.01100971059148345</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.003095827680643989</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.003992161431438803</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.006124825864308487</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.002739339817713321</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.002240439600075972</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>6.794511465589674E-05</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>0.006836700605829584</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.03118221693035422</v>
+        <v>0.004523396392832791</v>
       </c>
       <c r="EJ5">
-        <v>0.03619185625128171</v>
+        <v>0.02864141761946972</v>
       </c>
       <c r="EK5">
-        <v>0.008146761488521009</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.0001936497643780497</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.004040995166685542</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.01592852021917934</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.07879912008724625</v>
+        <v>0.2337665429577267</v>
       </c>
       <c r="EP5">
-        <v>0.04956357767499247</v>
+        <v>0.09301720207694718</v>
       </c>
       <c r="EQ5">
-        <v>0.007451732150768876</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.0004815499991168216</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0001665612474679299</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.0005320830393625936</v>
+        <v>0</v>
       </c>
       <c r="EU5">
         <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.004201778266151367</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.01285846749892235</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.004473104859078576</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.00830182940675561</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.02092529755463877</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.006404564353274974</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>0.001276695856237997</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>4.583945573876574E-06</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.007828360695309454</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.007112403061118064</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.000403193331420567</v>
+        <v>0</v>
       </c>
       <c r="FG5">
-        <v>0.0007011858317212432</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.0005919515017524519</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.003380785796800465</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.002823017253290881</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0001280963165300117</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.0003681183254088708</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.0008284040571909041</v>
+        <v>0</v>
       </c>
       <c r="FN5">
         <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.0002092167053735008</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.01281469170714438</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>0.0188522961317152</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0002929269119488978</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.001195609096800608</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>0.001853293231551977</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.0005846583540550132</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.01180681739644247</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.03047430076378897</v>
+        <v>0.001115259391716507</v>
       </c>
       <c r="FX5">
-        <v>0.01640043773639819</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.00368427654341572</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0003970606709044305</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>0.0002448270854709529</v>
+        <v>0</v>
       </c>
       <c r="GB5">
         <v>0</v>
@@ -4865,52 +4865,52 @@
         <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.007421082027279773</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.01498041334126409</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>0.009960235796533263</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>0.007371408061826578</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.001985028300316587</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>2.777977793658302E-05</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.0004549527341076978</v>
+        <v>0</v>
       </c>
       <c r="GK5">
-        <v>0.002592742874204389</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.003797447372099602</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>3.831399246837852E-05</v>
+        <v>0</v>
       </c>
       <c r="GN5">
         <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0004637700614194327</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0001342971245633739</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.0008293380053819269</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.005899003291467309</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.008587492528569692</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,46 +5086,46 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002882637926949426</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.000258547340727822</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.68270684934488E-05</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0004459261407399437</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.00108580798207137</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0008628069120371261</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.000247647837448933</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.18313809483712E-05</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0005126987261202899</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0008797787938697894</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0007184566937308229</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0002605740230338979</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -5137,40 +5137,40 @@
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001361800892184102</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0008967535538549904</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.001523280324619475</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.000723529628784197</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>7.172586577053314E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.376856548361921E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.00025217558399279</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0007309392815400698</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.00115856969091478</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0004002775345126154</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>3.025811323025863E-05</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -5179,478 +5179,478 @@
         <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0001833138120916452</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0003228956864035047</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.000231025792038168</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
       </c>
       <c r="AK6">
-        <v>8.56847445621363E-05</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.000111089059838956</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>9.269483728880988E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.000154840591195632</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0003423802255918627</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0004640674884056017</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0003783816368617202</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>2.620155648529249E-05</v>
+        <v>0</v>
       </c>
       <c r="AS6">
         <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0003556378012574626</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.06046469251539723</v>
+        <v>0.2729723234517045</v>
       </c>
       <c r="AV6">
-        <v>0.01056653935198946</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.05151308664543033</v>
+        <v>0.1923508606242812</v>
       </c>
       <c r="AX6">
-        <v>0.01551968086628486</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.007835096111476984</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0002344486500386579</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.001449261688321728</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.001848592371030311</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>2.332007495172799E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.00150825807916342</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.02033885947516282</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0430700312082552</v>
+        <v>0.1163095904917518</v>
       </c>
       <c r="BG6">
-        <v>0.003697759486982736</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.02304744857437186</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.01495981478517323</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.002318327193369114</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.002360909963335724</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.007091704533173603</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0005085597314384106</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0002052449620793903</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.001667169334076841</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.002081003289072382</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.01034188545757491</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.001722563706954316</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.001248915704146187</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.004981833555292038</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.00702204116560034</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.003011085426646473</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.001764397452818234</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.003758616915407539</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.004151639110419564</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0008744264264335124</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.03122053129083048</v>
+        <v>0.00958862545000725</v>
       </c>
       <c r="CB6">
-        <v>0.01751467129134236</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>5.312822022949856E-05</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.001966956897310679</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.000170605671720076</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0003696232375474805</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.005325115236372908</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>9.771329877684915E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.001788394904995063</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.001354468828785098</v>
+        <v>0</v>
       </c>
       <c r="CK6">
         <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.006233019095316371</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.001023411144577793</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.004298996897492906</v>
+        <v>0</v>
       </c>
       <c r="CO6">
-        <v>0.02630168709004289</v>
+        <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.03321534560515579</v>
+        <v>0.02755465863178139</v>
       </c>
       <c r="CQ6">
-        <v>0.01155942348237587</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0006498320171925618</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.00206686693091661</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.01728935421422772</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.06250363313478077</v>
+        <v>0.2913357744057355</v>
       </c>
       <c r="CV6">
-        <v>0.0391726483747802</v>
+        <v>0.08120832376960502</v>
       </c>
       <c r="CW6">
-        <v>0.008652039582320447</v>
+        <v>0</v>
       </c>
       <c r="CX6">
-        <v>0.003659795447395969</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.00391548206551699</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.0002747381563680043</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.0001162127550370834</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.003212839994775445</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>0.01036798506808589</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.009441380966520556</v>
+        <v>0</v>
       </c>
       <c r="DE6">
-        <v>0.01830351855914529</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.03111962688571324</v>
+        <v>0.008679843175133341</v>
       </c>
       <c r="DG6">
-        <v>0.01008071022269172</v>
+        <v>0</v>
       </c>
       <c r="DH6">
         <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.0002041391275698046</v>
+        <v>0</v>
       </c>
       <c r="DJ6">
-        <v>0.01023256295945884</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.0110298212758313</v>
+        <v>0</v>
       </c>
       <c r="DL6">
-        <v>0.004224594641703091</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.003438152845232509</v>
+        <v>0</v>
       </c>
       <c r="DN6">
         <v>0</v>
       </c>
       <c r="DO6">
-        <v>0.001540141065484919</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.001503619624381572</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.0006964595575675926</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001106757913503629</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>4.566499962062787E-05</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.000297171463465789</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.0002053578540904611</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.01032257063881503</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.01191925796212761</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.001396902357485513</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.004172054269034182</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.003056910747414219</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>4.743859570933695E-05</v>
+        <v>0</v>
       </c>
       <c r="EB6">
-        <v>0.009632150149714152</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.02233964545283002</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.01516220224495635</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>0.007418999385159524</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0004135198036397201</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.0007238713137950624</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.0005563886992284616</v>
+        <v>0</v>
       </c>
       <c r="EI6">
         <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.008529477582531643</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.01473156118739265</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01297079702980467</v>
+        <v>0</v>
       </c>
       <c r="EM6">
-        <v>0.01069060885964583</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.002851274900017124</v>
+        <v>0</v>
       </c>
       <c r="EO6">
         <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.0004544384680756932</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.003943545562278689</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>0.005562190874854601</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>0.001740774764279511</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.001013587084127848</v>
+        <v>0</v>
       </c>
       <c r="EU6">
         <v>0</v>
       </c>
       <c r="EV6">
-        <v>7.294758114190171E-05</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>0.0002735718605281892</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.001583422844106279</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.002098251171644538</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.0007254994122285689</v>
+        <v>0</v>
       </c>
       <c r="FA6">
         <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.001365774634618362</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.0002323112293041792</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>0.001001506189803527</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.006268357072299382</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.002498398203072863</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0002736998578083471</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.006383610577336887</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0137179946126175</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.01326671740262897</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.005146381963790897</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.001649340789261969</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>3.23355647382111E-05</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>2.277753011588781E-05</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.0009221702170100044</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0003471253531600682</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>0.00126706477049365</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0043692975846473</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>0.01040618902080726</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.01304419646076803</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.005251296058058709</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.0002660126646020086</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>5.257585143384314E-05</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>0.0002139758679924671</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.001237650252829271</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>0.00441171018132926</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.006408882970580088</v>
+        <v>0</v>
       </c>
       <c r="GB6">
         <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.002488494943110783</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.006647631761652317</v>
+        <v>0</v>
       </c>
       <c r="GE6">
-        <v>0.005030260585065146</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>0.001257843210017213</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0001798391775358905</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.0002032271356272761</v>
+        <v>0</v>
       </c>
       <c r="GI6">
         <v>0</v>
@@ -5659,19 +5659,19 @@
         <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.0001862306385459873</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0003169624152012218</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.002040764100095091</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>0.002891622975744262</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0007658624221457973</v>
+        <v>0</v>
       </c>
       <c r="GP6">
         <v>0</v>
@@ -5683,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.0001937950876037225</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6654,763 +6654,763 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5.443006462291311E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.188669151128332E-05</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>4.670156690736667E-05</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.679175736160764E-05</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.901125521322893E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>6.901125521322893E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>7.421746211686326E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.512064270607827E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.806659303744608E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001248151312628071</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001662192189618697</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001866181923627657</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.000187054958416608</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.000187054958416608</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.000187054958416608</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.000187054958416608</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0001889260080460764</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.0002012285979184786</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002073668324933131</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002073668324933131</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002073668324933131</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002073668324933131</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002073668324933131</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0002073668324933131</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0002104922874183919</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0002136177423434706</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0002136177423434706</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0002177456236376856</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0002177456236376856</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0002177456236376856</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0002184586807390396</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0002262883385889267</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0002466873119898227</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0002566132269484945</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0002603563037948167</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0002612594843840317</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0002612594843840317</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0002623265259676935</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0002623265259676935</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0002623265259676935</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0002699464302429543</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0002778057618869918</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0002778057618869918</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0002778057618869918</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0002778057618869918</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0002839712560523528</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.000286190753903974</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.000286190753903974</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.000286190753903974</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.000286190753903974</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0002945066151551599</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0003041711948226535</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0003203079142365592</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0003248312737001515</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0003291555596137448</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0003291555596137448</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0003291555596137448</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.0003291555596137448</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0003305226762026352</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0003305226762026352</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0003305226762026352</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.0003318897927915256</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0003320609413192409</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.0003443635311916432</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.0003497803741098524</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0003497803741098524</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0003497803741098524</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0003497803741098524</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0003545054751536153</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.0003545054751536153</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0003545054751536153</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0003561638685613154</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0003561638685613154</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0003561638685613154</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.003316184116218798</v>
+        <v>0</v>
       </c>
       <c r="CO2">
-        <v>0.1144750524834499</v>
+        <v>0.3329355347982855</v>
       </c>
       <c r="CP2">
-        <v>0.159128794091468</v>
+        <v>0.3930089078091277</v>
       </c>
       <c r="CQ2">
-        <v>0.2031927186406195</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CR2">
-        <v>0.2183578064016858</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CS2">
-        <v>0.2268393009942388</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CT2">
-        <v>0.2299748986393664</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CU2">
-        <v>0.2491418755800887</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CV2">
-        <v>0.255143352236271</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CW2">
-        <v>0.2569352978910056</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CX2">
-        <v>0.2603701552348831</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CY2">
-        <v>0.2751756237043543</v>
+        <v>0.4506623356881584</v>
       </c>
       <c r="CZ2">
-        <v>0.3494861709930094</v>
+        <v>0.6324138484765133</v>
       </c>
       <c r="DA2">
-        <v>0.3501267984471786</v>
+        <v>0.6324138484765133</v>
       </c>
       <c r="DB2">
-        <v>0.4054015952826163</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DC2">
-        <v>0.4057297784447321</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DD2">
-        <v>0.4173813004844157</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DE2">
-        <v>0.425102323636748</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DF2">
-        <v>0.4320335353211118</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DG2">
-        <v>0.4320570972464322</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DH2">
-        <v>0.4328235787163099</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DI2">
-        <v>0.4339731153919791</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DJ2">
-        <v>0.4374941731118684</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DK2">
-        <v>0.4440678975675971</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DL2">
-        <v>0.4440678975675971</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DM2">
-        <v>0.4458471040711074</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DN2">
-        <v>0.4536303145275077</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DO2">
-        <v>0.4585752485343711</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DP2">
-        <v>0.4603906167666529</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DQ2">
-        <v>0.4625910062549191</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DR2">
-        <v>0.4659529098270045</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DS2">
-        <v>0.4662242232761877</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DT2">
-        <v>0.472603896986084</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="DU2">
-        <v>0.5088284611480567</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="DV2">
-        <v>0.5124573024044463</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="DW2">
-        <v>0.5157029860339815</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="DX2">
-        <v>0.521044383101249</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="DY2">
-        <v>0.5211888279288824</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="DZ2">
-        <v>0.5212019999111986</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EA2">
-        <v>0.5255142443847183</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EB2">
-        <v>0.5275304728577707</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EC2">
-        <v>0.5331119306095603</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="ED2">
-        <v>0.5381573508147672</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EE2">
-        <v>0.5387365069618356</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EF2">
-        <v>0.5424920976103321</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EG2">
-        <v>0.5425260542660436</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EH2">
-        <v>0.5486858746659952</v>
+        <v>0.761553593067542</v>
       </c>
       <c r="EI2">
-        <v>0.5813238256881047</v>
+        <v>0.7723276901484721</v>
       </c>
       <c r="EJ2">
-        <v>0.6076289734313142</v>
+        <v>0.7723276901484721</v>
       </c>
       <c r="EK2">
-        <v>0.6112710343785056</v>
+        <v>0.7723276901484721</v>
       </c>
       <c r="EL2">
-        <v>0.6126060530279651</v>
+        <v>0.7723276901484721</v>
       </c>
       <c r="EM2">
-        <v>0.6186794470392242</v>
+        <v>0.7723276901484721</v>
       </c>
       <c r="EN2">
-        <v>0.6482125481090588</v>
+        <v>0.7723276901484721</v>
       </c>
       <c r="EO2">
-        <v>0.7279878699126734</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EP2">
-        <v>0.7512045138531352</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EQ2">
-        <v>0.754353768206944</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="ER2">
-        <v>0.7557093522094546</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="ES2">
-        <v>0.7566293945285443</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="ET2">
-        <v>0.756731162494225</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EU2">
-        <v>0.7568386469148983</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EV2">
-        <v>0.762744969631185</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EW2">
-        <v>0.7669512887946406</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EX2">
-        <v>0.7727848318259277</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EY2">
-        <v>0.7978104366409227</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="EZ2">
-        <v>0.833549973988195</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FA2">
-        <v>0.8361268249648927</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FB2">
-        <v>0.8361906299587751</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FC2">
-        <v>0.8366643714603762</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FD2">
-        <v>0.8488896435485667</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FE2">
-        <v>0.8566578207099756</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FF2">
-        <v>0.8596225532687003</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FG2">
-        <v>0.8627581509138279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FH2">
-        <v>0.8627581509138279</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FI2">
-        <v>0.8655521241388736</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FJ2">
-        <v>0.8655679425986161</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FK2">
-        <v>0.865890389821025</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FL2">
-        <v>0.8659329370666562</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FM2">
-        <v>0.8661624219017887</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FN2">
-        <v>0.8678506792617443</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FO2">
-        <v>0.8690998298008462</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FP2">
-        <v>0.8818916113276691</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FQ2">
-        <v>0.8864471351904265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FR2">
-        <v>0.8864471351904265</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FS2">
-        <v>0.8912678186510062</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FT2">
-        <v>0.8915805129510035</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FU2">
-        <v>0.8933080516950642</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FV2">
-        <v>0.9042580459814592</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FW2">
-        <v>0.9212136124025759</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FX2">
-        <v>0.930159699622172</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FY2">
-        <v>0.9312807858135835</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="FZ2">
-        <v>0.9312913318857274</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GA2">
-        <v>0.9316365688201625</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GB2">
-        <v>0.9319507229079508</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GC2">
-        <v>0.9319789094499176</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GD2">
-        <v>0.9431482200785468</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GE2">
-        <v>0.9562642992870425</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GF2">
-        <v>0.9650353262286833</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GG2">
-        <v>0.9743153359284864</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GH2">
-        <v>0.9758842331803326</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GI2">
-        <v>0.9763381771416829</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GJ2">
-        <v>0.9774905015071812</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GK2">
-        <v>0.9821624548169392</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GL2">
-        <v>0.9855023166999323</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GM2">
-        <v>0.9858389732365289</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GN2">
-        <v>0.9859959044393626</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GO2">
-        <v>0.9861236980253621</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GP2">
-        <v>0.9863221303789866</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GQ2">
-        <v>0.9891328704633084</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GR2">
-        <v>0.9954504419115354</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7424,595 +7424,595 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.83351708215219E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4.83351708215219E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.83351708215219E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>4.83351708215219E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0002145645527993595</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0006134395633132688</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.001527740214433004</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.001856542703001225</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.001856542703001225</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.001856542703001225</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.001875027100754583</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.00190172657745636</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.00190172657745636</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00190172657745636</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.002017701488193055</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.002106561832060841</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.002106561832060841</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002106561832060841</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.002425569933643088</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.003185998276411103</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.003598589581932369</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.003645361459106689</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.003645361459106689</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.003728953847025532</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.004213943340067324</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.004714397628592513</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.004966508809263648</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.004966508809263648</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.004966508809263648</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.004966508809263648</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.004966508809263648</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.004990949822191521</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.005661197735887945</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.006683648094386358</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.006925181527586828</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.007003452345723369</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.007311044542635796</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.007311044542635796</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.007334326772880276</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.007724268321541127</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.008187760103038642</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.008239235115489007</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.008239235115489007</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.008239235115489007</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.008239235115489007</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.008262403136035212</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.008274330298095043</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.008278380220138304</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.008278380220138304</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.008278380220138304</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.008278380220138304</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.008278380220138304</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.008278380220138304</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.008356796795513306</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.008680036932278609</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.00884337280509033</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.008845113834206225</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.008845113834206225</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.00894032030487551</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.009320900451585528</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.009735467532516638</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.01019195406968443</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.01022826543604878</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.01022826543604878</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.01022826543604878</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.01025154766629326</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.01051501343390853</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.0107225886051171</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.01086139351548644</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.01086139351548644</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.01086139351548644</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.01097418451469054</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.01108697551389463</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.01111141652682251</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.01111546644886577</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.01111546644886577</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.01115775861981774</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.01115775861981774</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.01143695420894464</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.01166270791720495</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.01185053518154753</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.01187046549474607</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.01187046549474607</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.01187046549474607</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.01187046549474607</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.0121349383794668</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.01296288037915624</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.01404344113683227</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.01613194115288722</v>
+        <v>0</v>
       </c>
       <c r="CO3">
-        <v>0.152721118853095</v>
+        <v>0.4560321607069681</v>
       </c>
       <c r="CP3">
-        <v>0.169248809624215</v>
+        <v>0.4560321607069681</v>
       </c>
       <c r="CQ3">
-        <v>0.2133941506425129</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CR3">
-        <v>0.2233326396219888</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CS3">
-        <v>0.2275662052509927</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CT3">
-        <v>0.2277617913358101</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CU3">
-        <v>0.2301983071052597</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CV3">
-        <v>0.2313912344909055</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CW3">
-        <v>0.2321516628336736</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CX3">
-        <v>0.2354064005149142</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CY3">
-        <v>0.2479457437648747</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="CZ3">
-        <v>0.2972627865624192</v>
+        <v>0.5972749691563612</v>
       </c>
       <c r="DA3">
-        <v>0.3027268976428715</v>
+        <v>0.5972749691563612</v>
       </c>
       <c r="DB3">
-        <v>0.3431534262705783</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DC3">
-        <v>0.3510482687509928</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DD3">
-        <v>0.3693697481683487</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DE3">
-        <v>0.3728245645269561</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DF3">
-        <v>0.3770952402703735</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DG3">
-        <v>0.3783506125561921</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DH3">
-        <v>0.3783506125561921</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DI3">
-        <v>0.3832145188447376</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DJ3">
-        <v>0.3855481646005776</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DK3">
-        <v>0.394600037684936</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DL3">
-        <v>0.394600037684936</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DM3">
-        <v>0.3975527773274258</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DN3">
-        <v>0.4063443457978779</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DO3">
-        <v>0.4187684430648354</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DP3">
-        <v>0.4213024516928104</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DQ3">
-        <v>0.4221049311555812</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DR3">
-        <v>0.4232671720778229</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DS3">
-        <v>0.4251691026264443</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DT3">
-        <v>0.4289313113660481</v>
+        <v>0.6408549810911142</v>
       </c>
       <c r="DU3">
-        <v>0.4702195547250844</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="DV3">
-        <v>0.4866500066032634</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="DW3">
-        <v>0.4877917598225534</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="DX3">
-        <v>0.4948186941274905</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="DY3">
-        <v>0.4960523721716296</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="DZ3">
-        <v>0.4963380727575896</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EA3">
-        <v>0.5042712597950073</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EB3">
-        <v>0.5042712597950073</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EC3">
-        <v>0.5071200914204421</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="ED3">
-        <v>0.5116466435561909</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EE3">
-        <v>0.5136732608944518</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EF3">
-        <v>0.5148713690971385</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EG3">
-        <v>0.5148713690971385</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EH3">
-        <v>0.5190070563696978</v>
+        <v>0.6881309820194476</v>
       </c>
       <c r="EI3">
-        <v>0.5528450848463481</v>
+        <v>0.7034521941946331</v>
       </c>
       <c r="EJ3">
-        <v>0.5857084294020418</v>
+        <v>0.7145928801317244</v>
       </c>
       <c r="EK3">
-        <v>0.5907573003826543</v>
+        <v>0.7145928801317244</v>
       </c>
       <c r="EL3">
-        <v>0.5912367223778549</v>
+        <v>0.7145928801317244</v>
       </c>
       <c r="EM3">
-        <v>0.5977336036153144</v>
+        <v>0.7145928801317244</v>
       </c>
       <c r="EN3">
-        <v>0.6226051385367839</v>
+        <v>0.7145928801317244</v>
       </c>
       <c r="EO3">
-        <v>0.7091526220535362</v>
+        <v>0.955990726026846</v>
       </c>
       <c r="EP3">
-        <v>0.7496792325328756</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.7547417807531988</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.7553638548228583</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.7563145353362355</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.7567564499913931</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.7567564499913931</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.7623540726600376</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.7721653827114764</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.7769953094765004</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.7943137390795827</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8225093296474143</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.8285947589364996</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.8291617483056387</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.8291807394061843</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.83882539667498</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.8462770853867833</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.8476579846111291</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.8488713919149535</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.8488822453040521</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.8524895188610252</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.8529608258874373</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.8529608258874373</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.8529608258874373</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.8542629470499642</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.8542629470499642</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.854853427325751</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.8678469241275958</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.8822419196946081</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.8824998697482883</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.8861586073280386</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.8865891278051204</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.8899224251701296</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9017049176152905</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.9263398975468303</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9414820321614622</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9451373792197801</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.945203765277595</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.945203765277595</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9452395197091604</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9452395197091604</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9538554920070033</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9656268239183818</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9726157563985334</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9800733227151194</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9816898781419564</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9819678185223586</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9840810672419702</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9885587626473208</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9919982356225746</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9919982356225746</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9919982356225746</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9921167866259373</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.992146630645462</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9924220674630592</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9961619465415178</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8194,598 +8194,598 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0005447570994358078</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.00148899527072433</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.001775309036471327</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.001775309036471327</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001775309036471327</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001775309036471327</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.001775309036471327</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.002569868984823667</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.003372482447377464</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.003415068335605058</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.003415068335605058</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.003415068335605058</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.003415068335605058</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.003589672637087306</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.003711133122403446</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.003711133122403446</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.003711133122403446</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.003711133122403446</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.003711133122403446</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.003711133122403446</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.004046987873514308</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.004370271877656787</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.004370271877656787</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.004370271877656787</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.004370271877656787</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.004370271877656787</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.004370271877656787</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.00526084856441693</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.006756019822368616</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.007400697882324479</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.007400697882324479</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.007400697882324479</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.007400697882324479</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.009108283039229746</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.01092658767840657</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.01142807873650067</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.01142807873650067</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.01142807873650067</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.01142807873650067</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.01142807873650067</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.01209361146816634</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.01331227049493274</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.01479505038818685</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0201506965294235</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.06259247085350338</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="AV4">
-        <v>0.06817292013221332</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="AW4">
-        <v>0.09155583734744453</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="AX4">
-        <v>0.09221037527756895</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="AY4">
-        <v>0.1054750525451245</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="AZ4">
-        <v>0.1099167372881155</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="BA4">
-        <v>0.1099167372881155</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="BB4">
-        <v>0.1099167372881155</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="BC4">
-        <v>0.1123801884178068</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="BD4">
-        <v>0.1123801884178068</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="BE4">
-        <v>0.1182583027119318</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="BF4">
-        <v>0.1790686928762172</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BG4">
-        <v>0.1823782404918521</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BH4">
-        <v>0.1904223710869852</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BI4">
-        <v>0.2017261987073185</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BJ4">
-        <v>0.2181651722678324</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BK4">
-        <v>0.2275436618877405</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BL4">
-        <v>0.2500528464450109</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BM4">
-        <v>0.2505216808655874</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BN4">
-        <v>0.251611441253477</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BO4">
-        <v>0.251611441253477</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BP4">
-        <v>0.251611441253477</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BQ4">
-        <v>0.251611441253477</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BR4">
-        <v>0.251611441253477</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BS4">
-        <v>0.2567944395125953</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BT4">
-        <v>0.2602160671405382</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BU4">
-        <v>0.2618003225660566</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BV4">
-        <v>0.2627711005849038</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BW4">
-        <v>0.2644820587551631</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BX4">
-        <v>0.2693921886043699</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BY4">
-        <v>0.2708530223133319</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="BZ4">
-        <v>0.2731365331064812</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CA4">
-        <v>0.3020580653720282</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CB4">
-        <v>0.31803161411796</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CC4">
-        <v>0.31803161411796</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CD4">
-        <v>0.318679574996566</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CE4">
-        <v>0.318679574996566</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CF4">
-        <v>0.318679574996566</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CG4">
-        <v>0.3407557421663434</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CH4">
-        <v>0.34934393146743</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CI4">
-        <v>0.3569541072544321</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CJ4">
-        <v>0.3658307763705784</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CK4">
-        <v>0.3668254412146037</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CL4">
-        <v>0.3668254412146037</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CM4">
-        <v>0.3676604715041908</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CN4">
-        <v>0.3772990396788161</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CO4">
-        <v>0.3917044102611421</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CP4">
-        <v>0.4148180011669094</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CQ4">
-        <v>0.4392123848433117</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CR4">
-        <v>0.4404396640666372</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CS4">
-        <v>0.4404396640666372</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CT4">
-        <v>0.4608662853642971</v>
+        <v>0.3146033714845276</v>
       </c>
       <c r="CU4">
-        <v>0.5444326515954636</v>
+        <v>0.7383885435535923</v>
       </c>
       <c r="CV4">
-        <v>0.6085611359390459</v>
+        <v>1</v>
       </c>
       <c r="CW4">
-        <v>0.6301264899916608</v>
+        <v>1</v>
       </c>
       <c r="CX4">
-        <v>0.6360785197408201</v>
+        <v>1</v>
       </c>
       <c r="CY4">
-        <v>0.6375736909987718</v>
+        <v>1</v>
       </c>
       <c r="CZ4">
-        <v>0.6375736909987718</v>
+        <v>1</v>
       </c>
       <c r="DA4">
-        <v>0.6375736909987718</v>
+        <v>1</v>
       </c>
       <c r="DB4">
-        <v>0.6438697524434648</v>
+        <v>1</v>
       </c>
       <c r="DC4">
-        <v>0.6506840961563164</v>
+        <v>1</v>
       </c>
       <c r="DD4">
-        <v>0.6508078812254824</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.6565432933982068</v>
+        <v>1</v>
       </c>
       <c r="DF4">
-        <v>0.6782624070400589</v>
+        <v>1</v>
       </c>
       <c r="DG4">
-        <v>0.695469347099303</v>
+        <v>1</v>
       </c>
       <c r="DH4">
-        <v>0.6968956404890478</v>
+        <v>1</v>
       </c>
       <c r="DI4">
-        <v>0.6968956404890478</v>
+        <v>1</v>
       </c>
       <c r="DJ4">
-        <v>0.7032752032058052</v>
+        <v>1</v>
       </c>
       <c r="DK4">
-        <v>0.7113626966393256</v>
+        <v>1</v>
       </c>
       <c r="DL4">
-        <v>0.7131992040468726</v>
+        <v>1</v>
       </c>
       <c r="DM4">
-        <v>0.7156780286735975</v>
+        <v>1</v>
       </c>
       <c r="DN4">
-        <v>0.7156780286735975</v>
+        <v>1</v>
       </c>
       <c r="DO4">
-        <v>0.7176729813188178</v>
+        <v>1</v>
       </c>
       <c r="DP4">
-        <v>0.7179447972706777</v>
+        <v>1</v>
       </c>
       <c r="DQ4">
-        <v>0.7179447972706777</v>
+        <v>1</v>
       </c>
       <c r="DR4">
-        <v>0.7179447972706777</v>
+        <v>1</v>
       </c>
       <c r="DS4">
-        <v>0.7179447972706777</v>
+        <v>1</v>
       </c>
       <c r="DT4">
-        <v>0.7179447972706777</v>
+        <v>1</v>
       </c>
       <c r="DU4">
-        <v>0.7179447972706777</v>
+        <v>1</v>
       </c>
       <c r="DV4">
-        <v>0.7244591179249389</v>
+        <v>1</v>
       </c>
       <c r="DW4">
-        <v>0.7344097541796657</v>
+        <v>1</v>
       </c>
       <c r="DX4">
-        <v>0.7344097541796657</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0.7344097541796657</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0.7345646992809285</v>
+        <v>1</v>
       </c>
       <c r="EA4">
-        <v>0.7345646992809285</v>
+        <v>1</v>
       </c>
       <c r="EB4">
-        <v>0.7449970882773318</v>
+        <v>1</v>
       </c>
       <c r="EC4">
-        <v>0.7687243534290805</v>
+        <v>1</v>
       </c>
       <c r="ED4">
-        <v>0.7782690329455499</v>
+        <v>1</v>
       </c>
       <c r="EE4">
-        <v>0.7825672280979953</v>
+        <v>1</v>
       </c>
       <c r="EF4">
-        <v>0.7825672280979953</v>
+        <v>1</v>
       </c>
       <c r="EG4">
-        <v>0.7825672280979953</v>
+        <v>1</v>
       </c>
       <c r="EH4">
-        <v>0.7825672280979953</v>
+        <v>1</v>
       </c>
       <c r="EI4">
-        <v>0.7825672280979953</v>
+        <v>1</v>
       </c>
       <c r="EJ4">
-        <v>0.7870297706460109</v>
+        <v>1</v>
       </c>
       <c r="EK4">
-        <v>0.7941442260454995</v>
+        <v>1</v>
       </c>
       <c r="EL4">
-        <v>0.8039817585892201</v>
+        <v>1</v>
       </c>
       <c r="EM4">
-        <v>0.814675980796614</v>
+        <v>1</v>
       </c>
       <c r="EN4">
-        <v>0.820183851538561</v>
+        <v>1</v>
       </c>
       <c r="EO4">
-        <v>0.820183851538561</v>
+        <v>1</v>
       </c>
       <c r="EP4">
-        <v>0.820183851538561</v>
+        <v>1</v>
       </c>
       <c r="EQ4">
-        <v>0.8229207897959276</v>
+        <v>1</v>
       </c>
       <c r="ER4">
-        <v>0.8277694510592307</v>
+        <v>1</v>
       </c>
       <c r="ES4">
-        <v>0.8277694510592307</v>
+        <v>1</v>
       </c>
       <c r="ET4">
-        <v>0.8277694510592307</v>
+        <v>1</v>
       </c>
       <c r="EU4">
-        <v>0.8277694510592307</v>
+        <v>1</v>
       </c>
       <c r="EV4">
-        <v>0.8277694510592307</v>
+        <v>1</v>
       </c>
       <c r="EW4">
-        <v>0.8277694510592307</v>
+        <v>1</v>
       </c>
       <c r="EX4">
-        <v>0.8299468196953766</v>
+        <v>1</v>
       </c>
       <c r="EY4">
-        <v>0.8366510583913647</v>
+        <v>1</v>
       </c>
       <c r="EZ4">
-        <v>0.8461781801546909</v>
+        <v>1</v>
       </c>
       <c r="FA4">
-        <v>0.8524355021907534</v>
+        <v>1</v>
       </c>
       <c r="FB4">
-        <v>0.8531866971745404</v>
+        <v>1</v>
       </c>
       <c r="FC4">
-        <v>0.8531866971745404</v>
+        <v>1</v>
       </c>
       <c r="FD4">
-        <v>0.8531866971745404</v>
+        <v>1</v>
       </c>
       <c r="FE4">
-        <v>0.8561726293260915</v>
+        <v>1</v>
       </c>
       <c r="FF4">
-        <v>0.8561726293260915</v>
+        <v>1</v>
       </c>
       <c r="FG4">
-        <v>0.8570150447266964</v>
+        <v>1</v>
       </c>
       <c r="FH4">
-        <v>0.8711495514372374</v>
+        <v>1</v>
       </c>
       <c r="FI4">
-        <v>0.8966772729719786</v>
+        <v>1</v>
       </c>
       <c r="FJ4">
-        <v>0.9189760017282209</v>
+        <v>1</v>
       </c>
       <c r="FK4">
-        <v>0.9358612667404589</v>
+        <v>1</v>
       </c>
       <c r="FL4">
-        <v>0.9438297714264033</v>
+        <v>1</v>
       </c>
       <c r="FM4">
-        <v>0.9438297714264033</v>
+        <v>1</v>
       </c>
       <c r="FN4">
-        <v>0.9438297714264033</v>
+        <v>1</v>
       </c>
       <c r="FO4">
-        <v>0.9438297714264033</v>
+        <v>1</v>
       </c>
       <c r="FP4">
-        <v>0.9438297714264033</v>
+        <v>1</v>
       </c>
       <c r="FQ4">
-        <v>0.9443583912833294</v>
+        <v>1</v>
       </c>
       <c r="FR4">
-        <v>0.9451934215729165</v>
+        <v>1</v>
       </c>
       <c r="FS4">
-        <v>0.9481457827185565</v>
+        <v>1</v>
       </c>
       <c r="FT4">
-        <v>0.9560273427314043</v>
+        <v>1</v>
       </c>
       <c r="FU4">
-        <v>0.9622460321153469</v>
+        <v>1</v>
       </c>
       <c r="FV4">
-        <v>0.9622460321153469</v>
+        <v>1</v>
       </c>
       <c r="FW4">
-        <v>0.9622460321153469</v>
+        <v>1</v>
       </c>
       <c r="FX4">
-        <v>0.9622460321153469</v>
+        <v>1</v>
       </c>
       <c r="FY4">
-        <v>0.9622460321153469</v>
+        <v>1</v>
       </c>
       <c r="FZ4">
-        <v>0.9622460321153469</v>
+        <v>1</v>
       </c>
       <c r="GA4">
-        <v>0.9640033483491091</v>
+        <v>1</v>
       </c>
       <c r="GB4">
-        <v>0.9640033483491091</v>
+        <v>1</v>
       </c>
       <c r="GC4">
-        <v>0.9666164439066987</v>
+        <v>1</v>
       </c>
       <c r="GD4">
-        <v>0.9771834546533172</v>
+        <v>1</v>
       </c>
       <c r="GE4">
-        <v>0.9848544484157912</v>
+        <v>1</v>
       </c>
       <c r="GF4">
-        <v>0.9860200115213459</v>
+        <v>1</v>
       </c>
       <c r="GG4">
-        <v>0.9865848913277795</v>
+        <v>1</v>
       </c>
       <c r="GH4">
-        <v>0.9913030992685574</v>
+        <v>1</v>
       </c>
       <c r="GI4">
-        <v>0.9951893919941539</v>
+        <v>1</v>
       </c>
       <c r="GJ4">
-        <v>0.9966188637960245</v>
+        <v>1</v>
       </c>
       <c r="GK4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GL4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GM4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GN4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GO4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GP4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GQ4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GR4">
-        <v>0.9998391245857694</v>
+        <v>1</v>
       </c>
       <c r="GS4">
         <v>1</v>
@@ -8964,601 +8964,601 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>0.000333823319640274</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0004291796622188784</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0004291796622188784</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0004653779004932275</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0004653779004932275</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0004653779004932275</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0009387626798090271</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.002275055701029836</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00323563312014593</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.003721803537088919</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.003777595600414527</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.003777595600414527</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.00407358879717635</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.005030939611112601</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.006255208940057599</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.006632013054335427</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.006661808147649714</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.006661808147649714</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.006661808147649714</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.006699820192486568</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.007144626177354911</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.008112266579665614</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.008610335040091016</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.008703690210830428</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.008768476978911836</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.008768476978911836</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.008813725981051072</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.009128604260605872</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.009894011351143248</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.01013063679000603</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.01013161816979814</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.01013161816979814</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.01013161816979814</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.01052539383346403</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.01106208394997848</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.01133310167751345</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.01133310167751345</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01134456094712666</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.01148111914935366</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.01164096538204037</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.01195287340741966</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.01246846114229896</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.01312083633500522</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.01354578118648895</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.01369729228503301</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.01369942974786708</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.01379010923985036</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.01424585135609854</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.01491276165277039</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.01570151122714816</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.01604171689302121</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.01604171689302121</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.01604171689302121</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.01611620828969042</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.01665366254104347</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.01715559707031065</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.01726877415022648</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.01726877415022648</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.01734873947500911</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.01780898959799657</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.01848484258998236</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.01925760365401686</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.01974583404881457</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.01983811601734473</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.01983811601734473</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.01983811601734473</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.02001681488499204</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.02051562212186603</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.02097859663070441</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.02128250303879884</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.02141723181143294</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.02141723181143294</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.02141723181143294</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.02145187598738649</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.02190263244824063</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.02259593102285559</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.0231139410141737</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.02312407705855705</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.02312407705855705</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.02315509309220215</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.02383000143114092</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.02477822160884807</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.02550357728859112</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.02574398908551419</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.02574398908551419</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.02574398908551419</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.02574806538863869</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.02615267983008837</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.02673486805882022</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.027320410694574</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.03041251298434227</v>
+        <v>0</v>
       </c>
       <c r="CO5">
-        <v>0.1370314633278687</v>
+        <v>0.3677001884079104</v>
       </c>
       <c r="CP5">
-        <v>0.140087664257336</v>
+        <v>0.3677001884079104</v>
       </c>
       <c r="CQ5">
-        <v>0.1964200607336363</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CR5">
-        <v>0.2056861744794577</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CS5">
-        <v>0.213124489608074</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CT5">
-        <v>0.2144594789596151</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CU5">
-        <v>0.2150368856119435</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CV5">
-        <v>0.2169099695975013</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CW5">
-        <v>0.2186182270777032</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CX5">
-        <v>0.2188998747979344</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CY5">
-        <v>0.2313219371295116</v>
+        <v>0.4933046697421152</v>
       </c>
       <c r="CZ5">
-        <v>0.2784721989402321</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DA5">
-        <v>0.2911302361886919</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DB5">
-        <v>0.3068190120688185</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DC5">
-        <v>0.3310954728720539</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DD5">
-        <v>0.3380985295657764</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DE5">
-        <v>0.3381672094072136</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DF5">
-        <v>0.3445425979784399</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DG5">
-        <v>0.3464586731706226</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DH5">
-        <v>0.3466720076907344</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DI5">
-        <v>0.3541717569780181</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DJ5">
-        <v>0.3543316032107048</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DK5">
-        <v>0.3625426312012069</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DL5">
-        <v>0.3640118848962146</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DM5">
-        <v>0.3705677788502299</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DN5">
-        <v>0.3846869885464225</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DO5">
-        <v>0.3960723426337165</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DP5">
-        <v>0.3966423067652106</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DQ5">
-        <v>0.3970400352777442</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DR5">
-        <v>0.3970836538737614</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DS5">
-        <v>0.4013297036877104</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DT5">
-        <v>0.4022912825158081</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="DU5">
-        <v>0.4458759486738486</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="DV5">
-        <v>0.4655446688261347</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="DW5">
-        <v>0.4706133906609446</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="DX5">
-        <v>0.484580175326463</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="DY5">
-        <v>0.4852488697388704</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="DZ5">
-        <v>0.4852488697388704</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EA5">
-        <v>0.4962585803303538</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EB5">
-        <v>0.4993544080109978</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EC5">
-        <v>0.5033465694424366</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="ED5">
-        <v>0.5094713953067451</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EE5">
-        <v>0.5122107351244585</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EF5">
-        <v>0.5144511747245344</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EG5">
-        <v>0.5145191198391903</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EH5">
-        <v>0.5213558204450199</v>
+        <v>0.638936181561307</v>
       </c>
       <c r="EI5">
-        <v>0.5525380373753741</v>
+        <v>0.6434595779541399</v>
       </c>
       <c r="EJ5">
-        <v>0.5887298936266558</v>
+        <v>0.6721009955736096</v>
       </c>
       <c r="EK5">
-        <v>0.5968766551151768</v>
+        <v>0.6721009955736096</v>
       </c>
       <c r="EL5">
-        <v>0.5970703048795549</v>
+        <v>0.6721009955736096</v>
       </c>
       <c r="EM5">
-        <v>0.6011113000462405</v>
+        <v>0.6721009955736096</v>
       </c>
       <c r="EN5">
-        <v>0.6170398202654198</v>
+        <v>0.6721009955736096</v>
       </c>
       <c r="EO5">
-        <v>0.695838940352666</v>
+        <v>0.9058675385313363</v>
       </c>
       <c r="EP5">
-        <v>0.7454025180276584</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EQ5">
-        <v>0.7528542501784273</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="ER5">
-        <v>0.7533358001775442</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="ES5">
-        <v>0.7535023614250121</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="ET5">
-        <v>0.7540344444643747</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EU5">
-        <v>0.7540344444643747</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EV5">
-        <v>0.758236222730526</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EW5">
-        <v>0.7710946902294484</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EX5">
-        <v>0.775567795088527</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EY5">
-        <v>0.7838696244952826</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="EZ5">
-        <v>0.8047949220499214</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FA5">
-        <v>0.8111994864031964</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FB5">
-        <v>0.8124761822594344</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FC5">
-        <v>0.8124807662050083</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FD5">
-        <v>0.8203091269003178</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FE5">
-        <v>0.8274215299614358</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FF5">
-        <v>0.8278247232928564</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FG5">
-        <v>0.8285259091245777</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FH5">
-        <v>0.8291178606263301</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FI5">
-        <v>0.8324986464231305</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FJ5">
-        <v>0.8353216636764215</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FK5">
-        <v>0.8354497599929515</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FL5">
-        <v>0.8358178783183603</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FM5">
-        <v>0.8366462823755512</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FN5">
-        <v>0.8366462823755512</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FO5">
-        <v>0.8368554990809247</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FP5">
-        <v>0.849670190788069</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FQ5">
-        <v>0.8685224869197843</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FR5">
-        <v>0.8688154138317332</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FS5">
-        <v>0.8700110229285338</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FT5">
-        <v>0.8718643161600858</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FU5">
-        <v>0.8724489745141407</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FV5">
-        <v>0.8842557919105832</v>
+        <v>0.9988847406082835</v>
       </c>
       <c r="FW5">
-        <v>0.9147300926743722</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9311305304107704</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9348148069541862</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9352118676250906</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9354566947105615</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9354566947105615</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9354566947105615</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9428777767378412</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9578581900791053</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9678184258756386</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9751898339374652</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9771748622377817</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9772026420157183</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9776575947498259</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9802503376240304</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.98404778499613</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9840860989885983</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9840860989885983</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.9845498690500177</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9846841661745811</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.985513504179963</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9914125074714303</v>
+        <v>1</v>
       </c>
       <c r="GS5">
         <v>1</v>
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>0.0002882637926949426</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005468111334227646</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0005468111334227646</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0005636382019162134</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.001009564342656157</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002095372324727527</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002958179236764653</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003205827074213586</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.003205827074213586</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.003247658455161958</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.003760357181282248</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.004640135975152037</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.00535859266888286</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005619166691916758</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.005619166691916758</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.005619166691916758</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.005619166691916758</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.005755346781135168</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.006652100334990159</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.008175380659609634</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.008898910288393831</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.008970636154164364</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.008984404719647983</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.008984404719647983</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.009236580303640773</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.009967519585180842</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.01112608927609562</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01152636681060824</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0115566249238385</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0115566249238385</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0115566249238385</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.01173993873593014</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.01206283442233365</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.01229386021437182</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.01229386021437182</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.01237954495893395</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.01249063401877291</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.01258332885606172</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.01273816944725735</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.01308054967284921</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.01354461716125482</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.01392299879811654</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.01394920035460183</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.01394920035460183</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.01430483815585929</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.07476953067125651</v>
+        <v>0.2729723234517045</v>
       </c>
       <c r="AV6">
-        <v>0.08533607002324597</v>
+        <v>0.2729723234517045</v>
       </c>
       <c r="AW6">
-        <v>0.1368491566686763</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="AX6">
-        <v>0.1523688375349612</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="AY6">
-        <v>0.1602039336464381</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="AZ6">
-        <v>0.1604383822964768</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="BA6">
-        <v>0.1618876439847985</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="BB6">
-        <v>0.1637362363558288</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="BC6">
-        <v>0.1637595564307806</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="BD6">
-        <v>0.165267814509944</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="BE6">
-        <v>0.1856066739851068</v>
+        <v>0.4653231840759857</v>
       </c>
       <c r="BF6">
-        <v>0.228676705193362</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BG6">
-        <v>0.2323744646803447</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BH6">
-        <v>0.2554219132547166</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BI6">
-        <v>0.2703817280398898</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BJ6">
-        <v>0.2727000552332589</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BK6">
-        <v>0.2750609651965946</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BL6">
-        <v>0.2821526697297682</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BM6">
-        <v>0.2826612294612066</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BN6">
-        <v>0.2828664744232861</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BO6">
-        <v>0.2845336437573629</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BP6">
-        <v>0.2866146470464353</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BQ6">
-        <v>0.2969565325040102</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BR6">
-        <v>0.2986790962109646</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BS6">
-        <v>0.2999280119151108</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BT6">
-        <v>0.3049098454704028</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BU6">
-        <v>0.3119318866360031</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BV6">
-        <v>0.3149429720626496</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BW6">
-        <v>0.3167073695154679</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BX6">
-        <v>0.3204659864308754</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BY6">
-        <v>0.3246176255412949</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="BZ6">
-        <v>0.3254920519677285</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="CA6">
-        <v>0.3567125832585589</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CB6">
-        <v>0.3742272545499013</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CC6">
-        <v>0.3742803827701308</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CD6">
-        <v>0.3762473396674415</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CE6">
-        <v>0.3764179453391616</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CF6">
-        <v>0.376787568576709</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CG6">
-        <v>0.3821126838130819</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CH6">
-        <v>0.3822103971118588</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CI6">
-        <v>0.3839987920168538</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CJ6">
-        <v>0.3853532608456389</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CK6">
-        <v>0.3853532608456389</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CL6">
-        <v>0.3915862799409553</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CM6">
-        <v>0.3926096910855331</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CN6">
-        <v>0.396908687983026</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CO6">
-        <v>0.4232103750730689</v>
+        <v>0.5912214000177447</v>
       </c>
       <c r="CP6">
-        <v>0.4564257206782246</v>
+        <v>0.6187760586495261</v>
       </c>
       <c r="CQ6">
-        <v>0.4679851441606005</v>
+        <v>0.6187760586495261</v>
       </c>
       <c r="CR6">
-        <v>0.468634976177793</v>
+        <v>0.6187760586495261</v>
       </c>
       <c r="CS6">
-        <v>0.4707018431087097</v>
+        <v>0.6187760586495261</v>
       </c>
       <c r="CT6">
-        <v>0.4879911973229374</v>
+        <v>0.6187760586495261</v>
       </c>
       <c r="CU6">
-        <v>0.5504948304577182</v>
+        <v>0.9101118330552617</v>
       </c>
       <c r="CV6">
-        <v>0.5896674788324984</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="CW6">
-        <v>0.5983195184148188</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="CX6">
-        <v>0.6019793138622147</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="CY6">
-        <v>0.6058947959277317</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="CZ6">
-        <v>0.6061695340840997</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="DA6">
-        <v>0.6062857468391367</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="DB6">
-        <v>0.6094985868339121</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="DC6">
-        <v>0.619866571901998</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="DD6">
-        <v>0.6293079528685186</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="DE6">
-        <v>0.6476114714276638</v>
+        <v>0.9913201568248666</v>
       </c>
       <c r="DF6">
-        <v>0.6787310983133771</v>
+        <v>1</v>
       </c>
       <c r="DG6">
-        <v>0.6888118085360688</v>
+        <v>1</v>
       </c>
       <c r="DH6">
-        <v>0.6888118085360688</v>
+        <v>1</v>
       </c>
       <c r="DI6">
-        <v>0.6890159476636386</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>0.6992485106230975</v>
+        <v>1</v>
       </c>
       <c r="DK6">
-        <v>0.7102783318989287</v>
+        <v>1</v>
       </c>
       <c r="DL6">
-        <v>0.7145029265406319</v>
+        <v>1</v>
       </c>
       <c r="DM6">
-        <v>0.7179410793858644</v>
+        <v>1</v>
       </c>
       <c r="DN6">
-        <v>0.7179410793858644</v>
+        <v>1</v>
       </c>
       <c r="DO6">
-        <v>0.7194812204513493</v>
+        <v>1</v>
       </c>
       <c r="DP6">
-        <v>0.7209848400757309</v>
+        <v>1</v>
       </c>
       <c r="DQ6">
-        <v>0.7216812996332985</v>
+        <v>1</v>
       </c>
       <c r="DR6">
-        <v>0.7227880575468022</v>
+        <v>1</v>
       </c>
       <c r="DS6">
-        <v>0.7228337225464229</v>
+        <v>1</v>
       </c>
       <c r="DT6">
-        <v>0.7231308940098886</v>
+        <v>1</v>
       </c>
       <c r="DU6">
-        <v>0.7233362518639791</v>
+        <v>1</v>
       </c>
       <c r="DV6">
-        <v>0.7336588225027941</v>
+        <v>1</v>
       </c>
       <c r="DW6">
-        <v>0.7455780804649217</v>
+        <v>1</v>
       </c>
       <c r="DX6">
-        <v>0.7469749828224072</v>
+        <v>1</v>
       </c>
       <c r="DY6">
-        <v>0.7511470370914414</v>
+        <v>1</v>
       </c>
       <c r="DZ6">
-        <v>0.7542039478388556</v>
+        <v>1</v>
       </c>
       <c r="EA6">
-        <v>0.7542513864345649</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.7638835365842791</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.7862231820371092</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8013853842820655</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8088043836672251</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8092179034708648</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8099417747846598</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.8104981634838883</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.8104981634838883</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8190276410664199</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8337592022538125</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8467299992836171</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8574206081432629</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8602718830432801</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8602718830432801</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8607263215113558</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8646698670736345</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8702320579484891</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8719728327127686</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8729864197968964</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8729864197968964</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.8730593673780382</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.8733329392385665</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.8749163620826728</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.8770146132543173</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.8777401126665458</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.8777401126665458</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.8791058873011642</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.8793381985304685</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.880339704720272</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.8866080617925713</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.8891064599956442</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.8893801598534525</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.8957637704307895</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9094817650434069</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9227484824460359</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9278948644098268</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9295442051990888</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.929576540763827</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9295993182939429</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.930521488510953</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.930868613864113</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9321356786346067</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.936504976219254</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9469111652400612</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9599553617008293</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.965206657758888</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9654726704234901</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9655252462749239</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9657392221429163</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9669768723957456</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9713885825770748</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9777974655476549</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9777974655476549</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9802859604907657</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9869335922524179</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9919638528374831</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9932216960475003</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9934015352250363</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9936047623606635</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9936047623606635</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9936047623606635</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9937909929992095</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9941079554144107</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9961487195145058</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9990403424902501</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9998062049123959</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9998062049123959</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9998062049123959</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9998062049123959</v>
+        <v>1</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10570,16 +10570,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5088284611480567</v>
+        <v>0.6324138484765133</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -10611,16 +10611,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>0.01404344113683227</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5042712597950073</v>
+        <v>0.5155625668558362</v>
       </c>
       <c r="G3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D4">
         <v>98</v>
       </c>
       <c r="E4">
-        <v>0.06259247085350338</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="F4">
-        <v>0.5444326515954636</v>
+        <v>0.7383885435535923</v>
       </c>
       <c r="G4">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -10693,16 +10693,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E5">
-        <v>0.027320410694574</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5033465694424366</v>
+        <v>0.574703390025783</v>
       </c>
       <c r="G5">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E6">
-        <v>0.01430483815585929</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5504948304577182</v>
+        <v>0.5816327745677374</v>
       </c>
       <c r="G6">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -10829,16 +10829,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7279878699126734</v>
+        <v>0.7360640738450736</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -10870,16 +10870,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E3">
-        <v>0.01404344113683227</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7091526220535362</v>
+        <v>0.7034521941946331</v>
       </c>
       <c r="G3">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E4">
-        <v>0.06259247085350338</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="F4">
-        <v>0.7032752032058052</v>
+        <v>0.7383885435535923</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -10952,16 +10952,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E5">
-        <v>0.027320410694574</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7454025180276584</v>
+        <v>0.9058675385313363</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01430483815585929</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7102783318989287</v>
+        <v>0.9101118330552617</v>
       </c>
       <c r="G6">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -11088,16 +11088,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.833549973988195</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="G2">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -11129,16 +11129,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01404344113683227</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8225093296474143</v>
+        <v>0.955990726026846</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.06259247085350338</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="F4">
-        <v>0.8039817585892201</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -11211,16 +11211,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E5">
-        <v>0.027320410694574</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8047949220499214</v>
+        <v>0.9058675385313363</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01430483815585929</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8013853842820655</v>
+        <v>0.9101118330552617</v>
       </c>
       <c r="G6">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -11347,16 +11347,16 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E2">
-        <v>0.000368181998613587</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9042580459814592</v>
+        <v>0.9765004847311096</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H2">
         <v>49</v>
@@ -11388,16 +11388,16 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="E3">
-        <v>0.01404344113683227</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9017049176152905</v>
+        <v>0.955990726026846</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="E4">
-        <v>0.06259247085350338</v>
+        <v>0.08067536660730536</v>
       </c>
       <c r="F4">
-        <v>0.9189760017282209</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -11470,16 +11470,16 @@
         <v>90</v>
       </c>
       <c r="D5">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E5">
-        <v>0.027320410694574</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9147300926743722</v>
+        <v>0.9058675385313363</v>
       </c>
       <c r="G5">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="E6">
-        <v>0.01430483815585929</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9094817650434069</v>
+        <v>0.9101118330552617</v>
       </c>
       <c r="G6">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="H6">
         <v>49</v>

--- a/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/49_455-55R22.xlsx
@@ -1091,28 +1091,28 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.365003021172796</v>
+        <v>0.2914349181495037</v>
       </c>
       <c r="AZ2">
-        <v>0.1149568721623606</v>
+        <v>0.1093904586303406</v>
       </c>
       <c r="BA2">
-        <v>0.1127392764464058</v>
+        <v>0.1077759526075898</v>
       </c>
       <c r="BB2">
-        <v>0.004085354532923467</v>
+        <v>0.02867117707852629</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>0.01037617990615508</v>
       </c>
       <c r="BD2">
         <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.01913166790606325</v>
+        <v>0.03962554688829639</v>
       </c>
       <c r="BF2">
-        <v>0</v>
+        <v>0.003587627702367524</v>
       </c>
       <c r="BG2">
         <v>0</v>
@@ -1121,28 +1121,28 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.002733256982628053</v>
+        <v>0.02768679132119778</v>
       </c>
       <c r="BJ2">
-        <v>0.2264606074945661</v>
+        <v>0.1905700221359238</v>
       </c>
       <c r="BK2">
         <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.1548899433022564</v>
+        <v>0.138463469278064</v>
       </c>
       <c r="BM2">
         <v>0</v>
       </c>
       <c r="BN2">
-        <v>0</v>
+        <v>0.01905349489516644</v>
       </c>
       <c r="BO2">
-        <v>0</v>
+        <v>0.008294541706803119</v>
       </c>
       <c r="BP2">
-        <v>0</v>
+        <v>0.006132591060066446</v>
       </c>
       <c r="BQ2">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="BU2">
-        <v>0</v>
+        <v>0.005154041397910612</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="BX2">
-        <v>0</v>
+        <v>0.008464766991824926</v>
       </c>
       <c r="BY2">
-        <v>0</v>
+        <v>0.0006955538890121722</v>
       </c>
       <c r="BZ2">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="CD2">
-        <v>0</v>
+        <v>0.004622866361251105</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.5370863103491953</v>
+        <v>0.4147662026012903</v>
       </c>
       <c r="AZ3">
-        <v>0.01794443467357612</v>
+        <v>0.03895398624405033</v>
       </c>
       <c r="BA3">
-        <v>0.1373622356503486</v>
+        <v>0.125401777417095</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>0.01832870004544264</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>0.000471350921028096</v>
       </c>
       <c r="BD3">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.0006989526631475865</v>
+        <v>0.02646980201588823</v>
       </c>
       <c r="BJ3">
-        <v>0.1597245021088572</v>
+        <v>0.1415900552546441</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>0.004323160733364187</v>
       </c>
       <c r="BL3">
-        <v>0.1212822145785003</v>
+        <v>0.1137612825134275</v>
       </c>
       <c r="BM3">
-        <v>0</v>
+        <v>0.01193175011663983</v>
       </c>
       <c r="BN3">
-        <v>0.02570071711011289</v>
+        <v>0.04456883996659798</v>
       </c>
       <c r="BO3">
         <v>0</v>
       </c>
       <c r="BP3">
-        <v>0</v>
+        <v>0.0005875116875130904</v>
       </c>
       <c r="BQ3">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>0</v>
+        <v>0.002444420940245162</v>
       </c>
       <c r="BT3">
         <v>0</v>
       </c>
       <c r="BU3">
-        <v>0</v>
+        <v>0.01555344635565222</v>
       </c>
       <c r="BV3">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="BX3">
-        <v>0</v>
+        <v>0.01473865006766411</v>
       </c>
       <c r="BY3">
-        <v>0.0002006328662619831</v>
+        <v>0.02610906311945738</v>
       </c>
       <c r="BZ3">
         <v>0</v>
@@ -1446,25 +1446,25 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01592003468487067</v>
       </c>
       <c r="E4">
-        <v>0.2495286713400045</v>
+        <v>0.1903158616730574</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.01697716118985128</v>
       </c>
       <c r="G4">
-        <v>0.1133904479962849</v>
+        <v>0.1006924550300044</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.04111543161020382</v>
+        <v>0.0531118929761815</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.01162217287798419</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1473,34 +1473,34 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.002319619500982907</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.01837691735401098</v>
       </c>
       <c r="P4">
-        <v>0.3807364720747017</v>
+        <v>0.2766934402190677</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.006298349651794205</v>
       </c>
       <c r="R4">
-        <v>0.003824845673831459</v>
+        <v>0.02856251025877151</v>
       </c>
       <c r="S4">
-        <v>0.02710899955121854</v>
+        <v>0.04389108690710743</v>
       </c>
       <c r="T4">
-        <v>0.06378956444103699</v>
+        <v>0.0680388765746501</v>
       </c>
       <c r="U4">
-        <v>0.0133562286889855</v>
+        <v>0.03483727273808696</v>
       </c>
       <c r="V4">
-        <v>0.1071493386237327</v>
+        <v>0.09658376704024144</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>0.01510816589038944</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.006825400799838795</v>
       </c>
       <c r="AE4">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.01382501463310903</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1835,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.4766951824814411</v>
+        <v>0.3493494273984147</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.2255935194103057</v>
+        <v>0.1786859604583735</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>0.01895151120634673</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>0.01274829335005761</v>
       </c>
       <c r="BD5">
         <v>0</v>
@@ -1865,28 +1865,28 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.006330971436515641</v>
+        <v>0.02966222979230745</v>
       </c>
       <c r="BJ5">
-        <v>0.1797433048348955</v>
+        <v>0.1475234564602715</v>
       </c>
       <c r="BK5">
-        <v>0.00750929227012756</v>
+        <v>0.03046308597212065</v>
       </c>
       <c r="BL5">
-        <v>0.02264302986437201</v>
+        <v>0.04074886462450223</v>
       </c>
       <c r="BM5">
-        <v>0.06552490981616109</v>
+        <v>0.0698939137331803</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>0.01127110496069175</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>0.009140912898698755</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -1895,25 +1895,25 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>0.01295678977107702</v>
       </c>
       <c r="BT5">
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>0.01537074101880772</v>
       </c>
       <c r="BV5">
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>0.009753515514289665</v>
       </c>
       <c r="BX5">
-        <v>0.0148055335800444</v>
+        <v>0.03542204093224291</v>
       </c>
       <c r="BY5">
-        <v>0.001154256306136954</v>
+        <v>0.02614382955271561</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.00191432235590193</v>
       </c>
       <c r="CD5">
         <v>0</v>
@@ -1945,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3083604595925675</v>
+        <v>0.2401219796320955</v>
       </c>
       <c r="F6">
-        <v>0.007431850034257923</v>
+        <v>0.03129633363922706</v>
       </c>
       <c r="G6">
-        <v>0.2543746076725289</v>
+        <v>0.2026591726951799</v>
       </c>
       <c r="H6">
-        <v>0.0373035365466062</v>
+        <v>0.05202541699887645</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01986514103927399</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1975,19 +1975,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.06636731197800433</v>
+        <v>0.07219386056548044</v>
       </c>
       <c r="P6">
-        <v>0.2034557505193934</v>
+        <v>0.1673246684291049</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.002550231798633877</v>
       </c>
       <c r="R6">
-        <v>0.0827024245987157</v>
+        <v>0.08352940772529724</v>
       </c>
       <c r="S6">
-        <v>0.03392706446003331</v>
+        <v>0.04968235641154851</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.0167540193499305</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.006076994597892644</v>
+        <v>0.03035614864936783</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.007924130025673343</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>0.01646247553892241</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.00280492242340822</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.004449735077979746</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2592,100 +2592,100 @@
         <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.365003021172796</v>
+        <v>0.2914349181495037</v>
       </c>
       <c r="AZ2">
-        <v>0.4799598933351566</v>
+        <v>0.4008253767798444</v>
       </c>
       <c r="BA2">
-        <v>0.5926991697815625</v>
+        <v>0.5086013293874342</v>
       </c>
       <c r="BB2">
-        <v>0.5967845243144859</v>
+        <v>0.5372725064659605</v>
       </c>
       <c r="BC2">
-        <v>0.5967845243144859</v>
+        <v>0.5476486863721156</v>
       </c>
       <c r="BD2">
-        <v>0.5967845243144859</v>
+        <v>0.5476486863721156</v>
       </c>
       <c r="BE2">
-        <v>0.6159161922205492</v>
+        <v>0.5872742332604119</v>
       </c>
       <c r="BF2">
-        <v>0.6159161922205492</v>
+        <v>0.5908618609627795</v>
       </c>
       <c r="BG2">
-        <v>0.6159161922205492</v>
+        <v>0.5908618609627795</v>
       </c>
       <c r="BH2">
-        <v>0.6159161922205492</v>
+        <v>0.5908618609627795</v>
       </c>
       <c r="BI2">
-        <v>0.6186494492031772</v>
+        <v>0.6185486522839773</v>
       </c>
       <c r="BJ2">
-        <v>0.8451100566977433</v>
+        <v>0.809118674419901</v>
       </c>
       <c r="BK2">
-        <v>0.8451100566977433</v>
+        <v>0.809118674419901</v>
       </c>
       <c r="BL2">
-        <v>0.9999999999999998</v>
+        <v>0.9475821436979651</v>
       </c>
       <c r="BM2">
-        <v>0.9999999999999998</v>
+        <v>0.9475821436979651</v>
       </c>
       <c r="BN2">
-        <v>0.9999999999999998</v>
+        <v>0.9666356385931315</v>
       </c>
       <c r="BO2">
-        <v>0.9999999999999998</v>
+        <v>0.9749301802999346</v>
       </c>
       <c r="BP2">
-        <v>0.9999999999999998</v>
+        <v>0.9810627713600011</v>
       </c>
       <c r="BQ2">
-        <v>0.9999999999999998</v>
+        <v>0.9810627713600011</v>
       </c>
       <c r="BR2">
-        <v>0.9999999999999998</v>
+        <v>0.9810627713600011</v>
       </c>
       <c r="BS2">
-        <v>0.9999999999999998</v>
+        <v>0.9810627713600011</v>
       </c>
       <c r="BT2">
-        <v>0.9999999999999998</v>
+        <v>0.9810627713600011</v>
       </c>
       <c r="BU2">
-        <v>0.9999999999999998</v>
+        <v>0.9862168127579117</v>
       </c>
       <c r="BV2">
-        <v>0.9999999999999998</v>
+        <v>0.9862168127579117</v>
       </c>
       <c r="BW2">
-        <v>0.9999999999999998</v>
+        <v>0.9862168127579117</v>
       </c>
       <c r="BX2">
-        <v>0.9999999999999998</v>
+        <v>0.9946815797497367</v>
       </c>
       <c r="BY2">
-        <v>0.9999999999999998</v>
+        <v>0.9953771336387489</v>
       </c>
       <c r="BZ2">
-        <v>0.9999999999999998</v>
+        <v>0.9953771336387489</v>
       </c>
       <c r="CA2">
-        <v>0.9999999999999998</v>
+        <v>0.9953771336387489</v>
       </c>
       <c r="CB2">
-        <v>0.9999999999999998</v>
+        <v>0.9953771336387489</v>
       </c>
       <c r="CC2">
-        <v>0.9999999999999998</v>
+        <v>0.9953771336387489</v>
       </c>
       <c r="CD2">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:82">
@@ -2840,100 +2840,100 @@
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.5370863103491953</v>
+        <v>0.4147662026012903</v>
       </c>
       <c r="AZ3">
-        <v>0.5550307450227714</v>
+        <v>0.4537201888453407</v>
       </c>
       <c r="BA3">
-        <v>0.6923929806731199</v>
+        <v>0.5791219662624356</v>
       </c>
       <c r="BB3">
-        <v>0.6923929806731199</v>
+        <v>0.5974506663078782</v>
       </c>
       <c r="BC3">
-        <v>0.6923929806731199</v>
+        <v>0.5979220172289064</v>
       </c>
       <c r="BD3">
-        <v>0.6923929806731199</v>
+        <v>0.5979220172289064</v>
       </c>
       <c r="BE3">
-        <v>0.6923929806731199</v>
+        <v>0.5979220172289064</v>
       </c>
       <c r="BF3">
-        <v>0.6923929806731199</v>
+        <v>0.5979220172289064</v>
       </c>
       <c r="BG3">
-        <v>0.6923929806731199</v>
+        <v>0.5979220172289064</v>
       </c>
       <c r="BH3">
-        <v>0.6923929806731199</v>
+        <v>0.5979220172289064</v>
       </c>
       <c r="BI3">
-        <v>0.6930919333362675</v>
+        <v>0.6243918192447946</v>
       </c>
       <c r="BJ3">
-        <v>0.8528164354451246</v>
+        <v>0.7659818744994387</v>
       </c>
       <c r="BK3">
-        <v>0.8528164354451246</v>
+        <v>0.7703050352328028</v>
       </c>
       <c r="BL3">
-        <v>0.9740986500236249</v>
+        <v>0.8840663177462303</v>
       </c>
       <c r="BM3">
-        <v>0.9740986500236249</v>
+        <v>0.8959980678628702</v>
       </c>
       <c r="BN3">
-        <v>0.9997993671337378</v>
+        <v>0.9405669078294682</v>
       </c>
       <c r="BO3">
-        <v>0.9997993671337378</v>
+        <v>0.9405669078294682</v>
       </c>
       <c r="BP3">
-        <v>0.9997993671337378</v>
+        <v>0.9411544195169813</v>
       </c>
       <c r="BQ3">
-        <v>0.9997993671337378</v>
+        <v>0.9411544195169813</v>
       </c>
       <c r="BR3">
-        <v>0.9997993671337378</v>
+        <v>0.9411544195169813</v>
       </c>
       <c r="BS3">
-        <v>0.9997993671337378</v>
+        <v>0.9435988404572264</v>
       </c>
       <c r="BT3">
-        <v>0.9997993671337378</v>
+        <v>0.9435988404572264</v>
       </c>
       <c r="BU3">
-        <v>0.9997993671337378</v>
+        <v>0.9591522868128787</v>
       </c>
       <c r="BV3">
-        <v>0.9997993671337378</v>
+        <v>0.9591522868128787</v>
       </c>
       <c r="BW3">
-        <v>0.9997993671337378</v>
+        <v>0.9591522868128787</v>
       </c>
       <c r="BX3">
-        <v>0.9997993671337378</v>
+        <v>0.9738909368805427</v>
       </c>
       <c r="BY3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="BZ3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CA3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CC3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="CD3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:82">
@@ -2947,94 +2947,94 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.01592003468487067</v>
       </c>
       <c r="E4">
-        <v>0.2495286713400045</v>
+        <v>0.206235896357928</v>
       </c>
       <c r="F4">
-        <v>0.2495286713400045</v>
+        <v>0.2232130575477793</v>
       </c>
       <c r="G4">
-        <v>0.3629191193362893</v>
+        <v>0.3239055125777838</v>
       </c>
       <c r="H4">
-        <v>0.3629191193362893</v>
+        <v>0.3239055125777838</v>
       </c>
       <c r="I4">
-        <v>0.4040345509464932</v>
+        <v>0.3770174055539653</v>
       </c>
       <c r="J4">
-        <v>0.4040345509464932</v>
+        <v>0.3886395784319495</v>
       </c>
       <c r="K4">
-        <v>0.4040345509464932</v>
+        <v>0.3886395784319495</v>
       </c>
       <c r="L4">
-        <v>0.4040345509464932</v>
+        <v>0.3886395784319495</v>
       </c>
       <c r="M4">
-        <v>0.4040345509464932</v>
+        <v>0.3909591979329324</v>
       </c>
       <c r="N4">
-        <v>0.4040345509464932</v>
+        <v>0.3909591979329324</v>
       </c>
       <c r="O4">
-        <v>0.4040345509464932</v>
+        <v>0.4093361152869434</v>
       </c>
       <c r="P4">
-        <v>0.7847710230211948</v>
+        <v>0.686029555506011</v>
       </c>
       <c r="Q4">
-        <v>0.7847710230211948</v>
+        <v>0.6923279051578052</v>
       </c>
       <c r="R4">
-        <v>0.7885958686950263</v>
+        <v>0.7208904154165767</v>
       </c>
       <c r="S4">
-        <v>0.8157048682462449</v>
+        <v>0.7647815023236841</v>
       </c>
       <c r="T4">
-        <v>0.8794944326872819</v>
+        <v>0.8328203788983343</v>
       </c>
       <c r="U4">
-        <v>0.8928506613762673</v>
+        <v>0.8676576516364213</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9793495845670521</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.986174985366891</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.986174985366891</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.986174985366891</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.986174985366891</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -3336,94 +3336,94 @@
         <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.4766951824814411</v>
+        <v>0.3493494273984147</v>
       </c>
       <c r="AZ5">
-        <v>0.4766951824814411</v>
+        <v>0.3493494273984147</v>
       </c>
       <c r="BA5">
-        <v>0.7022887018917469</v>
+        <v>0.5280353878567882</v>
       </c>
       <c r="BB5">
-        <v>0.7022887018917469</v>
+        <v>0.5469868990631349</v>
       </c>
       <c r="BC5">
-        <v>0.7022887018917469</v>
+        <v>0.5597351924131925</v>
       </c>
       <c r="BD5">
-        <v>0.7022887018917469</v>
+        <v>0.5597351924131925</v>
       </c>
       <c r="BE5">
-        <v>0.7022887018917469</v>
+        <v>0.5597351924131925</v>
       </c>
       <c r="BF5">
-        <v>0.7022887018917469</v>
+        <v>0.5597351924131925</v>
       </c>
       <c r="BG5">
-        <v>0.7022887018917469</v>
+        <v>0.5597351924131925</v>
       </c>
       <c r="BH5">
-        <v>0.7022887018917469</v>
+        <v>0.5597351924131925</v>
       </c>
       <c r="BI5">
-        <v>0.7086196733282625</v>
+        <v>0.5893974222055</v>
       </c>
       <c r="BJ5">
-        <v>0.888362978163158</v>
+        <v>0.7369208786657715</v>
       </c>
       <c r="BK5">
-        <v>0.8958722704332855</v>
+        <v>0.7673839646378922</v>
       </c>
       <c r="BL5">
-        <v>0.9185153002976576</v>
+        <v>0.8081328292623944</v>
       </c>
       <c r="BM5">
-        <v>0.9840402101138187</v>
+        <v>0.8780267429955747</v>
       </c>
       <c r="BN5">
-        <v>0.9840402101138187</v>
+        <v>0.8892978479562664</v>
       </c>
       <c r="BO5">
-        <v>0.9840402101138187</v>
+        <v>0.8892978479562664</v>
       </c>
       <c r="BP5">
-        <v>0.9840402101138187</v>
+        <v>0.8984387608549652</v>
       </c>
       <c r="BQ5">
-        <v>0.9840402101138187</v>
+        <v>0.8984387608549652</v>
       </c>
       <c r="BR5">
-        <v>0.9840402101138187</v>
+        <v>0.8984387608549652</v>
       </c>
       <c r="BS5">
-        <v>0.9840402101138187</v>
+        <v>0.9113955506260423</v>
       </c>
       <c r="BT5">
-        <v>0.9840402101138187</v>
+        <v>0.9113955506260423</v>
       </c>
       <c r="BU5">
-        <v>0.9840402101138187</v>
+        <v>0.92676629164485</v>
       </c>
       <c r="BV5">
-        <v>0.9840402101138187</v>
+        <v>0.92676629164485</v>
       </c>
       <c r="BW5">
-        <v>0.9840402101138187</v>
+        <v>0.9365198071591397</v>
       </c>
       <c r="BX5">
-        <v>0.9988457436938631</v>
+        <v>0.9719418480913826</v>
       </c>
       <c r="BY5">
-        <v>1</v>
+        <v>0.9980856776440983</v>
       </c>
       <c r="BZ5">
-        <v>1</v>
+        <v>0.9980856776440983</v>
       </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0.9980856776440983</v>
       </c>
       <c r="CB5">
-        <v>1</v>
+        <v>0.9980856776440983</v>
       </c>
       <c r="CC5">
         <v>1</v>
@@ -3446,238 +3446,238 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3083604595925675</v>
+        <v>0.2401219796320955</v>
       </c>
       <c r="F6">
-        <v>0.3157923096268254</v>
+        <v>0.2714183132713225</v>
       </c>
       <c r="G6">
-        <v>0.5701669172993543</v>
+        <v>0.4740774859665025</v>
       </c>
       <c r="H6">
-        <v>0.6074704538459605</v>
+        <v>0.5261029029653789</v>
       </c>
       <c r="I6">
-        <v>0.6074704538459605</v>
+        <v>0.5459680440046528</v>
       </c>
       <c r="J6">
-        <v>0.6074704538459605</v>
+        <v>0.5459680440046528</v>
       </c>
       <c r="K6">
-        <v>0.6074704538459605</v>
+        <v>0.5459680440046528</v>
       </c>
       <c r="L6">
-        <v>0.6074704538459605</v>
+        <v>0.5459680440046528</v>
       </c>
       <c r="M6">
-        <v>0.6074704538459605</v>
+        <v>0.5459680440046528</v>
       </c>
       <c r="N6">
-        <v>0.6074704538459605</v>
+        <v>0.5459680440046528</v>
       </c>
       <c r="O6">
-        <v>0.6738377658239649</v>
+        <v>0.6181619045701332</v>
       </c>
       <c r="P6">
-        <v>0.8772935163433583</v>
+        <v>0.7854865729992381</v>
       </c>
       <c r="Q6">
-        <v>0.8772935163433583</v>
+        <v>0.788036804797872</v>
       </c>
       <c r="R6">
-        <v>0.959995940942074</v>
+        <v>0.8715662125231692</v>
       </c>
       <c r="S6">
-        <v>0.9939230054021073</v>
+        <v>0.9212485689347177</v>
       </c>
       <c r="T6">
-        <v>0.9939230054021073</v>
+        <v>0.9212485689347177</v>
       </c>
       <c r="U6">
-        <v>0.9939230054021073</v>
+        <v>0.9212485689347177</v>
       </c>
       <c r="V6">
-        <v>0.9939230054021073</v>
+        <v>0.9380025882846482</v>
       </c>
       <c r="W6">
-        <v>0.9939230054021073</v>
+        <v>0.9380025882846482</v>
       </c>
       <c r="X6">
-        <v>0.9939230054021073</v>
+        <v>0.9380025882846482</v>
       </c>
       <c r="Y6">
-        <v>0.9939230054021073</v>
+        <v>0.9380025882846482</v>
       </c>
       <c r="Z6">
-        <v>0.9939230054021073</v>
+        <v>0.9380025882846482</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.9683587369340161</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.9683587369340161</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.9683587369340161</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9762828669596895</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9927453424986119</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9927453424986119</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9927453424986119</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9955502649220201</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BF6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BG6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BH6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BI6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BJ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BK6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BL6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BN6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BO6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BP6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BQ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BR6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BS6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BT6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BU6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BV6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BW6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BX6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BY6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="BZ6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CB6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CC6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="CD6">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5926991697815625</v>
+        <v>0.5086013293874342</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -3786,16 +3786,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5370863103491953</v>
+        <v>0.5791219662624356</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7847710230211948</v>
+        <v>0.686029555506011</v>
       </c>
       <c r="G4">
         <v>13</v>
@@ -3874,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7022887018917469</v>
+        <v>0.5280353878567882</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -3909,16 +3909,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5701669172993543</v>
+        <v>0.5261029029653789</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8451100566977433</v>
+        <v>0.809118674419901</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8528164354451246</v>
+        <v>0.7659818744994387</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -4086,16 +4086,16 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0.7208904154165767</v>
+      </c>
+      <c r="G4">
         <v>15</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0.7847710230211948</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -4127,16 +4127,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7022887018917469</v>
+        <v>0.7369208786657715</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8772935163433583</v>
+        <v>0.7854865729992381</v>
       </c>
       <c r="G6">
         <v>13</v>
@@ -4269,7 +4269,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8451100566977433</v>
+        <v>0.809118674419901</v>
       </c>
       <c r="G2">
         <v>13</v>
@@ -4304,16 +4304,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8528164354451246</v>
+        <v>0.8840663177462303</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -4345,16 +4345,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8157048682462449</v>
+        <v>0.8328203788983343</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>49</v>
@@ -4386,16 +4386,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.888362978163158</v>
+        <v>0.8081328292623944</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -4427,16 +4427,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8715662125231692</v>
+      </c>
+      <c r="G6">
         <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8772935163433583</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
       </c>
       <c r="H6">
         <v>49</v>
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9999999999999998</v>
+        <v>0.9475821436979651</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -4563,16 +4563,16 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9740986500236249</v>
+        <v>0.9405669078294682</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>49</v>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9642414186766627</v>
       </c>
       <c r="G4">
         <v>19</v>
@@ -4645,16 +4645,16 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9185153002976576</v>
+        <v>0.9113955506260423</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>49</v>
@@ -4686,16 +4686,16 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.959995940942074</v>
+        <v>0.9212485689347177</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>49</v>
